--- a/Datasets/Welcker/Data/Welcker_JR.xlsx
+++ b/Datasets/Welcker/Data/Welcker_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Welcker/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE36A9CC-2480-0748-870E-EF1156B856C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A133BD-6023-1A46-9608-DED42292CA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DCC7147D-D2F2-BB4F-A58C-A27E053C76E5}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{DCC7147D-D2F2-BB4F-A58C-A27E053C76E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="636">
   <si>
     <t>ID</t>
   </si>
@@ -1712,9 +1712,6 @@
     <t>Schilderung des Weltunterganges.</t>
   </si>
   <si>
-    <t>[Altsachsen]</t>
-  </si>
-  <si>
     <t>8.8738378</t>
   </si>
   <si>
@@ -1781,12 +1778,6 @@
     <t>Nu vall, du rip.</t>
   </si>
   <si>
-    <t>[Oldenburg]</t>
-  </si>
-  <si>
-    <t>[Kleinregional]</t>
-  </si>
-  <si>
     <t>53.1435785</t>
   </si>
   <si>
@@ -1938,6 +1929,21 @@
   </si>
   <si>
     <t>Deutsches Schlusswort.</t>
+  </si>
+  <si>
+    <t>Altsächsisches Gebiet</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Oldenburg</t>
+  </si>
+  <si>
+    <t>Kommentar zu fragezeichen</t>
+  </si>
+  <si>
+    <t>Nordische Sprachen</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2001,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2005,6 +2011,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2030,7 +2042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2052,12 +2064,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2372,11 +2383,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653F447C-0236-A043-9BF1-AA739997132F}">
-  <dimension ref="A1:AE201"/>
+  <dimension ref="A1:AE202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N201" sqref="N201"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V202" sqref="V202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9399,47 +9410,46 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="2:31" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C167" s="17" t="s">
+    <row r="167" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>157</v>
+      </c>
+      <c r="C167" t="s">
         <v>154</v>
       </c>
-      <c r="D167" s="17">
+      <c r="D167">
         <v>285</v>
       </c>
-      <c r="E167" s="17">
+      <c r="E167">
         <v>286</v>
       </c>
-      <c r="F167" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G167" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K167" s="17" t="s">
+      <c r="F167" t="s">
+        <v>65</v>
+      </c>
+      <c r="G167" t="s">
+        <v>65</v>
+      </c>
+      <c r="K167" t="s">
         <v>547</v>
       </c>
-      <c r="L167" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="M167" s="17" t="s">
+      <c r="L167" t="s">
+        <v>170</v>
+      </c>
+      <c r="M167" t="s">
         <v>186</v>
       </c>
-      <c r="N167" s="18" t="s">
+      <c r="N167" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="O167" s="18" t="s">
+      <c r="O167" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="V167" s="17" t="s">
+      <c r="V167" t="s">
         <v>546</v>
       </c>
-      <c r="W167" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB167" s="19"/>
+      <c r="W167" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="168" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="9" t="s">
@@ -9530,7 +9540,7 @@
         <v>174</v>
       </c>
       <c r="Z169" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AB169" s="16"/>
       <c r="AC169" s="9" t="s">
@@ -9563,7 +9573,7 @@
         <v>65</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="L170" s="9" t="s">
         <v>65</v>
@@ -9572,10 +9582,10 @@
         <v>185</v>
       </c>
       <c r="N170" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O170" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V170" s="9" t="s">
         <v>557</v>
@@ -9584,7 +9594,7 @@
         <v>174</v>
       </c>
       <c r="Z170" s="9" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="AB170" s="16"/>
       <c r="AD170" s="9" t="s">
@@ -9617,7 +9627,7 @@
         <v>65</v>
       </c>
       <c r="K171" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L171" s="9" t="s">
         <v>65</v>
@@ -9626,19 +9636,19 @@
         <v>186</v>
       </c>
       <c r="N171" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="O171" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="V171" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="W171" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z171" s="9" t="s">
         <v>564</v>
-      </c>
-      <c r="O171" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="V171" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="W171" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z171" s="9" t="s">
-        <v>565</v>
       </c>
       <c r="AB171" s="16"/>
       <c r="AC171" s="9" t="s">
@@ -9668,7 +9678,7 @@
         <v>65</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L172" s="9" t="s">
         <v>65</v>
@@ -9683,13 +9693,13 @@
         <v>211</v>
       </c>
       <c r="V172" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W172" s="9" t="s">
         <v>174</v>
       </c>
       <c r="Z172" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AB172" s="16"/>
       <c r="AC172" s="9" t="s">
@@ -9719,7 +9729,7 @@
         <v>65</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L173" s="9" t="s">
         <v>65</v>
@@ -9740,7 +9750,7 @@
         <v>244</v>
       </c>
       <c r="Z173" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AB173" s="16"/>
     </row>
@@ -9761,7 +9771,7 @@
         <v>65</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L174" s="9" t="s">
         <v>65</v>
@@ -9782,7 +9792,7 @@
         <v>244</v>
       </c>
       <c r="Z174" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AB174" s="16"/>
     </row>
@@ -9806,7 +9816,7 @@
         <v>65</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L175" s="9" t="s">
         <v>65</v>
@@ -9815,19 +9825,19 @@
         <v>186</v>
       </c>
       <c r="N175" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="O175" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="O175" s="15" t="s">
-        <v>571</v>
-      </c>
       <c r="V175" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W175" s="9" t="s">
         <v>174</v>
       </c>
       <c r="Z175" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AB175" s="16"/>
       <c r="AC175" s="9" t="s">
@@ -9875,13 +9885,13 @@
         <v>325</v>
       </c>
       <c r="V176" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W176" s="9" t="s">
         <v>174</v>
       </c>
       <c r="Z176" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AB176" s="16"/>
       <c r="AC176" s="9" t="s">
@@ -9926,13 +9936,13 @@
         <v>551</v>
       </c>
       <c r="V177" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="W177" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z177" s="9" t="s">
         <v>573</v>
-      </c>
-      <c r="W177" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z177" s="9" t="s">
-        <v>574</v>
       </c>
       <c r="AB177" s="16"/>
       <c r="AC177" s="9" t="s">
@@ -10081,20 +10091,20 @@
       <c r="K181" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L181" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="M181" s="20" t="s">
+      <c r="L181" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M181" s="17" t="s">
         <v>201</v>
       </c>
       <c r="N181" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="O181" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="O181" s="15" t="s">
-        <v>577</v>
-      </c>
       <c r="V181" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W181" s="9" t="s">
         <v>174</v>
@@ -10142,13 +10152,13 @@
         <v>551</v>
       </c>
       <c r="V182" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W182" s="9" t="s">
         <v>174</v>
       </c>
       <c r="Z182" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AB182" s="16"/>
       <c r="AC182" s="9" t="s">
@@ -10193,13 +10203,13 @@
         <v>551</v>
       </c>
       <c r="V183" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="W183" s="9" t="s">
         <v>174</v>
       </c>
       <c r="Z183" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AB183" s="16"/>
       <c r="AC183" s="9" t="s">
@@ -10226,25 +10236,28 @@
         <v>65</v>
       </c>
       <c r="K184" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="L184" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M184" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="N184" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="O184" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="L184" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M184" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="N184" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="O184" s="15" t="s">
-        <v>584</v>
-      </c>
       <c r="V184" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="W184" s="9" t="s">
         <v>174</v>
+      </c>
+      <c r="Z184" s="9" t="s">
+        <v>634</v>
       </c>
       <c r="AB184" s="16"/>
       <c r="AC184" s="9" t="s">
@@ -10286,13 +10299,13 @@
         <v>551</v>
       </c>
       <c r="V185" s="9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="W185" s="9" t="s">
         <v>174</v>
       </c>
       <c r="Z185" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AB185" s="16"/>
       <c r="AC185" s="9" t="s">
@@ -10334,13 +10347,13 @@
         <v>551</v>
       </c>
       <c r="V186" s="9" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="W186" s="9" t="s">
         <v>174</v>
       </c>
       <c r="Z186" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AB186" s="16"/>
       <c r="AC186" s="9" t="s">
@@ -10382,13 +10395,13 @@
         <v>551</v>
       </c>
       <c r="V187" s="9" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="W187" s="9" t="s">
         <v>174</v>
       </c>
       <c r="Z187" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AB187" s="16"/>
       <c r="AC187" s="9" t="s">
@@ -10402,103 +10415,64 @@
       </c>
     </row>
     <row r="188" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C188" s="9" t="s">
+      <c r="N188" s="15"/>
+      <c r="O188" s="15"/>
+      <c r="V188" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="W188" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB188" s="16"/>
+    </row>
+    <row r="189" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C189" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D188" s="9">
+      <c r="D189" s="9">
         <v>329</v>
       </c>
-      <c r="E188" s="9">
+      <c r="E189" s="9">
         <v>332</v>
       </c>
-      <c r="F188" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G188" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K188" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="L188" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M188" s="20" t="s">
+      <c r="F189" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K189" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="L189" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M189" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="N188" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="O188" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="V188" s="9" t="s">
+      <c r="N189" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="O189" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="W188" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB188" s="16"/>
-      <c r="AC188" s="9" t="s">
+      <c r="V189" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="W189" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB189" s="16"/>
+      <c r="AC189" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="AD188" s="9" t="s">
+      <c r="AD189" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="AE188" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="189" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>157</v>
-      </c>
-      <c r="C189" t="s">
-        <v>156</v>
-      </c>
-      <c r="D189">
-        <v>333</v>
-      </c>
-      <c r="E189">
-        <v>334</v>
-      </c>
-      <c r="F189" t="s">
-        <v>65</v>
-      </c>
-      <c r="G189" t="s">
-        <v>65</v>
-      </c>
-      <c r="K189" s="9">
-        <v>999</v>
-      </c>
-      <c r="L189" s="9">
-        <v>999</v>
-      </c>
-      <c r="M189" s="9">
-        <v>999</v>
-      </c>
-      <c r="N189" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="O189" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="V189" t="s">
-        <v>592</v>
-      </c>
-      <c r="W189" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z189" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="AC189" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE189" t="s">
+      <c r="AE189" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10510,10 +10484,10 @@
         <v>156</v>
       </c>
       <c r="D190">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E190">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F190" t="s">
         <v>65</v>
@@ -10521,34 +10495,32 @@
       <c r="G190" t="s">
         <v>65</v>
       </c>
-      <c r="K190" t="s">
-        <v>594</v>
-      </c>
-      <c r="L190" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M190" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="N190" s="6" t="s">
+      <c r="K190" s="9">
+        <v>999</v>
+      </c>
+      <c r="L190" s="9">
+        <v>999</v>
+      </c>
+      <c r="M190" s="9">
+        <v>999</v>
+      </c>
+      <c r="N190" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="O190" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="V190" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="W190" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z190" t="s">
         <v>595</v>
       </c>
-      <c r="O190" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="P190" s="6"/>
-      <c r="Q190" s="6"/>
-      <c r="V190" t="s">
-        <v>593</v>
-      </c>
-      <c r="W190" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z190" s="17" t="s">
-        <v>599</v>
-      </c>
       <c r="AC190" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE190" t="s">
         <v>65</v>
@@ -10562,10 +10534,10 @@
         <v>156</v>
       </c>
       <c r="D191">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E191">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F191" t="s">
         <v>65</v>
@@ -10574,29 +10546,30 @@
         <v>65</v>
       </c>
       <c r="K191" t="s">
-        <v>59</v>
+        <v>591</v>
       </c>
       <c r="L191" s="7" t="s">
         <v>170</v>
       </c>
       <c r="M191" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="O191" s="6" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="P191" s="6"/>
-      <c r="V191" t="s">
-        <v>597</v>
-      </c>
-      <c r="W191" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z191" s="17" t="s">
-        <v>602</v>
+      <c r="Q191" s="6"/>
+      <c r="V191" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="W191" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>596</v>
       </c>
       <c r="AC191" t="s">
         <v>134</v>
@@ -10613,10 +10586,10 @@
         <v>156</v>
       </c>
       <c r="D192">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E192">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F192" t="s">
         <v>65</v>
@@ -10624,32 +10597,33 @@
       <c r="G192" t="s">
         <v>65</v>
       </c>
-      <c r="K192" s="17" t="s">
-        <v>605</v>
-      </c>
-      <c r="L192" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="M192" t="s">
-        <v>185</v>
+      <c r="K192" t="s">
+        <v>59</v>
+      </c>
+      <c r="L192" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M192" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="O192" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="V192" t="s">
-        <v>603</v>
-      </c>
-      <c r="W192" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z192" s="17" t="s">
-        <v>604</v>
+        <v>598</v>
+      </c>
+      <c r="P192" s="6"/>
+      <c r="V192" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="W192" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>599</v>
       </c>
       <c r="AC192" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE192" t="s">
         <v>65</v>
@@ -10663,10 +10637,10 @@
         <v>156</v>
       </c>
       <c r="D193">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E193">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F193" t="s">
         <v>65</v>
@@ -10674,35 +10648,32 @@
       <c r="G193" t="s">
         <v>65</v>
       </c>
-      <c r="K193" s="9">
-        <v>999</v>
-      </c>
-      <c r="L193" s="9">
-        <v>999</v>
-      </c>
-      <c r="M193" s="9">
-        <v>999</v>
-      </c>
-      <c r="N193" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="O193" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="V193" t="s">
-        <v>608</v>
-      </c>
-      <c r="W193" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z193" s="17" t="s">
-        <v>609</v>
+      <c r="K193" t="s">
+        <v>602</v>
+      </c>
+      <c r="L193" t="s">
+        <v>170</v>
+      </c>
+      <c r="M193" t="s">
+        <v>185</v>
+      </c>
+      <c r="N193" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="O193" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="V193" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="W193" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>601</v>
       </c>
       <c r="AC193" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD193" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="AE193" t="s">
         <v>65</v>
@@ -10716,38 +10687,50 @@
         <v>156</v>
       </c>
       <c r="D194">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E194">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F194" t="s">
         <v>65</v>
       </c>
-      <c r="K194" t="s">
-        <v>60</v>
-      </c>
-      <c r="L194" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M194" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="N194" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="O194" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="V194" t="s">
-        <v>610</v>
-      </c>
-      <c r="W194" s="17" t="s">
-        <v>174</v>
+      <c r="G194" t="s">
+        <v>65</v>
+      </c>
+      <c r="K194" s="9">
+        <v>999</v>
+      </c>
+      <c r="L194" s="9">
+        <v>999</v>
+      </c>
+      <c r="M194" s="9">
+        <v>999</v>
+      </c>
+      <c r="N194" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="O194" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="V194" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="W194" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>606</v>
       </c>
       <c r="AC194" t="s">
         <v>136</v>
       </c>
+      <c r="AD194" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="195" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
@@ -10757,40 +10740,37 @@
         <v>156</v>
       </c>
       <c r="D195">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E195">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F195" t="s">
         <v>65</v>
       </c>
-      <c r="G195" t="s">
-        <v>65</v>
-      </c>
       <c r="K195" t="s">
-        <v>614</v>
+        <v>60</v>
       </c>
       <c r="L195" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" s="7" t="s">
         <v>185</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="O195" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="V195" t="s">
-        <v>613</v>
-      </c>
-      <c r="W195" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="V195" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="W195" s="18" t="s">
         <v>174</v>
       </c>
       <c r="AC195" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="196" spans="2:31" x14ac:dyDescent="0.2">
@@ -10801,10 +10781,10 @@
         <v>156</v>
       </c>
       <c r="D196">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E196">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F196" t="s">
         <v>65</v>
@@ -10813,7 +10793,7 @@
         <v>65</v>
       </c>
       <c r="K196" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L196" s="7" t="s">
         <v>170</v>
@@ -10822,15 +10802,15 @@
         <v>185</v>
       </c>
       <c r="N196" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="O196" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="V196" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="W196" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="V196" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="W196" s="18" t="s">
         <v>174</v>
       </c>
       <c r="AC196" t="s">
@@ -10845,40 +10825,40 @@
         <v>156</v>
       </c>
       <c r="D197">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E197">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F197" t="s">
         <v>65</v>
       </c>
+      <c r="G197" t="s">
+        <v>65</v>
+      </c>
       <c r="K197" t="s">
-        <v>61</v>
+        <v>611</v>
       </c>
       <c r="L197" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M197" s="7" t="s">
-        <v>201</v>
+      <c r="M197" t="s">
+        <v>185</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="O197" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="V197" t="s">
-        <v>618</v>
-      </c>
-      <c r="W197" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="V197" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="W197" s="18" t="s">
         <v>174</v>
       </c>
       <c r="AC197" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE197" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
     </row>
     <row r="198" spans="2:31" x14ac:dyDescent="0.2">
@@ -10889,46 +10869,37 @@
         <v>156</v>
       </c>
       <c r="D198">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E198">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F198" t="s">
         <v>65</v>
       </c>
-      <c r="G198" t="s">
-        <v>65</v>
-      </c>
       <c r="K198" t="s">
-        <v>622</v>
+        <v>61</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M198" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="M198" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="O198" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="V198" t="s">
-        <v>621</v>
-      </c>
-      <c r="W198" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z198" t="s">
-        <v>565</v>
+        <v>617</v>
+      </c>
+      <c r="V198" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="W198" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="AC198" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD198" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="AE198" t="s">
         <v>65</v>
@@ -10942,10 +10913,10 @@
         <v>156</v>
       </c>
       <c r="D199">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E199">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F199" t="s">
         <v>65</v>
@@ -10954,28 +10925,34 @@
         <v>65</v>
       </c>
       <c r="K199" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="L199" s="7" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="M199" t="s">
         <v>185</v>
       </c>
       <c r="N199" s="6" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="O199" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="V199" t="s">
-        <v>625</v>
-      </c>
-      <c r="W199" s="17" t="s">
-        <v>174</v>
+        <v>620</v>
+      </c>
+      <c r="V199" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="W199" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>564</v>
       </c>
       <c r="AC199" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>159</v>
       </c>
       <c r="AE199" t="s">
         <v>65</v>
@@ -10989,10 +10966,10 @@
         <v>156</v>
       </c>
       <c r="D200">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E200">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F200" t="s">
         <v>65</v>
@@ -11001,7 +10978,7 @@
         <v>65</v>
       </c>
       <c r="K200" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="L200" s="7" t="s">
         <v>170</v>
@@ -11010,19 +10987,19 @@
         <v>185</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="O200" s="6" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="V200" t="s">
-        <v>629</v>
-      </c>
-      <c r="W200" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="W200" t="s">
         <v>174</v>
       </c>
       <c r="AC200" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE200" t="s">
         <v>65</v>
@@ -11036,36 +11013,83 @@
         <v>156</v>
       </c>
       <c r="D201">
+        <v>356</v>
+      </c>
+      <c r="E201">
+        <v>357</v>
+      </c>
+      <c r="F201" t="s">
+        <v>65</v>
+      </c>
+      <c r="G201" t="s">
+        <v>65</v>
+      </c>
+      <c r="K201" t="s">
+        <v>627</v>
+      </c>
+      <c r="L201" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M201" t="s">
+        <v>185</v>
+      </c>
+      <c r="N201" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="O201" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="V201" t="s">
+        <v>626</v>
+      </c>
+      <c r="W201" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE201" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="202" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>157</v>
+      </c>
+      <c r="C202" t="s">
+        <v>156</v>
+      </c>
+      <c r="D202">
         <v>358</v>
       </c>
-      <c r="E201">
+      <c r="E202">
         <v>358</v>
       </c>
-      <c r="F201" t="s">
-        <v>65</v>
-      </c>
-      <c r="G201" t="s">
-        <v>65</v>
-      </c>
-      <c r="K201">
+      <c r="F202" t="s">
+        <v>65</v>
+      </c>
+      <c r="G202" t="s">
+        <v>65</v>
+      </c>
+      <c r="K202">
         <v>999</v>
       </c>
-      <c r="L201">
+      <c r="L202">
         <v>999</v>
       </c>
-      <c r="M201">
+      <c r="M202">
         <v>999</v>
       </c>
-      <c r="N201" s="6" t="s">
+      <c r="N202" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="O201" s="6" t="s">
+      <c r="O202" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="V201" t="s">
-        <v>633</v>
-      </c>
-      <c r="W201" s="17" t="s">
+      <c r="V202" t="s">
+        <v>630</v>
+      </c>
+      <c r="W202" t="s">
         <v>174</v>
       </c>
     </row>

--- a/Datasets/Welcker/Data/Welcker_JR.xlsx
+++ b/Datasets/Welcker/Data/Welcker_JR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Welcker/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF235D-9741-2A49-A58A-DAFD203CD306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD6A675-E826-C342-8BB7-E718C3D98742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{DCC7147D-D2F2-BB4F-A58C-A27E053C76E5}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16020" xr2:uid="{DCC7147D-D2F2-BB4F-A58C-A27E053C76E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="648">
   <si>
     <t>ID</t>
   </si>
@@ -1974,6 +1974,12 @@
   </si>
   <si>
     <t>52.4807200</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>Vergleich</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2079,13 +2085,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2400,25 +2399,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653F447C-0236-A043-9BF1-AA739997132F}">
-  <dimension ref="A1:AE208"/>
+  <dimension ref="A1:AF207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L205" sqref="L205"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2:X207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="6" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="6" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="4"/>
-    <col min="29" max="30" width="12.1640625" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" style="4"/>
+    <col min="30" max="31" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2489,31 +2488,34 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>143</v>
       </c>
@@ -2532,6 +2534,9 @@
       <c r="G2" t="s">
         <v>65</v>
       </c>
+      <c r="J2" t="s">
+        <v>646</v>
+      </c>
       <c r="K2" t="s">
         <v>154</v>
       </c>
@@ -2553,11 +2558,14 @@
       <c r="W2" t="s">
         <v>159</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="X2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>143</v>
       </c>
@@ -2576,6 +2584,9 @@
       <c r="G3" t="s">
         <v>65</v>
       </c>
+      <c r="J3" t="s">
+        <v>646</v>
+      </c>
       <c r="K3" t="s">
         <v>154</v>
       </c>
@@ -2597,11 +2608,14 @@
       <c r="W3" t="s">
         <v>159</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="X3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2620,6 +2634,9 @@
       <c r="G4" t="s">
         <v>65</v>
       </c>
+      <c r="J4" t="s">
+        <v>646</v>
+      </c>
       <c r="K4" t="s">
         <v>154</v>
       </c>
@@ -2641,11 +2658,14 @@
       <c r="W4" t="s">
         <v>159</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="X4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>143</v>
       </c>
@@ -2664,6 +2684,9 @@
       <c r="G5" t="s">
         <v>65</v>
       </c>
+      <c r="J5" t="s">
+        <v>646</v>
+      </c>
       <c r="K5" t="s">
         <v>154</v>
       </c>
@@ -2685,11 +2708,14 @@
       <c r="W5" t="s">
         <v>159</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="X5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>143</v>
       </c>
@@ -2708,6 +2734,9 @@
       <c r="G6" t="s">
         <v>65</v>
       </c>
+      <c r="J6" t="s">
+        <v>646</v>
+      </c>
       <c r="K6" t="s">
         <v>154</v>
       </c>
@@ -2729,11 +2758,14 @@
       <c r="W6" t="s">
         <v>159</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="X6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>143</v>
       </c>
@@ -2752,6 +2784,9 @@
       <c r="G7" t="s">
         <v>65</v>
       </c>
+      <c r="J7" t="s">
+        <v>646</v>
+      </c>
       <c r="K7" t="s">
         <v>154</v>
       </c>
@@ -2773,11 +2808,14 @@
       <c r="W7" t="s">
         <v>159</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="X7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>143</v>
       </c>
@@ -2796,6 +2834,9 @@
       <c r="G8" t="s">
         <v>65</v>
       </c>
+      <c r="J8" t="s">
+        <v>646</v>
+      </c>
       <c r="K8" t="s">
         <v>154</v>
       </c>
@@ -2817,11 +2858,14 @@
       <c r="W8" t="s">
         <v>159</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="X8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>143</v>
       </c>
@@ -2840,6 +2884,9 @@
       <c r="G9" t="s">
         <v>65</v>
       </c>
+      <c r="J9" t="s">
+        <v>646</v>
+      </c>
       <c r="K9" t="s">
         <v>154</v>
       </c>
@@ -2861,11 +2908,14 @@
       <c r="W9" t="s">
         <v>159</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="X9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>143</v>
       </c>
@@ -2884,6 +2934,9 @@
       <c r="G10" t="s">
         <v>65</v>
       </c>
+      <c r="J10" t="s">
+        <v>646</v>
+      </c>
       <c r="K10" t="s">
         <v>154</v>
       </c>
@@ -2905,11 +2958,14 @@
       <c r="W10" t="s">
         <v>159</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="X10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>143</v>
       </c>
@@ -2928,6 +2984,9 @@
       <c r="G11" t="s">
         <v>65</v>
       </c>
+      <c r="J11" t="s">
+        <v>646</v>
+      </c>
       <c r="K11" t="s">
         <v>154</v>
       </c>
@@ -2949,11 +3008,14 @@
       <c r="W11" t="s">
         <v>159</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="X11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>143</v>
       </c>
@@ -2972,6 +3034,9 @@
       <c r="G12" t="s">
         <v>65</v>
       </c>
+      <c r="J12" t="s">
+        <v>646</v>
+      </c>
       <c r="K12" t="s">
         <v>154</v>
       </c>
@@ -2993,11 +3058,14 @@
       <c r="W12" t="s">
         <v>159</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="X12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>143</v>
       </c>
@@ -3013,6 +3081,9 @@
       <c r="F13" t="s">
         <v>65</v>
       </c>
+      <c r="J13" t="s">
+        <v>646</v>
+      </c>
       <c r="K13" t="s">
         <v>28</v>
       </c>
@@ -3034,11 +3105,14 @@
       <c r="W13" t="s">
         <v>159</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="X13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>143</v>
       </c>
@@ -3054,6 +3128,9 @@
       <c r="F14" t="s">
         <v>65</v>
       </c>
+      <c r="J14" t="s">
+        <v>646</v>
+      </c>
       <c r="K14" t="s">
         <v>169</v>
       </c>
@@ -3075,11 +3152,14 @@
       <c r="W14" t="s">
         <v>159</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>143</v>
       </c>
@@ -3095,6 +3175,9 @@
       <c r="F15" t="s">
         <v>65</v>
       </c>
+      <c r="J15" t="s">
+        <v>646</v>
+      </c>
       <c r="K15" t="s">
         <v>169</v>
       </c>
@@ -3116,11 +3199,14 @@
       <c r="W15" t="s">
         <v>159</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>143</v>
       </c>
@@ -3136,6 +3222,9 @@
       <c r="F16" t="s">
         <v>65</v>
       </c>
+      <c r="J16" t="s">
+        <v>646</v>
+      </c>
       <c r="K16" t="s">
         <v>178</v>
       </c>
@@ -3169,11 +3258,14 @@
       <c r="W16" t="s">
         <v>159</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>143</v>
       </c>
@@ -3189,6 +3281,9 @@
       <c r="F17" t="s">
         <v>65</v>
       </c>
+      <c r="J17" t="s">
+        <v>646</v>
+      </c>
       <c r="K17" t="s">
         <v>185</v>
       </c>
@@ -3210,11 +3305,14 @@
       <c r="W17" t="s">
         <v>159</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>143</v>
       </c>
@@ -3233,6 +3331,9 @@
       <c r="G18" t="s">
         <v>65</v>
       </c>
+      <c r="J18" t="s">
+        <v>646</v>
+      </c>
       <c r="K18" t="s">
         <v>29</v>
       </c>
@@ -3254,11 +3355,14 @@
       <c r="W18" t="s">
         <v>159</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="X18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>143</v>
       </c>
@@ -3274,6 +3378,9 @@
       <c r="F19" t="s">
         <v>65</v>
       </c>
+      <c r="J19" t="s">
+        <v>646</v>
+      </c>
       <c r="K19" t="s">
         <v>194</v>
       </c>
@@ -3295,11 +3402,14 @@
       <c r="W19" t="s">
         <v>159</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="X19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>143</v>
       </c>
@@ -3315,6 +3425,9 @@
       <c r="F20" t="s">
         <v>65</v>
       </c>
+      <c r="J20" t="s">
+        <v>646</v>
+      </c>
       <c r="K20" t="s">
         <v>198</v>
       </c>
@@ -3336,11 +3449,14 @@
       <c r="W20" t="s">
         <v>159</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="X20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>143</v>
       </c>
@@ -3356,6 +3472,9 @@
       <c r="F21" t="s">
         <v>65</v>
       </c>
+      <c r="J21" t="s">
+        <v>646</v>
+      </c>
       <c r="K21" t="s">
         <v>198</v>
       </c>
@@ -3377,11 +3496,14 @@
       <c r="W21" t="s">
         <v>159</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="X21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>143</v>
       </c>
@@ -3400,6 +3522,9 @@
       <c r="G22" t="s">
         <v>65</v>
       </c>
+      <c r="J22" t="s">
+        <v>646</v>
+      </c>
       <c r="K22" t="s">
         <v>30</v>
       </c>
@@ -3421,11 +3546,14 @@
       <c r="W22" t="s">
         <v>159</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="X22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>143</v>
       </c>
@@ -3441,6 +3569,9 @@
       <c r="F23" t="s">
         <v>65</v>
       </c>
+      <c r="J23" t="s">
+        <v>646</v>
+      </c>
       <c r="K23" t="s">
         <v>206</v>
       </c>
@@ -3462,11 +3593,14 @@
       <c r="W23" t="s">
         <v>159</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="X23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>143</v>
       </c>
@@ -3482,6 +3616,9 @@
       <c r="F24" t="s">
         <v>65</v>
       </c>
+      <c r="J24" t="s">
+        <v>646</v>
+      </c>
       <c r="K24" t="s">
         <v>210</v>
       </c>
@@ -3503,11 +3640,14 @@
       <c r="W24" t="s">
         <v>159</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="X24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>143</v>
       </c>
@@ -3523,6 +3663,9 @@
       <c r="F25" t="s">
         <v>65</v>
       </c>
+      <c r="J25" t="s">
+        <v>646</v>
+      </c>
       <c r="K25" t="s">
         <v>214</v>
       </c>
@@ -3556,11 +3699,14 @@
       <c r="W25" t="s">
         <v>159</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="X25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>143</v>
       </c>
@@ -3576,6 +3722,9 @@
       <c r="F26" t="s">
         <v>65</v>
       </c>
+      <c r="J26" t="s">
+        <v>646</v>
+      </c>
       <c r="K26" t="s">
         <v>222</v>
       </c>
@@ -3597,17 +3746,29 @@
       <c r="W26" t="s">
         <v>159</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="X26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>611</v>
+      </c>
       <c r="D27">
         <v>54</v>
       </c>
       <c r="E27">
         <v>54</v>
       </c>
+      <c r="J27" t="s">
+        <v>646</v>
+      </c>
       <c r="K27" t="s">
         <v>625</v>
       </c>
@@ -3629,8 +3790,11 @@
       <c r="W27" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>143</v>
       </c>
@@ -3646,6 +3810,9 @@
       <c r="H28" t="s">
         <v>65</v>
       </c>
+      <c r="J28" t="s">
+        <v>646</v>
+      </c>
       <c r="K28" t="s">
         <v>31</v>
       </c>
@@ -3661,20 +3828,23 @@
       <c r="O28" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="V28" t="s">
         <v>225</v>
       </c>
-      <c r="W28" s="14" t="s">
+      <c r="W28" t="s">
         <v>229</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="X28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD28" t="s">
         <v>76</v>
       </c>
-      <c r="AE28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>143</v>
       </c>
@@ -3690,6 +3860,9 @@
       <c r="F29" t="s">
         <v>65</v>
       </c>
+      <c r="J29" t="s">
+        <v>646</v>
+      </c>
       <c r="K29" t="s">
         <v>32</v>
       </c>
@@ -3711,11 +3884,14 @@
       <c r="W29" t="s">
         <v>159</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="X29" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>143</v>
       </c>
@@ -3731,6 +3907,9 @@
       <c r="F30" t="s">
         <v>65</v>
       </c>
+      <c r="J30" t="s">
+        <v>646</v>
+      </c>
       <c r="K30" t="s">
         <v>32</v>
       </c>
@@ -3752,11 +3931,14 @@
       <c r="W30" t="s">
         <v>159</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="X30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>143</v>
       </c>
@@ -3772,6 +3954,9 @@
       <c r="F31" t="s">
         <v>65</v>
       </c>
+      <c r="J31" t="s">
+        <v>646</v>
+      </c>
       <c r="K31" t="s">
         <v>32</v>
       </c>
@@ -3793,11 +3978,14 @@
       <c r="W31" t="s">
         <v>159</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="X31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>143</v>
       </c>
@@ -3813,6 +4001,9 @@
       <c r="F32" t="s">
         <v>65</v>
       </c>
+      <c r="J32" t="s">
+        <v>646</v>
+      </c>
       <c r="K32" t="s">
         <v>235</v>
       </c>
@@ -3834,11 +4025,14 @@
       <c r="W32" t="s">
         <v>159</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="X32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>143</v>
       </c>
@@ -3854,6 +4048,9 @@
       <c r="F33" t="s">
         <v>65</v>
       </c>
+      <c r="J33" t="s">
+        <v>646</v>
+      </c>
       <c r="K33" t="s">
         <v>239</v>
       </c>
@@ -3875,11 +4072,14 @@
       <c r="W33" t="s">
         <v>159</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="X33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>143</v>
       </c>
@@ -3895,6 +4095,9 @@
       <c r="F34" t="s">
         <v>65</v>
       </c>
+      <c r="J34" t="s">
+        <v>646</v>
+      </c>
       <c r="K34" t="s">
         <v>33</v>
       </c>
@@ -3916,11 +4119,14 @@
       <c r="W34" t="s">
         <v>159</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="X34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>143</v>
       </c>
@@ -3936,6 +4142,9 @@
       <c r="F35" t="s">
         <v>65</v>
       </c>
+      <c r="J35" t="s">
+        <v>646</v>
+      </c>
       <c r="K35" t="s">
         <v>246</v>
       </c>
@@ -3957,11 +4166,14 @@
       <c r="W35" t="s">
         <v>159</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="X35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>143</v>
       </c>
@@ -3977,6 +4189,9 @@
       <c r="F36" t="s">
         <v>65</v>
       </c>
+      <c r="J36" t="s">
+        <v>646</v>
+      </c>
       <c r="K36" t="s">
         <v>250</v>
       </c>
@@ -3998,11 +4213,14 @@
       <c r="W36" t="s">
         <v>159</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="X36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>143</v>
       </c>
@@ -4018,6 +4236,9 @@
       <c r="F37" t="s">
         <v>65</v>
       </c>
+      <c r="J37" t="s">
+        <v>646</v>
+      </c>
       <c r="K37" t="s">
         <v>34</v>
       </c>
@@ -4039,11 +4260,14 @@
       <c r="W37" t="s">
         <v>159</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="X37" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>143</v>
       </c>
@@ -4059,6 +4283,9 @@
       <c r="F38" t="s">
         <v>65</v>
       </c>
+      <c r="J38" t="s">
+        <v>646</v>
+      </c>
       <c r="K38" t="s">
         <v>35</v>
       </c>
@@ -4080,11 +4307,14 @@
       <c r="W38" t="s">
         <v>159</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="X38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>143</v>
       </c>
@@ -4103,6 +4333,9 @@
       <c r="G39" t="s">
         <v>65</v>
       </c>
+      <c r="J39" t="s">
+        <v>646</v>
+      </c>
       <c r="K39" t="s">
         <v>260</v>
       </c>
@@ -4124,11 +4357,14 @@
       <c r="W39" t="s">
         <v>159</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="X39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>143</v>
       </c>
@@ -4144,6 +4380,9 @@
       <c r="F40" t="s">
         <v>65</v>
       </c>
+      <c r="J40" t="s">
+        <v>646</v>
+      </c>
       <c r="K40" t="s">
         <v>264</v>
       </c>
@@ -4165,11 +4404,14 @@
       <c r="W40" t="s">
         <v>159</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="X40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>143</v>
       </c>
@@ -4185,6 +4427,9 @@
       <c r="F41" t="s">
         <v>65</v>
       </c>
+      <c r="J41" t="s">
+        <v>646</v>
+      </c>
       <c r="K41" t="s">
         <v>267</v>
       </c>
@@ -4206,11 +4451,14 @@
       <c r="W41" t="s">
         <v>159</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="X41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>143</v>
       </c>
@@ -4226,6 +4474,9 @@
       <c r="F42" t="s">
         <v>65</v>
       </c>
+      <c r="J42" t="s">
+        <v>646</v>
+      </c>
       <c r="K42" t="s">
         <v>267</v>
       </c>
@@ -4247,11 +4498,14 @@
       <c r="W42" t="s">
         <v>159</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="X42" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>143</v>
       </c>
@@ -4264,6 +4518,9 @@
       <c r="E43">
         <v>80</v>
       </c>
+      <c r="J43" t="s">
+        <v>646</v>
+      </c>
       <c r="K43" t="s">
         <v>267</v>
       </c>
@@ -4285,8 +4542,11 @@
       <c r="W43" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>143</v>
       </c>
@@ -4299,6 +4559,9 @@
       <c r="E44">
         <v>80</v>
       </c>
+      <c r="J44" t="s">
+        <v>646</v>
+      </c>
       <c r="K44" t="s">
         <v>267</v>
       </c>
@@ -4320,8 +4583,11 @@
       <c r="W44" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>143</v>
       </c>
@@ -4334,6 +4600,9 @@
       <c r="E45">
         <v>80</v>
       </c>
+      <c r="J45" t="s">
+        <v>646</v>
+      </c>
       <c r="K45" t="s">
         <v>267</v>
       </c>
@@ -4355,8 +4624,11 @@
       <c r="W45" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>143</v>
       </c>
@@ -4369,6 +4641,9 @@
       <c r="E46">
         <v>81</v>
       </c>
+      <c r="J46" t="s">
+        <v>646</v>
+      </c>
       <c r="K46" t="s">
         <v>267</v>
       </c>
@@ -4390,8 +4665,11 @@
       <c r="W46" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>143</v>
       </c>
@@ -4404,6 +4682,9 @@
       <c r="E47">
         <v>81</v>
       </c>
+      <c r="J47" t="s">
+        <v>646</v>
+      </c>
       <c r="K47" t="s">
         <v>267</v>
       </c>
@@ -4425,8 +4706,11 @@
       <c r="W47" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>143</v>
       </c>
@@ -4439,6 +4723,9 @@
       <c r="E48">
         <v>81</v>
       </c>
+      <c r="J48" t="s">
+        <v>646</v>
+      </c>
       <c r="K48" t="s">
         <v>267</v>
       </c>
@@ -4460,8 +4747,11 @@
       <c r="W48" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>143</v>
       </c>
@@ -4474,6 +4764,9 @@
       <c r="E49">
         <v>81</v>
       </c>
+      <c r="J49" t="s">
+        <v>646</v>
+      </c>
       <c r="K49" t="s">
         <v>267</v>
       </c>
@@ -4495,8 +4788,11 @@
       <c r="W49" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>143</v>
       </c>
@@ -4512,6 +4808,9 @@
       <c r="F50" t="s">
         <v>65</v>
       </c>
+      <c r="J50" t="s">
+        <v>646</v>
+      </c>
       <c r="K50" t="s">
         <v>36</v>
       </c>
@@ -4533,11 +4832,14 @@
       <c r="W50" t="s">
         <v>159</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="X50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>143</v>
       </c>
@@ -4550,6 +4852,9 @@
       <c r="E51">
         <v>85</v>
       </c>
+      <c r="J51" t="s">
+        <v>646</v>
+      </c>
       <c r="K51" t="s">
         <v>36</v>
       </c>
@@ -4571,8 +4876,11 @@
       <c r="W51" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>143</v>
       </c>
@@ -4588,6 +4896,9 @@
       <c r="F52" t="s">
         <v>65</v>
       </c>
+      <c r="J52" t="s">
+        <v>646</v>
+      </c>
       <c r="K52" t="s">
         <v>36</v>
       </c>
@@ -4609,11 +4920,14 @@
       <c r="W52" t="s">
         <v>229</v>
       </c>
-      <c r="AC52" t="s">
+      <c r="X52" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>143</v>
       </c>
@@ -4626,6 +4940,9 @@
       <c r="E53">
         <v>84</v>
       </c>
+      <c r="J53" t="s">
+        <v>646</v>
+      </c>
       <c r="K53" t="s">
         <v>36</v>
       </c>
@@ -4647,8 +4964,11 @@
       <c r="W53" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>143</v>
       </c>
@@ -4661,6 +4981,9 @@
       <c r="E54">
         <v>85</v>
       </c>
+      <c r="J54" t="s">
+        <v>646</v>
+      </c>
       <c r="K54" t="s">
         <v>36</v>
       </c>
@@ -4682,8 +5005,11 @@
       <c r="W54" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>143</v>
       </c>
@@ -4699,6 +5025,9 @@
       <c r="F55" t="s">
         <v>65</v>
       </c>
+      <c r="J55" t="s">
+        <v>646</v>
+      </c>
       <c r="K55" t="s">
         <v>36</v>
       </c>
@@ -4720,11 +5049,14 @@
       <c r="W55" t="s">
         <v>159</v>
       </c>
-      <c r="AC55" t="s">
+      <c r="X55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>143</v>
       </c>
@@ -4737,6 +5069,9 @@
       <c r="E56">
         <v>86</v>
       </c>
+      <c r="J56" t="s">
+        <v>646</v>
+      </c>
       <c r="K56" t="s">
         <v>36</v>
       </c>
@@ -4758,8 +5093,11 @@
       <c r="W56" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>143</v>
       </c>
@@ -4772,6 +5110,9 @@
       <c r="E57">
         <v>86</v>
       </c>
+      <c r="J57" t="s">
+        <v>646</v>
+      </c>
       <c r="K57" t="s">
         <v>36</v>
       </c>
@@ -4793,8 +5134,11 @@
       <c r="W57" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>143</v>
       </c>
@@ -4807,6 +5151,9 @@
       <c r="E58">
         <v>86</v>
       </c>
+      <c r="J58" t="s">
+        <v>646</v>
+      </c>
       <c r="K58" t="s">
         <v>36</v>
       </c>
@@ -4828,8 +5175,11 @@
       <c r="W58" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>143</v>
       </c>
@@ -4842,6 +5192,9 @@
       <c r="E59">
         <v>86</v>
       </c>
+      <c r="J59" t="s">
+        <v>646</v>
+      </c>
       <c r="K59" t="s">
         <v>36</v>
       </c>
@@ -4863,8 +5216,11 @@
       <c r="W59" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>143</v>
       </c>
@@ -4880,6 +5236,9 @@
       <c r="F60" t="s">
         <v>65</v>
       </c>
+      <c r="J60" t="s">
+        <v>646</v>
+      </c>
       <c r="K60" t="s">
         <v>36</v>
       </c>
@@ -4901,11 +5260,14 @@
       <c r="W60" t="s">
         <v>159</v>
       </c>
-      <c r="AC60" t="s">
+      <c r="X60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>143</v>
       </c>
@@ -4921,6 +5283,9 @@
       <c r="F61" t="s">
         <v>65</v>
       </c>
+      <c r="J61" t="s">
+        <v>646</v>
+      </c>
       <c r="K61" t="s">
         <v>36</v>
       </c>
@@ -4942,8 +5307,11 @@
       <c r="W61" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>143</v>
       </c>
@@ -4959,6 +5327,9 @@
       <c r="F62" t="s">
         <v>65</v>
       </c>
+      <c r="J62" t="s">
+        <v>646</v>
+      </c>
       <c r="K62" t="s">
         <v>36</v>
       </c>
@@ -4980,8 +5351,11 @@
       <c r="W62" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>143</v>
       </c>
@@ -4997,6 +5371,9 @@
       <c r="F63" t="s">
         <v>65</v>
       </c>
+      <c r="J63" t="s">
+        <v>646</v>
+      </c>
       <c r="K63" t="s">
         <v>37</v>
       </c>
@@ -5018,11 +5395,14 @@
       <c r="W63" t="s">
         <v>159</v>
       </c>
-      <c r="AC63" t="s">
+      <c r="X63" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD63" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>143</v>
       </c>
@@ -5041,6 +5421,9 @@
       <c r="G64" t="s">
         <v>65</v>
       </c>
+      <c r="J64" t="s">
+        <v>646</v>
+      </c>
       <c r="K64" t="s">
         <v>284</v>
       </c>
@@ -5062,11 +5445,14 @@
       <c r="W64" t="s">
         <v>159</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="X64" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD64" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>143</v>
       </c>
@@ -5085,6 +5471,9 @@
       <c r="G65" t="s">
         <v>65</v>
       </c>
+      <c r="J65" t="s">
+        <v>646</v>
+      </c>
       <c r="K65" t="s">
         <v>284</v>
       </c>
@@ -5106,11 +5495,14 @@
       <c r="W65" t="s">
         <v>159</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="X65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>143</v>
       </c>
@@ -5129,6 +5521,9 @@
       <c r="G66" t="s">
         <v>65</v>
       </c>
+      <c r="J66" t="s">
+        <v>646</v>
+      </c>
       <c r="K66" t="s">
         <v>284</v>
       </c>
@@ -5150,11 +5545,14 @@
       <c r="W66" t="s">
         <v>159</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="X66" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD66" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>143</v>
       </c>
@@ -5173,6 +5571,9 @@
       <c r="G67" t="s">
         <v>65</v>
       </c>
+      <c r="J67" t="s">
+        <v>646</v>
+      </c>
       <c r="K67" t="s">
         <v>284</v>
       </c>
@@ -5194,11 +5595,14 @@
       <c r="W67" t="s">
         <v>159</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="X67" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD67" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>143</v>
       </c>
@@ -5217,6 +5621,9 @@
       <c r="G68" t="s">
         <v>65</v>
       </c>
+      <c r="J68" t="s">
+        <v>646</v>
+      </c>
       <c r="K68" t="s">
         <v>284</v>
       </c>
@@ -5238,11 +5645,14 @@
       <c r="W68" t="s">
         <v>159</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="X68" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD68" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>143</v>
       </c>
@@ -5261,6 +5671,9 @@
       <c r="G69" t="s">
         <v>65</v>
       </c>
+      <c r="J69" t="s">
+        <v>646</v>
+      </c>
       <c r="K69" t="s">
         <v>284</v>
       </c>
@@ -5282,11 +5695,14 @@
       <c r="W69" t="s">
         <v>159</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="X69" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD69" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>143</v>
       </c>
@@ -5305,6 +5721,9 @@
       <c r="G70" t="s">
         <v>65</v>
       </c>
+      <c r="J70" t="s">
+        <v>646</v>
+      </c>
       <c r="K70" t="s">
         <v>284</v>
       </c>
@@ -5326,11 +5745,14 @@
       <c r="W70" t="s">
         <v>159</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="X70" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>143</v>
       </c>
@@ -5349,6 +5771,9 @@
       <c r="G71" t="s">
         <v>65</v>
       </c>
+      <c r="J71" t="s">
+        <v>646</v>
+      </c>
       <c r="K71" t="s">
         <v>284</v>
       </c>
@@ -5370,11 +5795,14 @@
       <c r="W71" t="s">
         <v>159</v>
       </c>
-      <c r="AC71" t="s">
+      <c r="X71" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD71" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>143</v>
       </c>
@@ -5393,6 +5821,9 @@
       <c r="G72" t="s">
         <v>65</v>
       </c>
+      <c r="J72" t="s">
+        <v>646</v>
+      </c>
       <c r="K72" t="s">
         <v>38</v>
       </c>
@@ -5414,11 +5845,14 @@
       <c r="W72" t="s">
         <v>159</v>
       </c>
-      <c r="AC72" t="s">
+      <c r="X72" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD72" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>143</v>
       </c>
@@ -5437,6 +5871,9 @@
       <c r="G73" t="s">
         <v>65</v>
       </c>
+      <c r="J73" t="s">
+        <v>646</v>
+      </c>
       <c r="K73" t="s">
         <v>297</v>
       </c>
@@ -5458,11 +5895,14 @@
       <c r="W73" t="s">
         <v>159</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="X73" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD73" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>143</v>
       </c>
@@ -5481,6 +5921,9 @@
       <c r="G74" t="s">
         <v>65</v>
       </c>
+      <c r="J74" t="s">
+        <v>646</v>
+      </c>
       <c r="K74" t="s">
         <v>297</v>
       </c>
@@ -5502,11 +5945,14 @@
       <c r="W74" t="s">
         <v>159</v>
       </c>
-      <c r="AC74" t="s">
+      <c r="X74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD74" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>143</v>
       </c>
@@ -5525,6 +5971,9 @@
       <c r="G75" t="s">
         <v>65</v>
       </c>
+      <c r="J75" t="s">
+        <v>646</v>
+      </c>
       <c r="K75" t="s">
         <v>297</v>
       </c>
@@ -5546,11 +5995,14 @@
       <c r="W75" t="s">
         <v>159</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="X75" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD75" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>143</v>
       </c>
@@ -5569,6 +6021,9 @@
       <c r="G76" t="s">
         <v>65</v>
       </c>
+      <c r="J76" t="s">
+        <v>646</v>
+      </c>
       <c r="K76" t="s">
         <v>297</v>
       </c>
@@ -5590,11 +6045,14 @@
       <c r="W76" t="s">
         <v>159</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="X76" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>143</v>
       </c>
@@ -5613,6 +6071,9 @@
       <c r="G77" t="s">
         <v>65</v>
       </c>
+      <c r="J77" t="s">
+        <v>646</v>
+      </c>
       <c r="K77" t="s">
         <v>297</v>
       </c>
@@ -5634,11 +6095,14 @@
       <c r="W77" t="s">
         <v>159</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="X77" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD77" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>143</v>
       </c>
@@ -5657,6 +6121,9 @@
       <c r="G78" t="s">
         <v>65</v>
       </c>
+      <c r="J78" t="s">
+        <v>646</v>
+      </c>
       <c r="K78" t="s">
         <v>297</v>
       </c>
@@ -5678,11 +6145,14 @@
       <c r="W78" t="s">
         <v>159</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="X78" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD78" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>143</v>
       </c>
@@ -5701,6 +6171,9 @@
       <c r="G79" t="s">
         <v>65</v>
       </c>
+      <c r="J79" t="s">
+        <v>646</v>
+      </c>
       <c r="K79" t="s">
         <v>297</v>
       </c>
@@ -5722,11 +6195,14 @@
       <c r="W79" t="s">
         <v>159</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="X79" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD79" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>143</v>
       </c>
@@ -5742,6 +6218,9 @@
       <c r="F80" t="s">
         <v>65</v>
       </c>
+      <c r="J80" t="s">
+        <v>646</v>
+      </c>
       <c r="K80" t="s">
         <v>297</v>
       </c>
@@ -5763,11 +6242,14 @@
       <c r="W80" t="s">
         <v>159</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="X80" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD80" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>143</v>
       </c>
@@ -5786,6 +6268,9 @@
       <c r="G81" t="s">
         <v>65</v>
       </c>
+      <c r="J81" t="s">
+        <v>646</v>
+      </c>
       <c r="K81" t="s">
         <v>311</v>
       </c>
@@ -5807,11 +6292,14 @@
       <c r="W81" t="s">
         <v>159</v>
       </c>
-      <c r="AC81" t="s">
+      <c r="X81" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD81" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>143</v>
       </c>
@@ -5827,6 +6315,9 @@
       <c r="F82" t="s">
         <v>65</v>
       </c>
+      <c r="J82" t="s">
+        <v>646</v>
+      </c>
       <c r="K82" t="s">
         <v>311</v>
       </c>
@@ -5848,11 +6339,14 @@
       <c r="W82" t="s">
         <v>159</v>
       </c>
-      <c r="AC82" t="s">
+      <c r="X82" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>143</v>
       </c>
@@ -5868,6 +6362,9 @@
       <c r="F83" t="s">
         <v>65</v>
       </c>
+      <c r="J83" t="s">
+        <v>646</v>
+      </c>
       <c r="K83" t="s">
         <v>311</v>
       </c>
@@ -5889,11 +6386,14 @@
       <c r="W83" t="s">
         <v>159</v>
       </c>
-      <c r="AC83" t="s">
+      <c r="X83" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD83" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>143</v>
       </c>
@@ -5909,6 +6409,9 @@
       <c r="F84" t="s">
         <v>65</v>
       </c>
+      <c r="J84" t="s">
+        <v>646</v>
+      </c>
       <c r="K84" t="s">
         <v>311</v>
       </c>
@@ -5930,11 +6433,14 @@
       <c r="W84" t="s">
         <v>159</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="X84" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>143</v>
       </c>
@@ -5950,6 +6456,9 @@
       <c r="F85" t="s">
         <v>65</v>
       </c>
+      <c r="J85" t="s">
+        <v>646</v>
+      </c>
       <c r="K85" t="s">
         <v>311</v>
       </c>
@@ -5971,11 +6480,14 @@
       <c r="W85" t="s">
         <v>159</v>
       </c>
-      <c r="AC85" t="s">
+      <c r="X85" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>143</v>
       </c>
@@ -5991,6 +6503,9 @@
       <c r="F86" t="s">
         <v>65</v>
       </c>
+      <c r="J86" t="s">
+        <v>646</v>
+      </c>
       <c r="K86" t="s">
         <v>311</v>
       </c>
@@ -6012,11 +6527,14 @@
       <c r="W86" t="s">
         <v>159</v>
       </c>
-      <c r="AC86" t="s">
+      <c r="X86" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>143</v>
       </c>
@@ -6032,6 +6550,9 @@
       <c r="F87" t="s">
         <v>65</v>
       </c>
+      <c r="J87" t="s">
+        <v>646</v>
+      </c>
       <c r="K87" t="s">
         <v>311</v>
       </c>
@@ -6053,11 +6574,14 @@
       <c r="W87" t="s">
         <v>159</v>
       </c>
-      <c r="AC87" t="s">
+      <c r="X87" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>143</v>
       </c>
@@ -6076,6 +6600,9 @@
       <c r="G88" t="s">
         <v>65</v>
       </c>
+      <c r="J88" t="s">
+        <v>646</v>
+      </c>
       <c r="K88" t="s">
         <v>319</v>
       </c>
@@ -6097,11 +6624,14 @@
       <c r="W88" t="s">
         <v>159</v>
       </c>
-      <c r="AC88" t="s">
+      <c r="X88" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>143</v>
       </c>
@@ -6120,6 +6650,9 @@
       <c r="G89" t="s">
         <v>65</v>
       </c>
+      <c r="J89" t="s">
+        <v>646</v>
+      </c>
       <c r="K89" t="s">
         <v>311</v>
       </c>
@@ -6141,11 +6674,14 @@
       <c r="W89" t="s">
         <v>159</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="X89" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD89" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>143</v>
       </c>
@@ -6164,6 +6700,9 @@
       <c r="G90" t="s">
         <v>65</v>
       </c>
+      <c r="J90" t="s">
+        <v>646</v>
+      </c>
       <c r="K90" t="s">
         <v>311</v>
       </c>
@@ -6185,11 +6724,14 @@
       <c r="W90" t="s">
         <v>159</v>
       </c>
-      <c r="AC90" t="s">
+      <c r="X90" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>143</v>
       </c>
@@ -6208,6 +6750,9 @@
       <c r="G91" t="s">
         <v>65</v>
       </c>
+      <c r="J91" t="s">
+        <v>646</v>
+      </c>
       <c r="K91" t="s">
         <v>311</v>
       </c>
@@ -6229,11 +6774,14 @@
       <c r="W91" t="s">
         <v>159</v>
       </c>
-      <c r="AC91" t="s">
+      <c r="X91" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD91" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>143</v>
       </c>
@@ -6252,6 +6800,9 @@
       <c r="G92" t="s">
         <v>65</v>
       </c>
+      <c r="J92" t="s">
+        <v>646</v>
+      </c>
       <c r="K92" t="s">
         <v>311</v>
       </c>
@@ -6273,11 +6824,14 @@
       <c r="W92" t="s">
         <v>159</v>
       </c>
-      <c r="AC92" t="s">
+      <c r="X92" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD92" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>143</v>
       </c>
@@ -6293,6 +6847,9 @@
       <c r="F93" t="s">
         <v>65</v>
       </c>
+      <c r="J93" t="s">
+        <v>646</v>
+      </c>
       <c r="K93" t="s">
         <v>327</v>
       </c>
@@ -6314,8 +6871,11 @@
       <c r="W93" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>143</v>
       </c>
@@ -6331,6 +6891,9 @@
       <c r="F94" t="s">
         <v>65</v>
       </c>
+      <c r="J94" t="s">
+        <v>646</v>
+      </c>
       <c r="K94" t="s">
         <v>331</v>
       </c>
@@ -6352,11 +6915,14 @@
       <c r="W94" t="s">
         <v>159</v>
       </c>
-      <c r="AC94" t="s">
+      <c r="X94" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD94" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>143</v>
       </c>
@@ -6375,6 +6941,9 @@
       <c r="G95" t="s">
         <v>65</v>
       </c>
+      <c r="J95" t="s">
+        <v>646</v>
+      </c>
       <c r="K95" t="s">
         <v>335</v>
       </c>
@@ -6396,11 +6965,14 @@
       <c r="W95" t="s">
         <v>159</v>
       </c>
-      <c r="AC95" t="s">
+      <c r="X95" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>143</v>
       </c>
@@ -6419,6 +6991,9 @@
       <c r="G96" t="s">
         <v>65</v>
       </c>
+      <c r="J96" t="s">
+        <v>646</v>
+      </c>
       <c r="K96" t="s">
         <v>335</v>
       </c>
@@ -6440,11 +7015,14 @@
       <c r="W96" t="s">
         <v>159</v>
       </c>
-      <c r="AC96" t="s">
+      <c r="X96" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD96" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>143</v>
       </c>
@@ -6463,6 +7041,9 @@
       <c r="G97" t="s">
         <v>65</v>
       </c>
+      <c r="J97" t="s">
+        <v>646</v>
+      </c>
       <c r="K97" t="s">
         <v>335</v>
       </c>
@@ -6484,11 +7065,14 @@
       <c r="W97" t="s">
         <v>159</v>
       </c>
-      <c r="AC97" t="s">
+      <c r="X97" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD97" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>143</v>
       </c>
@@ -6507,6 +7091,9 @@
       <c r="G98" t="s">
         <v>65</v>
       </c>
+      <c r="J98" t="s">
+        <v>646</v>
+      </c>
       <c r="K98" t="s">
         <v>335</v>
       </c>
@@ -6528,11 +7115,14 @@
       <c r="W98" t="s">
         <v>159</v>
       </c>
-      <c r="AC98" t="s">
+      <c r="X98" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD98" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>143</v>
       </c>
@@ -6551,6 +7141,9 @@
       <c r="G99" t="s">
         <v>65</v>
       </c>
+      <c r="J99" t="s">
+        <v>646</v>
+      </c>
       <c r="K99" t="s">
         <v>335</v>
       </c>
@@ -6572,11 +7165,14 @@
       <c r="W99" t="s">
         <v>159</v>
       </c>
-      <c r="AC99" t="s">
+      <c r="X99" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD99" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>143</v>
       </c>
@@ -6595,6 +7191,9 @@
       <c r="G100" t="s">
         <v>65</v>
       </c>
+      <c r="J100" t="s">
+        <v>646</v>
+      </c>
       <c r="K100" t="s">
         <v>335</v>
       </c>
@@ -6616,11 +7215,14 @@
       <c r="W100" t="s">
         <v>159</v>
       </c>
-      <c r="AC100" t="s">
+      <c r="X100" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD100" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>143</v>
       </c>
@@ -6639,6 +7241,9 @@
       <c r="G101" t="s">
         <v>65</v>
       </c>
+      <c r="J101" t="s">
+        <v>646</v>
+      </c>
       <c r="K101" t="s">
         <v>335</v>
       </c>
@@ -6660,11 +7265,14 @@
       <c r="W101" t="s">
         <v>159</v>
       </c>
-      <c r="AC101" t="s">
+      <c r="X101" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD101" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>143</v>
       </c>
@@ -6683,6 +7291,9 @@
       <c r="G102" t="s">
         <v>65</v>
       </c>
+      <c r="J102" t="s">
+        <v>646</v>
+      </c>
       <c r="K102" t="s">
         <v>335</v>
       </c>
@@ -6704,11 +7315,14 @@
       <c r="W102" t="s">
         <v>159</v>
       </c>
-      <c r="AC102" t="s">
+      <c r="X102" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD102" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>143</v>
       </c>
@@ -6727,6 +7341,9 @@
       <c r="G103" t="s">
         <v>65</v>
       </c>
+      <c r="J103" t="s">
+        <v>646</v>
+      </c>
       <c r="K103" t="s">
         <v>335</v>
       </c>
@@ -6748,11 +7365,14 @@
       <c r="W103" t="s">
         <v>159</v>
       </c>
-      <c r="AC103" t="s">
+      <c r="X103" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD103" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>143</v>
       </c>
@@ -6768,6 +7388,9 @@
       <c r="F104" t="s">
         <v>65</v>
       </c>
+      <c r="J104" t="s">
+        <v>646</v>
+      </c>
       <c r="K104" t="s">
         <v>351</v>
       </c>
@@ -6795,11 +7418,14 @@
       <c r="W104" t="s">
         <v>159</v>
       </c>
-      <c r="AC104" t="s">
+      <c r="X104" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>143</v>
       </c>
@@ -6815,6 +7441,9 @@
       <c r="F105" t="s">
         <v>65</v>
       </c>
+      <c r="J105" t="s">
+        <v>646</v>
+      </c>
       <c r="K105" t="s">
         <v>39</v>
       </c>
@@ -6836,11 +7465,14 @@
       <c r="W105" t="s">
         <v>159</v>
       </c>
-      <c r="AC105" t="s">
+      <c r="X105" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD105" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>143</v>
       </c>
@@ -6859,6 +7491,9 @@
       <c r="G106" t="s">
         <v>65</v>
       </c>
+      <c r="J106" t="s">
+        <v>646</v>
+      </c>
       <c r="K106" t="s">
         <v>40</v>
       </c>
@@ -6880,11 +7515,14 @@
       <c r="W106" t="s">
         <v>159</v>
       </c>
-      <c r="AC106" t="s">
+      <c r="X106" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD106" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>143</v>
       </c>
@@ -6903,6 +7541,9 @@
       <c r="G107" t="s">
         <v>65</v>
       </c>
+      <c r="J107" t="s">
+        <v>646</v>
+      </c>
       <c r="K107" t="s">
         <v>41</v>
       </c>
@@ -6924,11 +7565,14 @@
       <c r="W107" t="s">
         <v>159</v>
       </c>
-      <c r="AC107" t="s">
+      <c r="X107" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD107" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>143</v>
       </c>
@@ -6947,6 +7591,9 @@
       <c r="G108" t="s">
         <v>65</v>
       </c>
+      <c r="J108" t="s">
+        <v>646</v>
+      </c>
       <c r="K108" t="s">
         <v>42</v>
       </c>
@@ -6968,11 +7615,14 @@
       <c r="W108" t="s">
         <v>159</v>
       </c>
-      <c r="AC108" t="s">
+      <c r="X108" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD108" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>143</v>
       </c>
@@ -6988,6 +7638,9 @@
       <c r="F109" t="s">
         <v>65</v>
       </c>
+      <c r="J109" t="s">
+        <v>646</v>
+      </c>
       <c r="K109" t="s">
         <v>365</v>
       </c>
@@ -7009,11 +7662,14 @@
       <c r="W109" t="s">
         <v>159</v>
       </c>
-      <c r="AC109" t="s">
+      <c r="X109" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD109" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>143</v>
       </c>
@@ -7032,6 +7688,9 @@
       <c r="G110" t="s">
         <v>65</v>
       </c>
+      <c r="J110" t="s">
+        <v>646</v>
+      </c>
       <c r="K110" t="s">
         <v>369</v>
       </c>
@@ -7053,11 +7712,14 @@
       <c r="W110" t="s">
         <v>159</v>
       </c>
-      <c r="AC110" t="s">
+      <c r="X110" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD110" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>143</v>
       </c>
@@ -7076,6 +7738,9 @@
       <c r="G111" t="s">
         <v>65</v>
       </c>
+      <c r="J111" t="s">
+        <v>646</v>
+      </c>
       <c r="K111" s="10" t="s">
         <v>43</v>
       </c>
@@ -7097,11 +7762,14 @@
       <c r="W111" t="s">
         <v>159</v>
       </c>
-      <c r="AC111" t="s">
+      <c r="X111" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD111" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>143</v>
       </c>
@@ -7120,6 +7788,9 @@
       <c r="G112" t="s">
         <v>65</v>
       </c>
+      <c r="J112" t="s">
+        <v>646</v>
+      </c>
       <c r="K112" s="10" t="s">
         <v>43</v>
       </c>
@@ -7141,11 +7812,14 @@
       <c r="W112" t="s">
         <v>159</v>
       </c>
-      <c r="AC112" t="s">
+      <c r="X112" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD112" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>143</v>
       </c>
@@ -7161,6 +7835,9 @@
       <c r="F113" t="s">
         <v>65</v>
       </c>
+      <c r="J113" t="s">
+        <v>646</v>
+      </c>
       <c r="K113" t="s">
         <v>377</v>
       </c>
@@ -7182,11 +7859,14 @@
       <c r="W113" t="s">
         <v>159</v>
       </c>
-      <c r="AC113" t="s">
+      <c r="X113" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD113" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>143</v>
       </c>
@@ -7201,6 +7881,9 @@
       </c>
       <c r="F114" t="s">
         <v>65</v>
+      </c>
+      <c r="J114" t="s">
+        <v>646</v>
       </c>
       <c r="K114" t="s">
         <v>381</v>
@@ -7224,11 +7907,14 @@
       <c r="W114" t="s">
         <v>159</v>
       </c>
-      <c r="AC114" t="s">
+      <c r="X114" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD114" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>143</v>
       </c>
@@ -7244,6 +7930,9 @@
       <c r="F115" t="s">
         <v>65</v>
       </c>
+      <c r="J115" t="s">
+        <v>646</v>
+      </c>
       <c r="K115" t="s">
         <v>385</v>
       </c>
@@ -7265,11 +7954,14 @@
       <c r="W115" t="s">
         <v>159</v>
       </c>
-      <c r="AC115" t="s">
+      <c r="X115" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD115" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>143</v>
       </c>
@@ -7285,6 +7977,9 @@
       <c r="F116" t="s">
         <v>65</v>
       </c>
+      <c r="J116" t="s">
+        <v>646</v>
+      </c>
       <c r="K116" t="s">
         <v>389</v>
       </c>
@@ -7306,11 +8001,14 @@
       <c r="W116" t="s">
         <v>159</v>
       </c>
-      <c r="AC116" t="s">
+      <c r="X116" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD116" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>143</v>
       </c>
@@ -7326,6 +8024,9 @@
       <c r="F117" t="s">
         <v>65</v>
       </c>
+      <c r="J117" t="s">
+        <v>646</v>
+      </c>
       <c r="K117" t="s">
         <v>393</v>
       </c>
@@ -7347,11 +8048,14 @@
       <c r="W117" t="s">
         <v>159</v>
       </c>
-      <c r="AC117" t="s">
+      <c r="X117" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD117" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>143</v>
       </c>
@@ -7370,6 +8074,9 @@
       <c r="G118" t="s">
         <v>65</v>
       </c>
+      <c r="J118" t="s">
+        <v>646</v>
+      </c>
       <c r="K118" t="s">
         <v>44</v>
       </c>
@@ -7391,11 +8098,14 @@
       <c r="W118" t="s">
         <v>159</v>
       </c>
-      <c r="AC118" t="s">
+      <c r="X118" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD118" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>143</v>
       </c>
@@ -7411,6 +8121,9 @@
       <c r="F119" t="s">
         <v>65</v>
       </c>
+      <c r="J119" t="s">
+        <v>646</v>
+      </c>
       <c r="K119" t="s">
         <v>45</v>
       </c>
@@ -7432,11 +8145,14 @@
       <c r="W119" t="s">
         <v>159</v>
       </c>
-      <c r="AC119" t="s">
+      <c r="X119" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD119" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>143</v>
       </c>
@@ -7452,6 +8168,9 @@
       <c r="F120" t="s">
         <v>65</v>
       </c>
+      <c r="J120" t="s">
+        <v>646</v>
+      </c>
       <c r="K120" t="s">
         <v>46</v>
       </c>
@@ -7473,11 +8192,14 @@
       <c r="W120" t="s">
         <v>159</v>
       </c>
-      <c r="AC120" t="s">
+      <c r="X120" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD120" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>143</v>
       </c>
@@ -7493,6 +8215,9 @@
       <c r="F121" t="s">
         <v>65</v>
       </c>
+      <c r="J121" t="s">
+        <v>646</v>
+      </c>
       <c r="K121" t="s">
         <v>46</v>
       </c>
@@ -7514,11 +8239,14 @@
       <c r="W121" t="s">
         <v>159</v>
       </c>
-      <c r="AC121" t="s">
+      <c r="X121" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD121" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>143</v>
       </c>
@@ -7534,6 +8262,9 @@
       <c r="F122" t="s">
         <v>65</v>
       </c>
+      <c r="J122" t="s">
+        <v>646</v>
+      </c>
       <c r="K122" t="s">
         <v>46</v>
       </c>
@@ -7555,11 +8286,14 @@
       <c r="W122" t="s">
         <v>159</v>
       </c>
-      <c r="AC122" t="s">
+      <c r="X122" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD122" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>143</v>
       </c>
@@ -7575,6 +8309,9 @@
       <c r="F123" t="s">
         <v>65</v>
       </c>
+      <c r="J123" t="s">
+        <v>646</v>
+      </c>
       <c r="K123" t="s">
         <v>408</v>
       </c>
@@ -7596,11 +8333,14 @@
       <c r="W123" t="s">
         <v>159</v>
       </c>
-      <c r="AC123" t="s">
+      <c r="X123" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD123" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>143</v>
       </c>
@@ -7616,6 +8356,9 @@
       <c r="F124" t="s">
         <v>65</v>
       </c>
+      <c r="J124" t="s">
+        <v>646</v>
+      </c>
       <c r="K124" t="s">
         <v>412</v>
       </c>
@@ -7637,11 +8380,14 @@
       <c r="W124" t="s">
         <v>159</v>
       </c>
-      <c r="AC124" t="s">
+      <c r="X124" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD124" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>143</v>
       </c>
@@ -7657,6 +8403,9 @@
       <c r="F125" t="s">
         <v>65</v>
       </c>
+      <c r="J125" t="s">
+        <v>646</v>
+      </c>
       <c r="K125" t="s">
         <v>416</v>
       </c>
@@ -7684,11 +8433,14 @@
       <c r="W125" t="s">
         <v>159</v>
       </c>
-      <c r="AC125" t="s">
+      <c r="X125" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD125" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>143</v>
       </c>
@@ -7704,6 +8456,9 @@
       <c r="F126" t="s">
         <v>65</v>
       </c>
+      <c r="J126" t="s">
+        <v>646</v>
+      </c>
       <c r="K126" t="s">
         <v>422</v>
       </c>
@@ -7725,11 +8480,14 @@
       <c r="W126" t="s">
         <v>159</v>
       </c>
-      <c r="AC126" t="s">
+      <c r="X126" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD126" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>143</v>
       </c>
@@ -7748,6 +8506,9 @@
       <c r="G127" t="s">
         <v>65</v>
       </c>
+      <c r="J127" t="s">
+        <v>646</v>
+      </c>
       <c r="K127" t="s">
         <v>47</v>
       </c>
@@ -7769,11 +8530,14 @@
       <c r="W127" t="s">
         <v>159</v>
       </c>
-      <c r="AC127" t="s">
+      <c r="X127" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD127" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>143</v>
       </c>
@@ -7788,6 +8552,9 @@
       </c>
       <c r="F128" t="s">
         <v>65</v>
+      </c>
+      <c r="J128" t="s">
+        <v>646</v>
       </c>
       <c r="K128" t="s">
         <v>48</v>
@@ -7811,11 +8578,14 @@
       <c r="W128" t="s">
         <v>159</v>
       </c>
-      <c r="AC128" t="s">
+      <c r="X128" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD128" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>143</v>
       </c>
@@ -7834,6 +8604,9 @@
       <c r="H129" t="s">
         <v>65</v>
       </c>
+      <c r="J129" t="s">
+        <v>646</v>
+      </c>
       <c r="K129" t="s">
         <v>49</v>
       </c>
@@ -7855,11 +8628,14 @@
       <c r="W129" t="s">
         <v>159</v>
       </c>
-      <c r="AC129" t="s">
+      <c r="X129" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD129" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>143</v>
       </c>
@@ -7875,6 +8651,9 @@
       <c r="F130" t="s">
         <v>65</v>
       </c>
+      <c r="J130" t="s">
+        <v>646</v>
+      </c>
       <c r="K130" t="s">
         <v>434</v>
       </c>
@@ -7896,11 +8675,14 @@
       <c r="W130" t="s">
         <v>159</v>
       </c>
-      <c r="AC130" t="s">
+      <c r="X130" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD130" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>143</v>
       </c>
@@ -7916,6 +8698,9 @@
       <c r="F131" t="s">
         <v>65</v>
       </c>
+      <c r="J131" t="s">
+        <v>646</v>
+      </c>
       <c r="K131" t="s">
         <v>438</v>
       </c>
@@ -7937,11 +8722,14 @@
       <c r="W131" t="s">
         <v>159</v>
       </c>
-      <c r="AC131" t="s">
+      <c r="X131" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD131" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>143</v>
       </c>
@@ -7957,6 +8745,9 @@
       <c r="F132" t="s">
         <v>65</v>
       </c>
+      <c r="J132" t="s">
+        <v>646</v>
+      </c>
       <c r="K132" t="s">
         <v>442</v>
       </c>
@@ -7978,11 +8769,14 @@
       <c r="W132" t="s">
         <v>159</v>
       </c>
-      <c r="AC132" t="s">
+      <c r="X132" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD132" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>143</v>
       </c>
@@ -7998,6 +8792,9 @@
       <c r="F133" t="s">
         <v>65</v>
       </c>
+      <c r="J133" t="s">
+        <v>646</v>
+      </c>
       <c r="K133" t="s">
         <v>50</v>
       </c>
@@ -8019,11 +8816,14 @@
       <c r="W133" t="s">
         <v>159</v>
       </c>
-      <c r="AC133" t="s">
+      <c r="X133" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD133" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>143</v>
       </c>
@@ -8039,6 +8839,9 @@
       <c r="F134" t="s">
         <v>65</v>
       </c>
+      <c r="J134" t="s">
+        <v>646</v>
+      </c>
       <c r="K134" t="s">
         <v>449</v>
       </c>
@@ -8060,11 +8863,14 @@
       <c r="W134" t="s">
         <v>159</v>
       </c>
-      <c r="AC134" t="s">
+      <c r="X134" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD134" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="135" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>143</v>
       </c>
@@ -8080,6 +8886,9 @@
       <c r="F135" t="s">
         <v>65</v>
       </c>
+      <c r="J135" t="s">
+        <v>646</v>
+      </c>
       <c r="K135" t="s">
         <v>51</v>
       </c>
@@ -8101,11 +8910,14 @@
       <c r="W135" t="s">
         <v>159</v>
       </c>
-      <c r="AC135" t="s">
+      <c r="X135" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD135" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>143</v>
       </c>
@@ -8118,6 +8930,9 @@
       <c r="E136">
         <v>231</v>
       </c>
+      <c r="J136" t="s">
+        <v>646</v>
+      </c>
       <c r="K136" t="s">
         <v>455</v>
       </c>
@@ -8139,8 +8954,11 @@
       <c r="W136" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="137" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="X136" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>143</v>
       </c>
@@ -8156,6 +8974,9 @@
       <c r="F137" t="s">
         <v>65</v>
       </c>
+      <c r="J137" t="s">
+        <v>646</v>
+      </c>
       <c r="K137" t="s">
         <v>460</v>
       </c>
@@ -8177,11 +8998,14 @@
       <c r="W137" t="s">
         <v>159</v>
       </c>
-      <c r="AC137" t="s">
+      <c r="X137" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD137" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>143</v>
       </c>
@@ -8197,6 +9021,9 @@
       <c r="F138" t="s">
         <v>65</v>
       </c>
+      <c r="J138" t="s">
+        <v>646</v>
+      </c>
       <c r="K138" t="s">
         <v>52</v>
       </c>
@@ -8218,11 +9045,14 @@
       <c r="W138" t="s">
         <v>159</v>
       </c>
-      <c r="AC138" t="s">
+      <c r="X138" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD138" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="139" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>143</v>
       </c>
@@ -8238,6 +9068,9 @@
       <c r="F139" t="s">
         <v>65</v>
       </c>
+      <c r="J139" t="s">
+        <v>646</v>
+      </c>
       <c r="K139" t="s">
         <v>52</v>
       </c>
@@ -8259,11 +9092,14 @@
       <c r="W139" t="s">
         <v>159</v>
       </c>
-      <c r="AC139" t="s">
+      <c r="X139" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD139" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>143</v>
       </c>
@@ -8279,6 +9115,9 @@
       <c r="F140" t="s">
         <v>65</v>
       </c>
+      <c r="J140" t="s">
+        <v>646</v>
+      </c>
       <c r="K140" t="s">
         <v>466</v>
       </c>
@@ -8300,11 +9139,14 @@
       <c r="W140" t="s">
         <v>159</v>
       </c>
-      <c r="AC140" t="s">
+      <c r="X140" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD140" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="141" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>143</v>
       </c>
@@ -8323,6 +9165,9 @@
       <c r="H141" t="s">
         <v>65</v>
       </c>
+      <c r="J141" t="s">
+        <v>646</v>
+      </c>
       <c r="K141" t="s">
         <v>470</v>
       </c>
@@ -8344,11 +9189,14 @@
       <c r="W141" t="s">
         <v>159</v>
       </c>
-      <c r="AC141" t="s">
+      <c r="X141" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD141" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="142" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>143</v>
       </c>
@@ -8364,6 +9212,9 @@
       <c r="F142" t="s">
         <v>65</v>
       </c>
+      <c r="J142" t="s">
+        <v>646</v>
+      </c>
       <c r="K142" t="s">
         <v>474</v>
       </c>
@@ -8385,11 +9236,14 @@
       <c r="W142" t="s">
         <v>159</v>
       </c>
-      <c r="AC142" t="s">
+      <c r="X142" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD142" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>143</v>
       </c>
@@ -8405,6 +9259,9 @@
       <c r="F143" t="s">
         <v>65</v>
       </c>
+      <c r="J143" t="s">
+        <v>646</v>
+      </c>
       <c r="K143" t="s">
         <v>478</v>
       </c>
@@ -8426,11 +9283,14 @@
       <c r="W143" t="s">
         <v>159</v>
       </c>
-      <c r="AC143" t="s">
+      <c r="X143" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD143" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>143</v>
       </c>
@@ -8446,6 +9306,9 @@
       <c r="F144" t="s">
         <v>65</v>
       </c>
+      <c r="J144" t="s">
+        <v>646</v>
+      </c>
       <c r="K144" t="s">
         <v>482</v>
       </c>
@@ -8467,11 +9330,14 @@
       <c r="W144" t="s">
         <v>159</v>
       </c>
-      <c r="AC144" t="s">
+      <c r="X144" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD144" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>143</v>
       </c>
@@ -8487,6 +9353,9 @@
       <c r="F145" t="s">
         <v>65</v>
       </c>
+      <c r="J145" t="s">
+        <v>646</v>
+      </c>
       <c r="K145" t="s">
         <v>486</v>
       </c>
@@ -8508,11 +9377,14 @@
       <c r="W145" t="s">
         <v>159</v>
       </c>
-      <c r="AC145" t="s">
+      <c r="X145" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD145" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="146" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>143</v>
       </c>
@@ -8531,6 +9403,9 @@
       <c r="H146" t="s">
         <v>65</v>
       </c>
+      <c r="J146" t="s">
+        <v>646</v>
+      </c>
       <c r="K146" t="s">
         <v>488</v>
       </c>
@@ -8552,11 +9427,14 @@
       <c r="W146" t="s">
         <v>159</v>
       </c>
-      <c r="AC146" t="s">
+      <c r="X146" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD146" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="147" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>143</v>
       </c>
@@ -8575,6 +9453,9 @@
       <c r="G147" t="s">
         <v>65</v>
       </c>
+      <c r="J147" t="s">
+        <v>646</v>
+      </c>
       <c r="K147" t="s">
         <v>53</v>
       </c>
@@ -8596,14 +9477,17 @@
       <c r="W147" t="s">
         <v>159</v>
       </c>
-      <c r="AC147" t="s">
+      <c r="X147" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD147" t="s">
         <v>116</v>
       </c>
-      <c r="AE147" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="148" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF147" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>143</v>
       </c>
@@ -8619,6 +9503,9 @@
       <c r="F148" t="s">
         <v>65</v>
       </c>
+      <c r="J148" t="s">
+        <v>646</v>
+      </c>
       <c r="K148" t="s">
         <v>493</v>
       </c>
@@ -8640,11 +9527,14 @@
       <c r="W148" t="s">
         <v>159</v>
       </c>
-      <c r="AC148" t="s">
+      <c r="X148" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD148" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="149" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>143</v>
       </c>
@@ -8663,6 +9553,9 @@
       <c r="H149" t="s">
         <v>65</v>
       </c>
+      <c r="J149" t="s">
+        <v>646</v>
+      </c>
       <c r="K149" t="s">
         <v>54</v>
       </c>
@@ -8684,11 +9577,14 @@
       <c r="W149" t="s">
         <v>159</v>
       </c>
-      <c r="AC149" t="s">
+      <c r="X149" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD149" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>143</v>
       </c>
@@ -8707,6 +9603,9 @@
       <c r="G150" t="s">
         <v>65</v>
       </c>
+      <c r="J150" t="s">
+        <v>646</v>
+      </c>
       <c r="K150" t="s">
         <v>55</v>
       </c>
@@ -8728,11 +9627,14 @@
       <c r="W150" t="s">
         <v>159</v>
       </c>
-      <c r="AC150" t="s">
+      <c r="X150" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD150" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="151" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>143</v>
       </c>
@@ -8751,6 +9653,9 @@
       <c r="G151" t="s">
         <v>65</v>
       </c>
+      <c r="J151" t="s">
+        <v>646</v>
+      </c>
       <c r="K151" t="s">
         <v>55</v>
       </c>
@@ -8772,11 +9677,14 @@
       <c r="W151" t="s">
         <v>159</v>
       </c>
-      <c r="AC151" t="s">
+      <c r="X151" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD151" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="152" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>143</v>
       </c>
@@ -8795,6 +9703,9 @@
       <c r="G152" t="s">
         <v>65</v>
       </c>
+      <c r="J152" t="s">
+        <v>646</v>
+      </c>
       <c r="K152" t="s">
         <v>55</v>
       </c>
@@ -8816,11 +9727,14 @@
       <c r="W152" t="s">
         <v>159</v>
       </c>
-      <c r="AC152" t="s">
+      <c r="X152" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD152" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="153" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>143</v>
       </c>
@@ -8839,6 +9753,9 @@
       <c r="G153" t="s">
         <v>65</v>
       </c>
+      <c r="J153" t="s">
+        <v>646</v>
+      </c>
       <c r="K153" t="s">
         <v>55</v>
       </c>
@@ -8860,11 +9777,14 @@
       <c r="W153" t="s">
         <v>159</v>
       </c>
-      <c r="AC153" t="s">
+      <c r="X153" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD153" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="154" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>143</v>
       </c>
@@ -8883,6 +9803,9 @@
       <c r="G154" t="s">
         <v>65</v>
       </c>
+      <c r="J154" t="s">
+        <v>646</v>
+      </c>
       <c r="K154" t="s">
         <v>55</v>
       </c>
@@ -8904,8 +9827,11 @@
       <c r="W154" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="155" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>143</v>
       </c>
@@ -8924,6 +9850,9 @@
       <c r="G155" t="s">
         <v>65</v>
       </c>
+      <c r="J155" t="s">
+        <v>646</v>
+      </c>
       <c r="K155" t="s">
         <v>55</v>
       </c>
@@ -8945,8 +9874,11 @@
       <c r="W155" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="156" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X155" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>143</v>
       </c>
@@ -8965,6 +9897,9 @@
       <c r="G156" t="s">
         <v>65</v>
       </c>
+      <c r="J156" t="s">
+        <v>646</v>
+      </c>
       <c r="K156" t="s">
         <v>55</v>
       </c>
@@ -8986,11 +9921,14 @@
       <c r="W156" t="s">
         <v>159</v>
       </c>
-      <c r="AC156" t="s">
+      <c r="X156" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD156" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>143</v>
       </c>
@@ -9009,6 +9947,9 @@
       <c r="G157" t="s">
         <v>65</v>
       </c>
+      <c r="J157" t="s">
+        <v>646</v>
+      </c>
       <c r="K157" t="s">
         <v>55</v>
       </c>
@@ -9030,11 +9971,14 @@
       <c r="W157" t="s">
         <v>159</v>
       </c>
-      <c r="AC157" t="s">
+      <c r="X157" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD157" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>143</v>
       </c>
@@ -9053,6 +9997,9 @@
       <c r="G158" t="s">
         <v>65</v>
       </c>
+      <c r="J158" t="s">
+        <v>646</v>
+      </c>
       <c r="K158" t="s">
         <v>55</v>
       </c>
@@ -9074,11 +10021,14 @@
       <c r="W158" t="s">
         <v>159</v>
       </c>
-      <c r="AC158" t="s">
+      <c r="X158" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD158" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>143</v>
       </c>
@@ -9097,6 +10047,9 @@
       <c r="G159" t="s">
         <v>65</v>
       </c>
+      <c r="J159" t="s">
+        <v>646</v>
+      </c>
       <c r="K159" t="s">
         <v>510</v>
       </c>
@@ -9118,11 +10071,14 @@
       <c r="W159" t="s">
         <v>159</v>
       </c>
-      <c r="AC159" t="s">
+      <c r="X159" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD159" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>143</v>
       </c>
@@ -9141,6 +10097,9 @@
       <c r="G160" t="s">
         <v>65</v>
       </c>
+      <c r="J160" t="s">
+        <v>646</v>
+      </c>
       <c r="K160" t="s">
         <v>510</v>
       </c>
@@ -9162,11 +10121,14 @@
       <c r="W160" t="s">
         <v>159</v>
       </c>
-      <c r="AC160" t="s">
+      <c r="X160" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD160" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>143</v>
       </c>
@@ -9185,6 +10147,9 @@
       <c r="G161" t="s">
         <v>65</v>
       </c>
+      <c r="J161" t="s">
+        <v>646</v>
+      </c>
       <c r="K161" t="s">
         <v>510</v>
       </c>
@@ -9206,11 +10171,14 @@
       <c r="W161" t="s">
         <v>159</v>
       </c>
-      <c r="AC161" t="s">
+      <c r="X161" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD161" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>143</v>
       </c>
@@ -9229,6 +10197,9 @@
       <c r="G162" t="s">
         <v>65</v>
       </c>
+      <c r="J162" t="s">
+        <v>646</v>
+      </c>
       <c r="K162" t="s">
         <v>510</v>
       </c>
@@ -9250,11 +10221,14 @@
       <c r="W162" t="s">
         <v>159</v>
       </c>
-      <c r="AC162" t="s">
+      <c r="X162" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD162" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>143</v>
       </c>
@@ -9273,6 +10247,9 @@
       <c r="H163" t="s">
         <v>65</v>
       </c>
+      <c r="J163" t="s">
+        <v>646</v>
+      </c>
       <c r="K163" t="s">
         <v>517</v>
       </c>
@@ -9294,11 +10271,14 @@
       <c r="W163" t="s">
         <v>159</v>
       </c>
-      <c r="AC163" t="s">
+      <c r="X163" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD163" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>143</v>
       </c>
@@ -9314,6 +10294,9 @@
       <c r="F164" t="s">
         <v>65</v>
       </c>
+      <c r="J164" t="s">
+        <v>646</v>
+      </c>
       <c r="K164" t="s">
         <v>521</v>
       </c>
@@ -9335,11 +10318,14 @@
       <c r="W164" t="s">
         <v>159</v>
       </c>
-      <c r="AC164" t="s">
+      <c r="X164" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD164" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>143</v>
       </c>
@@ -9355,6 +10341,9 @@
       <c r="F165" t="s">
         <v>65</v>
       </c>
+      <c r="J165" t="s">
+        <v>646</v>
+      </c>
       <c r="K165" t="s">
         <v>56</v>
       </c>
@@ -9376,11 +10365,14 @@
       <c r="W165" t="s">
         <v>159</v>
       </c>
-      <c r="AC165" t="s">
+      <c r="X165" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD165" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="166" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>143</v>
       </c>
@@ -9396,6 +10388,9 @@
       <c r="F166" t="s">
         <v>65</v>
       </c>
+      <c r="J166" t="s">
+        <v>646</v>
+      </c>
       <c r="K166" t="s">
         <v>57</v>
       </c>
@@ -9417,8 +10412,11 @@
       <c r="W166" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="167" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X166" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="167" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>143</v>
       </c>
@@ -9434,6 +10432,9 @@
       <c r="F167" t="s">
         <v>65</v>
       </c>
+      <c r="J167" t="s">
+        <v>646</v>
+      </c>
       <c r="K167" t="s">
         <v>57</v>
       </c>
@@ -9455,8 +10456,11 @@
       <c r="W167" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="168" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X167" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="168" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>143</v>
       </c>
@@ -9475,6 +10479,9 @@
       <c r="G168" t="s">
         <v>65</v>
       </c>
+      <c r="J168" t="s">
+        <v>646</v>
+      </c>
       <c r="K168" t="s">
         <v>532</v>
       </c>
@@ -9496,1757 +10503,1950 @@
       <c r="W168" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="169" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C169" s="14" t="s">
+      <c r="X168" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>143</v>
+      </c>
+      <c r="C169" t="s">
         <v>622</v>
       </c>
-      <c r="D169" s="14">
+      <c r="D169">
         <v>298</v>
       </c>
-      <c r="E169" s="14">
+      <c r="E169">
         <v>298</v>
       </c>
-      <c r="F169" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K169" s="14">
+      <c r="F169" t="s">
+        <v>65</v>
+      </c>
+      <c r="J169" t="s">
+        <v>646</v>
+      </c>
+      <c r="K169">
         <v>999</v>
       </c>
-      <c r="L169" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M169" s="14">
+      <c r="L169" t="s">
+        <v>65</v>
+      </c>
+      <c r="M169">
         <v>999</v>
       </c>
-      <c r="N169" s="15" t="s">
+      <c r="N169" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O169" s="15" t="s">
+      <c r="O169" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V169" s="14" t="s">
+      <c r="V169" t="s">
         <v>540</v>
       </c>
-      <c r="W169" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB169" s="16"/>
-      <c r="AC169" s="14" t="s">
+      <c r="W169" t="s">
+        <v>159</v>
+      </c>
+      <c r="X169" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD169" t="s">
         <v>121</v>
       </c>
-      <c r="AD169" s="14" t="s">
+      <c r="AE169" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C170" s="14" t="s">
+    <row r="170" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>143</v>
+      </c>
+      <c r="C170" t="s">
         <v>622</v>
       </c>
-      <c r="D170" s="14">
+      <c r="D170">
         <v>290</v>
       </c>
-      <c r="E170" s="14">
+      <c r="E170">
         <v>295</v>
       </c>
-      <c r="F170" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H170" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K170" s="14" t="s">
+      <c r="F170" t="s">
+        <v>65</v>
+      </c>
+      <c r="H170" t="s">
+        <v>65</v>
+      </c>
+      <c r="J170" t="s">
+        <v>646</v>
+      </c>
+      <c r="K170" t="s">
         <v>536</v>
       </c>
-      <c r="L170" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M170" s="14" t="s">
+      <c r="L170" t="s">
+        <v>65</v>
+      </c>
+      <c r="M170" t="s">
         <v>170</v>
       </c>
-      <c r="N170" s="15" t="s">
+      <c r="N170" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="O170" s="15" t="s">
+      <c r="O170" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="V170" s="14" t="s">
+      <c r="V170" t="s">
         <v>539</v>
       </c>
-      <c r="W170" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB170" s="16"/>
-      <c r="AC170" s="14" t="s">
+      <c r="W170" t="s">
+        <v>159</v>
+      </c>
+      <c r="X170" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD170" t="s">
         <v>122</v>
       </c>
-      <c r="AD170" s="14" t="s">
+      <c r="AE170" t="s">
         <v>145</v>
       </c>
-      <c r="AE170" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="171" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C171" s="14" t="s">
+      <c r="AF170" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="171" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>143</v>
+      </c>
+      <c r="C171" t="s">
         <v>622</v>
       </c>
-      <c r="D171" s="14">
+      <c r="D171">
         <v>296</v>
       </c>
-      <c r="E171" s="14">
+      <c r="E171">
         <v>299</v>
       </c>
-      <c r="F171" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H171" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K171" s="14" t="s">
+      <c r="F171" t="s">
+        <v>65</v>
+      </c>
+      <c r="H171" t="s">
+        <v>65</v>
+      </c>
+      <c r="J171" t="s">
+        <v>646</v>
+      </c>
+      <c r="K171" t="s">
         <v>608</v>
       </c>
-      <c r="L171" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M171" s="14" t="s">
+      <c r="L171" t="s">
+        <v>65</v>
+      </c>
+      <c r="M171" t="s">
         <v>170</v>
       </c>
-      <c r="N171" s="15" t="s">
+      <c r="N171" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="O171" s="15" t="s">
+      <c r="O171" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="V171" s="14" t="s">
+      <c r="V171" t="s">
         <v>541</v>
       </c>
-      <c r="W171" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB171" s="16"/>
-      <c r="AD171" s="14" t="s">
+      <c r="W171" t="s">
+        <v>159</v>
+      </c>
+      <c r="X171" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE171" t="s">
         <v>146</v>
       </c>
-      <c r="AE171" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="172" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C172" s="14" t="s">
+      <c r="AF171" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="172" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>143</v>
+      </c>
+      <c r="C172" t="s">
         <v>622</v>
       </c>
-      <c r="D172" s="14">
+      <c r="D172">
         <v>300</v>
       </c>
-      <c r="E172" s="14">
+      <c r="E172">
         <v>303</v>
       </c>
-      <c r="F172" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G172" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H172" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K172" s="14" t="s">
+      <c r="F172" t="s">
+        <v>65</v>
+      </c>
+      <c r="G172" t="s">
+        <v>65</v>
+      </c>
+      <c r="H172" t="s">
+        <v>65</v>
+      </c>
+      <c r="J172" t="s">
+        <v>646</v>
+      </c>
+      <c r="K172" t="s">
         <v>545</v>
       </c>
-      <c r="L172" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M172" s="14" t="s">
+      <c r="L172" t="s">
+        <v>65</v>
+      </c>
+      <c r="M172" t="s">
         <v>171</v>
       </c>
-      <c r="N172" s="15" t="s">
+      <c r="N172" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="O172" s="15" t="s">
+      <c r="O172" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="V172" s="14" t="s">
+      <c r="V172" t="s">
         <v>544</v>
       </c>
-      <c r="W172" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB172" s="16"/>
-      <c r="AC172" s="14" t="s">
+      <c r="W172" t="s">
+        <v>159</v>
+      </c>
+      <c r="X172" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD172" t="s">
         <v>123</v>
       </c>
-      <c r="AD172" s="14" t="s">
+      <c r="AE172" t="s">
         <v>146</v>
       </c>
-      <c r="AE172" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="173" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C173" s="14" t="s">
+      <c r="AF172" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="173" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>143</v>
+      </c>
+      <c r="C173" t="s">
         <v>622</v>
       </c>
-      <c r="D173" s="14">
+      <c r="D173">
         <v>304</v>
       </c>
-      <c r="E173" s="14">
+      <c r="E173">
         <v>304</v>
       </c>
-      <c r="F173" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K173" s="14" t="s">
+      <c r="F173" t="s">
+        <v>65</v>
+      </c>
+      <c r="J173" t="s">
+        <v>646</v>
+      </c>
+      <c r="K173" t="s">
         <v>549</v>
       </c>
-      <c r="L173" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M173" s="14" t="s">
+      <c r="L173" t="s">
+        <v>65</v>
+      </c>
+      <c r="M173" t="s">
         <v>171</v>
       </c>
-      <c r="N173" s="15" t="s">
+      <c r="N173" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="O173" s="15" t="s">
+      <c r="O173" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="V173" s="14" t="s">
+      <c r="V173" t="s">
         <v>548</v>
       </c>
-      <c r="W173" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB173" s="16"/>
-      <c r="AC173" s="14" t="s">
+      <c r="W173" t="s">
+        <v>159</v>
+      </c>
+      <c r="X173" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD173" t="s">
         <v>124</v>
       </c>
-      <c r="AD173" s="14" t="s">
+      <c r="AE173" t="s">
         <v>147</v>
       </c>
-      <c r="AE173" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="174" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C174" s="14" t="s">
+      <c r="AF173" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="174" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>143</v>
+      </c>
+      <c r="C174" t="s">
         <v>622</v>
       </c>
-      <c r="D174" s="14">
+      <c r="D174">
         <v>304</v>
       </c>
-      <c r="E174" s="14">
+      <c r="E174">
         <v>304</v>
       </c>
-      <c r="F174" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K174" s="14" t="s">
+      <c r="F174" t="s">
+        <v>65</v>
+      </c>
+      <c r="J174" t="s">
+        <v>646</v>
+      </c>
+      <c r="K174" t="s">
         <v>549</v>
       </c>
-      <c r="L174" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M174" s="14" t="s">
+      <c r="L174" t="s">
+        <v>65</v>
+      </c>
+      <c r="M174" t="s">
         <v>171</v>
       </c>
-      <c r="N174" s="15" t="s">
+      <c r="N174" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="O174" s="15" t="s">
+      <c r="O174" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="V174" s="14" t="s">
+      <c r="V174" t="s">
         <v>505</v>
       </c>
-      <c r="W174" s="14" t="s">
+      <c r="W174" t="s">
         <v>229</v>
       </c>
-      <c r="AB174" s="16"/>
-    </row>
-    <row r="175" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C175" s="14" t="s">
+      <c r="X174" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="175" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>143</v>
+      </c>
+      <c r="C175" t="s">
         <v>622</v>
       </c>
-      <c r="D175" s="14">
+      <c r="D175">
         <v>304</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E175">
         <v>304</v>
       </c>
-      <c r="F175" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K175" s="14" t="s">
+      <c r="F175" t="s">
+        <v>65</v>
+      </c>
+      <c r="J175" t="s">
+        <v>646</v>
+      </c>
+      <c r="K175" t="s">
         <v>549</v>
       </c>
-      <c r="L175" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M175" s="14" t="s">
+      <c r="L175" t="s">
+        <v>65</v>
+      </c>
+      <c r="M175" t="s">
         <v>171</v>
       </c>
-      <c r="N175" s="15" t="s">
+      <c r="N175" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="O175" s="15" t="s">
+      <c r="O175" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="V175" s="14" t="s">
+      <c r="V175" t="s">
         <v>277</v>
       </c>
-      <c r="W175" s="14" t="s">
+      <c r="W175" t="s">
         <v>229</v>
       </c>
-      <c r="AB175" s="16"/>
-    </row>
-    <row r="176" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C176" s="14" t="s">
+      <c r="X175" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="176" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>143</v>
+      </c>
+      <c r="C176" t="s">
         <v>622</v>
       </c>
-      <c r="D176" s="14">
+      <c r="D176">
         <v>305</v>
       </c>
-      <c r="E176" s="14">
+      <c r="E176">
         <v>306</v>
       </c>
-      <c r="F176" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G176" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K176" s="14" t="s">
+      <c r="F176" t="s">
+        <v>65</v>
+      </c>
+      <c r="G176" t="s">
+        <v>65</v>
+      </c>
+      <c r="J176" t="s">
+        <v>646</v>
+      </c>
+      <c r="K176" t="s">
         <v>551</v>
       </c>
-      <c r="L176" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M176" s="14" t="s">
+      <c r="L176" t="s">
+        <v>65</v>
+      </c>
+      <c r="M176" t="s">
         <v>171</v>
       </c>
-      <c r="N176" s="15" t="s">
+      <c r="N176" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="O176" s="15" t="s">
+      <c r="O176" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="V176" s="14" t="s">
+      <c r="V176" t="s">
         <v>550</v>
       </c>
-      <c r="W176" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB176" s="16"/>
-      <c r="AC176" s="14" t="s">
+      <c r="W176" t="s">
+        <v>159</v>
+      </c>
+      <c r="X176" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD176" t="s">
         <v>125</v>
       </c>
-      <c r="AD176" s="14" t="s">
+      <c r="AE176" t="s">
         <v>147</v>
       </c>
-      <c r="AE176" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="177" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C177" s="14" t="s">
+      <c r="AF176" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" t="s">
         <v>622</v>
       </c>
-      <c r="D177" s="14">
+      <c r="D177">
         <v>307</v>
       </c>
-      <c r="E177" s="14">
+      <c r="E177">
         <v>307</v>
       </c>
-      <c r="F177" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G177" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K177" s="14" t="s">
+      <c r="F177" t="s">
+        <v>65</v>
+      </c>
+      <c r="G177" t="s">
+        <v>65</v>
+      </c>
+      <c r="J177" t="s">
+        <v>646</v>
+      </c>
+      <c r="K177" t="s">
         <v>311</v>
       </c>
-      <c r="L177" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M177" s="14" t="s">
+      <c r="L177" t="s">
+        <v>65</v>
+      </c>
+      <c r="M177" t="s">
         <v>170</v>
       </c>
-      <c r="N177" s="15" t="s">
+      <c r="N177" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="O177" s="15" t="s">
+      <c r="O177" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="V177" s="14" t="s">
+      <c r="V177" t="s">
         <v>554</v>
       </c>
-      <c r="W177" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB177" s="16"/>
-      <c r="AC177" s="14" t="s">
+      <c r="W177" t="s">
+        <v>159</v>
+      </c>
+      <c r="X177" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD177" t="s">
         <v>126</v>
       </c>
-      <c r="AD177" s="14" t="s">
+      <c r="AE177" t="s">
         <v>148</v>
       </c>
-      <c r="AE177" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="178" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C178" s="14" t="s">
+      <c r="AF177" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>143</v>
+      </c>
+      <c r="C178" t="s">
         <v>622</v>
       </c>
-      <c r="D178" s="14">
+      <c r="D178">
         <v>308</v>
       </c>
-      <c r="E178" s="14">
+      <c r="E178">
         <v>311</v>
       </c>
-      <c r="F178" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K178" s="14">
+      <c r="F178" t="s">
+        <v>65</v>
+      </c>
+      <c r="J178" t="s">
+        <v>646</v>
+      </c>
+      <c r="K178">
         <v>999</v>
       </c>
-      <c r="L178" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M178" s="14">
+      <c r="L178" t="s">
+        <v>65</v>
+      </c>
+      <c r="M178">
         <v>999</v>
       </c>
-      <c r="N178" s="15" t="s">
+      <c r="N178" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O178" s="15" t="s">
+      <c r="O178" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V178" s="14" t="s">
+      <c r="V178" t="s">
         <v>555</v>
       </c>
-      <c r="W178" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB178" s="16"/>
-      <c r="AC178" s="14" t="s">
+      <c r="W178" t="s">
+        <v>159</v>
+      </c>
+      <c r="X178" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD178" t="s">
         <v>127</v>
       </c>
-      <c r="AD178" s="14" t="s">
+      <c r="AE178" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="179" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C179" s="14" t="s">
+    <row r="179" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>143</v>
+      </c>
+      <c r="C179" t="s">
         <v>622</v>
       </c>
-      <c r="D179" s="14">
+      <c r="D179">
         <v>308</v>
       </c>
-      <c r="E179" s="14">
+      <c r="E179">
         <v>311</v>
       </c>
-      <c r="F179" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K179" s="14">
+      <c r="F179" t="s">
+        <v>65</v>
+      </c>
+      <c r="J179" t="s">
+        <v>646</v>
+      </c>
+      <c r="K179">
         <v>999</v>
       </c>
-      <c r="L179" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M179" s="14">
+      <c r="L179" t="s">
+        <v>65</v>
+      </c>
+      <c r="M179">
         <v>999</v>
       </c>
-      <c r="N179" s="15" t="s">
+      <c r="N179" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O179" s="15" t="s">
+      <c r="O179" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V179" s="14" t="s">
+      <c r="V179" t="s">
         <v>505</v>
       </c>
-      <c r="W179" s="14" t="s">
+      <c r="W179" t="s">
         <v>229</v>
       </c>
-      <c r="AB179" s="16"/>
-    </row>
-    <row r="180" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C180" s="14" t="s">
+      <c r="X179" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="180" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>143</v>
+      </c>
+      <c r="C180" t="s">
         <v>622</v>
       </c>
-      <c r="D180" s="14">
+      <c r="D180">
         <v>308</v>
       </c>
-      <c r="E180" s="14">
+      <c r="E180">
         <v>311</v>
       </c>
-      <c r="F180" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K180" s="14">
+      <c r="F180" t="s">
+        <v>65</v>
+      </c>
+      <c r="J180" t="s">
+        <v>646</v>
+      </c>
+      <c r="K180">
         <v>999</v>
       </c>
-      <c r="L180" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M180" s="14">
+      <c r="L180" t="s">
+        <v>65</v>
+      </c>
+      <c r="M180">
         <v>999</v>
       </c>
-      <c r="N180" s="15" t="s">
+      <c r="N180" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O180" s="15" t="s">
+      <c r="O180" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V180" s="14" t="s">
+      <c r="V180" t="s">
         <v>277</v>
       </c>
-      <c r="W180" s="14" t="s">
+      <c r="W180" t="s">
         <v>229</v>
       </c>
-      <c r="AB180" s="16"/>
-    </row>
-    <row r="181" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C181" s="14" t="s">
+      <c r="X180" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="181" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>143</v>
+      </c>
+      <c r="C181" t="s">
         <v>622</v>
       </c>
-      <c r="D181" s="14">
+      <c r="D181">
         <v>308</v>
       </c>
-      <c r="E181" s="14">
+      <c r="E181">
         <v>311</v>
       </c>
-      <c r="F181" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K181" s="14">
+      <c r="F181" t="s">
+        <v>65</v>
+      </c>
+      <c r="J181" t="s">
+        <v>646</v>
+      </c>
+      <c r="K181">
         <v>999</v>
       </c>
-      <c r="L181" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M181" s="14">
+      <c r="L181" t="s">
+        <v>65</v>
+      </c>
+      <c r="M181">
         <v>999</v>
       </c>
-      <c r="N181" s="15" t="s">
+      <c r="N181" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O181" s="15" t="s">
+      <c r="O181" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V181" s="14" t="s">
+      <c r="V181" t="s">
         <v>278</v>
       </c>
-      <c r="W181" s="14" t="s">
+      <c r="W181" t="s">
         <v>229</v>
       </c>
-      <c r="AB181" s="16"/>
-    </row>
-    <row r="182" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C182" s="14" t="s">
+      <c r="X181" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="182" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>143</v>
+      </c>
+      <c r="C182" t="s">
         <v>622</v>
       </c>
-      <c r="D182" s="14">
+      <c r="D182">
         <v>312</v>
       </c>
-      <c r="E182" s="14">
+      <c r="E182">
         <v>313</v>
       </c>
-      <c r="F182" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G182" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K182" s="14" t="s">
+      <c r="F182" t="s">
+        <v>65</v>
+      </c>
+      <c r="G182" t="s">
+        <v>65</v>
+      </c>
+      <c r="J182" t="s">
+        <v>646</v>
+      </c>
+      <c r="K182" t="s">
         <v>58</v>
       </c>
-      <c r="L182" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M182" s="17" t="s">
+      <c r="L182" t="s">
+        <v>65</v>
+      </c>
+      <c r="M182" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="N182" s="15" t="s">
+      <c r="N182" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="O182" s="15" t="s">
+      <c r="O182" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="V182" s="14" t="s">
+      <c r="V182" t="s">
         <v>556</v>
       </c>
-      <c r="W182" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB182" s="16"/>
-      <c r="AC182" s="14" t="s">
+      <c r="W182" t="s">
+        <v>159</v>
+      </c>
+      <c r="X182" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD182" t="s">
         <v>128</v>
       </c>
-      <c r="AD182" s="14" t="s">
+      <c r="AE182" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="183" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C183" s="14" t="s">
+    <row r="183" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>143</v>
+      </c>
+      <c r="C183" t="s">
         <v>622</v>
       </c>
-      <c r="D183" s="14">
+      <c r="D183">
         <v>314</v>
       </c>
-      <c r="E183" s="14">
+      <c r="E183">
         <v>316</v>
       </c>
-      <c r="F183" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G183" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K183" s="14">
+      <c r="F183" t="s">
+        <v>65</v>
+      </c>
+      <c r="G183" t="s">
+        <v>65</v>
+      </c>
+      <c r="J183" t="s">
+        <v>646</v>
+      </c>
+      <c r="K183">
         <v>999</v>
       </c>
-      <c r="L183" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M183" s="14">
+      <c r="L183" t="s">
+        <v>65</v>
+      </c>
+      <c r="M183">
         <v>999</v>
       </c>
-      <c r="N183" s="15" t="s">
+      <c r="N183" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O183" s="15" t="s">
+      <c r="O183" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V183" s="14" t="s">
+      <c r="V183" t="s">
         <v>559</v>
       </c>
-      <c r="W183" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB183" s="16"/>
-      <c r="AC183" s="14" t="s">
+      <c r="W183" t="s">
+        <v>159</v>
+      </c>
+      <c r="X183" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD183" t="s">
         <v>129</v>
       </c>
-      <c r="AD183" s="14">
+      <c r="AE183">
         <v>1521</v>
       </c>
     </row>
-    <row r="184" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C184" s="14" t="s">
+    <row r="184" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>143</v>
+      </c>
+      <c r="C184" t="s">
         <v>622</v>
       </c>
-      <c r="D184" s="14">
+      <c r="D184">
         <v>317</v>
       </c>
-      <c r="E184" s="14">
+      <c r="E184">
         <v>318</v>
       </c>
-      <c r="F184" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G184" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K184" s="14">
+      <c r="F184" t="s">
+        <v>65</v>
+      </c>
+      <c r="G184" t="s">
+        <v>65</v>
+      </c>
+      <c r="J184" t="s">
+        <v>646</v>
+      </c>
+      <c r="K184">
         <v>999</v>
       </c>
-      <c r="L184" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M184" s="14">
+      <c r="L184" t="s">
+        <v>65</v>
+      </c>
+      <c r="M184">
         <v>999</v>
       </c>
-      <c r="N184" s="15" t="s">
+      <c r="N184" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O184" s="15" t="s">
+      <c r="O184" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V184" s="14" t="s">
+      <c r="V184" t="s">
         <v>560</v>
       </c>
-      <c r="W184" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB184" s="16"/>
-      <c r="AC184" s="14" t="s">
+      <c r="W184" t="s">
+        <v>159</v>
+      </c>
+      <c r="X184" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD184" t="s">
         <v>129</v>
       </c>
-      <c r="AD184" s="14">
+      <c r="AE184">
         <v>1530</v>
       </c>
     </row>
-    <row r="185" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C185" s="14" t="s">
+    <row r="185" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>143</v>
+      </c>
+      <c r="C185" t="s">
         <v>622</v>
       </c>
-      <c r="D185" s="14">
+      <c r="D185">
         <v>319</v>
       </c>
-      <c r="E185" s="14">
+      <c r="E185">
         <v>320</v>
       </c>
-      <c r="F185" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K185" s="14" t="s">
+      <c r="F185" t="s">
+        <v>65</v>
+      </c>
+      <c r="J185" t="s">
+        <v>646</v>
+      </c>
+      <c r="K185" t="s">
         <v>609</v>
       </c>
-      <c r="L185" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M185" s="14" t="s">
+      <c r="L185" t="s">
+        <v>65</v>
+      </c>
+      <c r="M185" t="s">
         <v>171</v>
       </c>
-      <c r="N185" s="15" t="s">
+      <c r="N185" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="O185" s="15" t="s">
+      <c r="O185" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="V185" s="14" t="s">
+      <c r="V185" t="s">
         <v>561</v>
       </c>
-      <c r="W185" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB185" s="16"/>
-      <c r="AC185" s="14" t="s">
+      <c r="W185" t="s">
+        <v>159</v>
+      </c>
+      <c r="X185" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD185" t="s">
         <v>130</v>
       </c>
-      <c r="AD185" s="14" t="s">
+      <c r="AE185" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="186" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C186" s="14" t="s">
+    <row r="186" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>143</v>
+      </c>
+      <c r="C186" t="s">
         <v>622</v>
       </c>
-      <c r="D186" s="14">
+      <c r="D186">
         <v>321</v>
       </c>
-      <c r="E186" s="14">
+      <c r="E186">
         <v>322</v>
       </c>
-      <c r="F186" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K186" s="14">
+      <c r="F186" t="s">
+        <v>65</v>
+      </c>
+      <c r="J186" t="s">
+        <v>646</v>
+      </c>
+      <c r="K186">
         <v>999</v>
       </c>
-      <c r="L186" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M186" s="14">
+      <c r="L186" t="s">
+        <v>65</v>
+      </c>
+      <c r="M186">
         <v>999</v>
       </c>
-      <c r="N186" s="15" t="s">
+      <c r="N186" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O186" s="15" t="s">
+      <c r="O186" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V186" s="14" t="s">
+      <c r="V186" t="s">
         <v>564</v>
       </c>
-      <c r="W186" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB186" s="16"/>
-      <c r="AC186" s="14" t="s">
+      <c r="W186" t="s">
+        <v>159</v>
+      </c>
+      <c r="X186" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD186" t="s">
         <v>129</v>
       </c>
-      <c r="AD186" s="14" t="s">
+      <c r="AE186" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="187" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C187" s="14" t="s">
+    <row r="187" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>143</v>
+      </c>
+      <c r="C187" t="s">
         <v>622</v>
       </c>
-      <c r="D187" s="14">
+      <c r="D187">
         <v>323</v>
       </c>
-      <c r="E187" s="14">
+      <c r="E187">
         <v>324</v>
       </c>
-      <c r="F187" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K187" s="14">
+      <c r="F187" t="s">
+        <v>65</v>
+      </c>
+      <c r="J187" t="s">
+        <v>646</v>
+      </c>
+      <c r="K187">
         <v>999</v>
       </c>
-      <c r="L187" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M187" s="14">
+      <c r="L187" t="s">
+        <v>65</v>
+      </c>
+      <c r="M187">
         <v>999</v>
       </c>
-      <c r="N187" s="15" t="s">
+      <c r="N187" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O187" s="15" t="s">
+      <c r="O187" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V187" s="14" t="s">
+      <c r="V187" t="s">
         <v>565</v>
       </c>
-      <c r="W187" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB187" s="16"/>
-      <c r="AC187" s="14" t="s">
+      <c r="W187" t="s">
+        <v>159</v>
+      </c>
+      <c r="X187" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD187" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="188" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C188" s="14" t="s">
+    <row r="188" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>143</v>
+      </c>
+      <c r="C188" t="s">
         <v>623</v>
       </c>
-      <c r="D188" s="14">
+      <c r="D188">
         <v>327</v>
       </c>
-      <c r="E188" s="14">
+      <c r="E188">
         <v>328</v>
       </c>
-      <c r="K188" s="14" t="s">
+      <c r="J188" t="s">
+        <v>646</v>
+      </c>
+      <c r="K188" t="s">
         <v>637</v>
       </c>
-      <c r="L188" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M188" s="14" t="s">
+      <c r="L188" t="s">
+        <v>65</v>
+      </c>
+      <c r="M188" t="s">
         <v>170</v>
       </c>
-      <c r="N188" s="15" t="s">
+      <c r="N188" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O188" s="15" t="s">
+      <c r="O188" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V188" s="14" t="s">
+      <c r="V188" t="s">
         <v>629</v>
       </c>
-      <c r="W188" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB188" s="16"/>
-    </row>
-    <row r="189" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C189" s="14" t="s">
+      <c r="W188" t="s">
+        <v>159</v>
+      </c>
+      <c r="X188" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="189" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189" t="s">
         <v>623</v>
       </c>
-      <c r="D189" s="14">
+      <c r="D189">
         <v>327</v>
       </c>
-      <c r="E189" s="14">
+      <c r="E189">
         <v>328</v>
       </c>
-      <c r="K189" s="14" t="s">
+      <c r="J189" t="s">
+        <v>646</v>
+      </c>
+      <c r="K189" t="s">
         <v>637</v>
       </c>
-      <c r="L189" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M189" s="14" t="s">
+      <c r="L189" t="s">
+        <v>65</v>
+      </c>
+      <c r="M189" t="s">
         <v>170</v>
       </c>
-      <c r="N189" s="15" t="s">
+      <c r="N189" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O189" s="15" t="s">
+      <c r="O189" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V189" s="14" t="s">
+      <c r="V189" t="s">
         <v>630</v>
       </c>
-      <c r="W189" s="14" t="s">
+      <c r="W189" t="s">
         <v>229</v>
       </c>
-      <c r="AB189" s="16"/>
-    </row>
-    <row r="190" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C190" s="14" t="s">
+      <c r="X189" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="190" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>143</v>
+      </c>
+      <c r="C190" t="s">
         <v>623</v>
       </c>
-      <c r="D190" s="14">
+      <c r="D190">
         <v>329</v>
       </c>
-      <c r="E190" s="14">
+      <c r="E190">
         <v>339</v>
       </c>
-      <c r="K190" s="14">
+      <c r="J190" t="s">
+        <v>646</v>
+      </c>
+      <c r="K190">
         <v>999</v>
       </c>
-      <c r="L190" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M190" s="14">
+      <c r="L190" t="s">
+        <v>65</v>
+      </c>
+      <c r="M190">
         <v>999</v>
       </c>
-      <c r="N190" s="15" t="s">
+      <c r="N190" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O190" s="15" t="s">
+      <c r="O190" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V190" s="14" t="s">
+      <c r="V190" t="s">
         <v>631</v>
       </c>
-      <c r="W190" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB190" s="16"/>
-    </row>
-    <row r="191" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C191" s="14" t="s">
+      <c r="W190" t="s">
+        <v>159</v>
+      </c>
+      <c r="X190" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="191" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>143</v>
+      </c>
+      <c r="C191" t="s">
         <v>623</v>
       </c>
-      <c r="D191" s="14">
+      <c r="D191">
         <v>329</v>
       </c>
-      <c r="E191" s="14">
+      <c r="E191">
         <v>332</v>
       </c>
-      <c r="F191" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G191" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K191" s="14" t="s">
+      <c r="F191" t="s">
+        <v>65</v>
+      </c>
+      <c r="G191" t="s">
+        <v>65</v>
+      </c>
+      <c r="J191" t="s">
+        <v>646</v>
+      </c>
+      <c r="K191" t="s">
         <v>567</v>
       </c>
-      <c r="L191" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M191" s="17" t="s">
+      <c r="L191" t="s">
+        <v>65</v>
+      </c>
+      <c r="M191" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N191" s="15" t="s">
+      <c r="N191" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="O191" s="15" t="s">
+      <c r="O191" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="V191" s="14" t="s">
+      <c r="V191" t="s">
         <v>566</v>
       </c>
-      <c r="W191" s="14" t="s">
+      <c r="W191" t="s">
         <v>229</v>
       </c>
-      <c r="AB191" s="16"/>
-      <c r="AC191" s="14" t="s">
+      <c r="X191" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD191" t="s">
         <v>131</v>
       </c>
-      <c r="AD191" s="14" t="s">
+      <c r="AE191" t="s">
         <v>150</v>
       </c>
-      <c r="AE191" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="192" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C192" s="14" t="s">
+      <c r="AF191" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="192" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>143</v>
+      </c>
+      <c r="C192" t="s">
         <v>623</v>
       </c>
-      <c r="D192" s="14">
+      <c r="D192">
         <v>333</v>
       </c>
-      <c r="E192" s="14">
+      <c r="E192">
         <v>334</v>
       </c>
-      <c r="F192" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G192" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K192" s="14">
+      <c r="F192" t="s">
+        <v>65</v>
+      </c>
+      <c r="G192" t="s">
+        <v>65</v>
+      </c>
+      <c r="J192" t="s">
+        <v>646</v>
+      </c>
+      <c r="K192">
         <v>999</v>
       </c>
-      <c r="L192" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M192" s="14">
+      <c r="L192" t="s">
+        <v>65</v>
+      </c>
+      <c r="M192">
         <v>999</v>
       </c>
-      <c r="N192" s="15" t="s">
+      <c r="N192" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O192" s="15" t="s">
+      <c r="O192" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V192" s="14" t="s">
+      <c r="V192" t="s">
         <v>570</v>
       </c>
-      <c r="W192" s="14" t="s">
+      <c r="W192" t="s">
         <v>229</v>
       </c>
-      <c r="Z192" s="14" t="s">
+      <c r="X192" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA192" t="s">
         <v>628</v>
       </c>
-      <c r="AB192" s="16"/>
-      <c r="AC192" s="14" t="s">
+      <c r="AD192" t="s">
         <v>132</v>
       </c>
-      <c r="AE192" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="193" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C193" s="14" t="s">
+      <c r="AF192" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="193" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>143</v>
+      </c>
+      <c r="C193" t="s">
         <v>623</v>
       </c>
-      <c r="D193" s="14">
+      <c r="D193">
         <v>335</v>
       </c>
-      <c r="E193" s="14">
+      <c r="E193">
         <v>335</v>
       </c>
-      <c r="F193" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G193" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K193" s="14" t="s">
+      <c r="F193" t="s">
+        <v>65</v>
+      </c>
+      <c r="G193" t="s">
+        <v>65</v>
+      </c>
+      <c r="J193" t="s">
+        <v>646</v>
+      </c>
+      <c r="K193" t="s">
         <v>572</v>
       </c>
-      <c r="L193" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M193" s="17" t="s">
+      <c r="L193" t="s">
+        <v>65</v>
+      </c>
+      <c r="M193" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="N193" s="15" t="s">
+      <c r="N193" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="O193" s="15" t="s">
+      <c r="O193" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="P193" s="15"/>
-      <c r="Q193" s="15"/>
-      <c r="V193" s="14" t="s">
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+      <c r="V193" t="s">
         <v>571</v>
       </c>
-      <c r="W193" s="14" t="s">
+      <c r="W193" t="s">
         <v>229</v>
       </c>
-      <c r="Z193" s="14" t="s">
+      <c r="X193" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA193" t="s">
         <v>576</v>
       </c>
-      <c r="AB193" s="16"/>
-      <c r="AC193" s="14" t="s">
+      <c r="AD193" t="s">
         <v>133</v>
       </c>
-      <c r="AE193" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="194" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C194" s="14" t="s">
+      <c r="AF193" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="194" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>143</v>
+      </c>
+      <c r="C194" t="s">
         <v>623</v>
       </c>
-      <c r="D194" s="14">
+      <c r="D194">
         <v>336</v>
       </c>
-      <c r="E194" s="14">
+      <c r="E194">
         <v>337</v>
       </c>
-      <c r="F194" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G194" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K194" s="14" t="s">
+      <c r="F194" t="s">
+        <v>65</v>
+      </c>
+      <c r="G194" t="s">
+        <v>65</v>
+      </c>
+      <c r="J194" t="s">
+        <v>646</v>
+      </c>
+      <c r="K194" t="s">
         <v>59</v>
       </c>
-      <c r="L194" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M194" s="17" t="s">
+      <c r="L194" t="s">
+        <v>65</v>
+      </c>
+      <c r="M194" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N194" s="15" t="s">
+      <c r="N194" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="O194" s="15" t="s">
+      <c r="O194" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="P194" s="15"/>
-      <c r="V194" s="14" t="s">
+      <c r="P194" s="6"/>
+      <c r="V194" t="s">
         <v>575</v>
       </c>
-      <c r="W194" s="14" t="s">
+      <c r="W194" t="s">
         <v>229</v>
       </c>
-      <c r="Z194" s="14" t="s">
+      <c r="X194" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA194" t="s">
         <v>579</v>
       </c>
-      <c r="AB194" s="16"/>
-      <c r="AC194" s="14" t="s">
+      <c r="AD194" t="s">
         <v>133</v>
       </c>
-      <c r="AE194" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="195" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C195" s="14" t="s">
+      <c r="AF194" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="195" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>143</v>
+      </c>
+      <c r="C195" t="s">
         <v>623</v>
       </c>
-      <c r="D195" s="14">
+      <c r="D195">
         <v>338</v>
       </c>
-      <c r="E195" s="14">
+      <c r="E195">
         <v>339</v>
       </c>
-      <c r="F195" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G195" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K195" s="14" t="s">
+      <c r="F195" t="s">
+        <v>65</v>
+      </c>
+      <c r="G195" t="s">
+        <v>65</v>
+      </c>
+      <c r="J195" t="s">
+        <v>646</v>
+      </c>
+      <c r="K195" t="s">
         <v>581</v>
       </c>
-      <c r="L195" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M195" s="14" t="s">
+      <c r="L195" t="s">
+        <v>65</v>
+      </c>
+      <c r="M195" t="s">
         <v>170</v>
       </c>
-      <c r="N195" s="15" t="s">
+      <c r="N195" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="O195" s="15" t="s">
+      <c r="O195" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="V195" s="14" t="s">
+      <c r="V195" t="s">
         <v>580</v>
       </c>
-      <c r="W195" s="14" t="s">
+      <c r="W195" t="s">
         <v>229</v>
       </c>
-      <c r="AB195" s="16"/>
-      <c r="AC195" s="14" t="s">
+      <c r="X195" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD195" t="s">
         <v>134</v>
       </c>
-      <c r="AE195" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="196" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C196" s="14" t="s">
+      <c r="AF195" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="196" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>143</v>
+      </c>
+      <c r="C196" t="s">
         <v>623</v>
       </c>
-      <c r="D196" s="14">
+      <c r="D196">
         <v>340</v>
       </c>
-      <c r="E196" s="14">
+      <c r="E196">
         <v>347</v>
       </c>
-      <c r="K196" s="14" t="s">
+      <c r="J196" t="s">
+        <v>646</v>
+      </c>
+      <c r="K196" t="s">
         <v>638</v>
       </c>
-      <c r="L196" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M196" s="17" t="s">
+      <c r="L196" t="s">
+        <v>65</v>
+      </c>
+      <c r="M196" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N196" s="15" t="s">
+      <c r="N196" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="O196" s="15" t="s">
+      <c r="O196" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="V196" s="14" t="s">
+      <c r="V196" t="s">
         <v>632</v>
       </c>
-      <c r="W196" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB196" s="16"/>
-    </row>
-    <row r="197" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C197" s="14" t="s">
+      <c r="W196" t="s">
+        <v>159</v>
+      </c>
+      <c r="X196" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="197" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>143</v>
+      </c>
+      <c r="C197" t="s">
         <v>623</v>
       </c>
-      <c r="D197" s="14">
+      <c r="D197">
         <v>340</v>
       </c>
-      <c r="E197" s="14">
+      <c r="E197">
         <v>341</v>
       </c>
-      <c r="F197" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G197" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K197" s="14">
+      <c r="F197" t="s">
+        <v>65</v>
+      </c>
+      <c r="G197" t="s">
+        <v>65</v>
+      </c>
+      <c r="J197" t="s">
+        <v>646</v>
+      </c>
+      <c r="K197">
         <v>999</v>
       </c>
-      <c r="L197" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M197" s="14">
+      <c r="L197" t="s">
+        <v>65</v>
+      </c>
+      <c r="M197">
         <v>999</v>
       </c>
-      <c r="N197" s="15" t="s">
+      <c r="N197" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="O197" s="15" t="s">
+      <c r="O197" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="V197" s="14" t="s">
+      <c r="V197" t="s">
         <v>584</v>
       </c>
-      <c r="W197" s="14" t="s">
+      <c r="W197" t="s">
         <v>229</v>
       </c>
-      <c r="AB197" s="16"/>
-      <c r="AC197" s="14" t="s">
+      <c r="X197" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD197" t="s">
         <v>135</v>
       </c>
-      <c r="AD197" s="14" t="s">
+      <c r="AE197" t="s">
         <v>151</v>
       </c>
-      <c r="AE197" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="198" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C198" s="14" t="s">
+      <c r="AF197" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="198" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>143</v>
+      </c>
+      <c r="C198" t="s">
         <v>623</v>
       </c>
-      <c r="D198" s="14">
+      <c r="D198">
         <v>342</v>
       </c>
-      <c r="E198" s="14">
+      <c r="E198">
         <v>343</v>
       </c>
-      <c r="F198" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K198" s="14" t="s">
+      <c r="F198" t="s">
+        <v>65</v>
+      </c>
+      <c r="J198" t="s">
+        <v>646</v>
+      </c>
+      <c r="K198" t="s">
         <v>60</v>
       </c>
-      <c r="L198" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M198" s="17" t="s">
+      <c r="L198" t="s">
+        <v>65</v>
+      </c>
+      <c r="M198" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N198" s="15" t="s">
+      <c r="N198" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="O198" s="15" t="s">
+      <c r="O198" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="V198" s="14" t="s">
+      <c r="V198" t="s">
         <v>585</v>
       </c>
-      <c r="W198" s="14" t="s">
+      <c r="W198" t="s">
         <v>229</v>
       </c>
-      <c r="AB198" s="16"/>
-      <c r="AC198" s="14" t="s">
+      <c r="X198" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD198" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="199" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C199" s="14" t="s">
+    <row r="199" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>143</v>
+      </c>
+      <c r="C199" t="s">
         <v>623</v>
       </c>
-      <c r="D199" s="14">
+      <c r="D199">
         <v>344</v>
       </c>
-      <c r="E199" s="14">
+      <c r="E199">
         <v>345</v>
       </c>
-      <c r="F199" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G199" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K199" s="14" t="s">
+      <c r="F199" t="s">
+        <v>65</v>
+      </c>
+      <c r="G199" t="s">
+        <v>65</v>
+      </c>
+      <c r="J199" t="s">
+        <v>646</v>
+      </c>
+      <c r="K199" t="s">
         <v>589</v>
       </c>
-      <c r="L199" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M199" s="14" t="s">
+      <c r="L199" t="s">
+        <v>65</v>
+      </c>
+      <c r="M199" t="s">
         <v>170</v>
       </c>
-      <c r="N199" s="15" t="s">
+      <c r="N199" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="O199" s="15" t="s">
+      <c r="O199" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="V199" s="14" t="s">
+      <c r="V199" t="s">
         <v>588</v>
       </c>
-      <c r="W199" s="14" t="s">
+      <c r="W199" t="s">
         <v>229</v>
       </c>
-      <c r="AB199" s="16"/>
-      <c r="AC199" s="14" t="s">
+      <c r="X199" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD199" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C200" s="14" t="s">
+    <row r="200" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>143</v>
+      </c>
+      <c r="C200" t="s">
         <v>623</v>
       </c>
-      <c r="D200" s="14">
+      <c r="D200">
         <v>346</v>
       </c>
-      <c r="E200" s="14">
+      <c r="E200">
         <v>347</v>
       </c>
-      <c r="F200" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G200" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K200" s="14" t="s">
+      <c r="F200" t="s">
+        <v>65</v>
+      </c>
+      <c r="G200" t="s">
+        <v>65</v>
+      </c>
+      <c r="J200" t="s">
+        <v>646</v>
+      </c>
+      <c r="K200" t="s">
         <v>589</v>
       </c>
-      <c r="L200" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M200" s="14" t="s">
+      <c r="L200" t="s">
+        <v>65</v>
+      </c>
+      <c r="M200" t="s">
         <v>170</v>
       </c>
-      <c r="N200" s="15" t="s">
+      <c r="N200" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="O200" s="15" t="s">
+      <c r="O200" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="V200" s="18" t="s">
+      <c r="V200" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="W200" s="14" t="s">
+      <c r="W200" t="s">
         <v>229</v>
       </c>
-      <c r="AB200" s="16"/>
-      <c r="AC200" s="14" t="s">
+      <c r="X200" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD200" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="201" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C201" s="14" t="s">
+    <row r="201" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>143</v>
+      </c>
+      <c r="C201" t="s">
         <v>623</v>
       </c>
-      <c r="D201" s="14">
+      <c r="D201">
         <v>348</v>
       </c>
-      <c r="E201" s="14">
+      <c r="E201">
         <v>348</v>
       </c>
-      <c r="K201" s="14" t="s">
+      <c r="J201" t="s">
+        <v>646</v>
+      </c>
+      <c r="K201" t="s">
         <v>641</v>
       </c>
-      <c r="L201" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M201" s="14" t="s">
+      <c r="L201" t="s">
+        <v>65</v>
+      </c>
+      <c r="M201" t="s">
         <v>170</v>
       </c>
-      <c r="N201" s="15" t="s">
+      <c r="N201" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="O201" s="15" t="s">
+      <c r="O201" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="V201" s="18" t="s">
+      <c r="V201" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="W201" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB201" s="16"/>
-    </row>
-    <row r="202" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C202" s="14" t="s">
+      <c r="W201" t="s">
+        <v>159</v>
+      </c>
+      <c r="X201" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="202" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>143</v>
+      </c>
+      <c r="C202" t="s">
         <v>623</v>
       </c>
-      <c r="D202" s="14">
+      <c r="D202">
         <v>348</v>
       </c>
-      <c r="E202" s="14">
+      <c r="E202">
         <v>348</v>
       </c>
-      <c r="F202" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K202" s="14" t="s">
+      <c r="F202" t="s">
+        <v>65</v>
+      </c>
+      <c r="J202" t="s">
+        <v>646</v>
+      </c>
+      <c r="K202" t="s">
         <v>61</v>
       </c>
-      <c r="L202" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M202" s="17" t="s">
+      <c r="L202" t="s">
+        <v>65</v>
+      </c>
+      <c r="M202" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="N202" s="15" t="s">
+      <c r="N202" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="O202" s="15" t="s">
+      <c r="O202" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="V202" s="14" t="s">
+      <c r="V202" t="s">
         <v>593</v>
       </c>
-      <c r="W202" s="14" t="s">
+      <c r="W202" t="s">
         <v>229</v>
       </c>
-      <c r="AB202" s="16"/>
-      <c r="AC202" s="14" t="s">
+      <c r="X202" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD202" t="s">
         <v>137</v>
       </c>
-      <c r="AE202" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="203" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C203" s="14" t="s">
+      <c r="AF202" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="203" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>143</v>
+      </c>
+      <c r="C203" t="s">
         <v>623</v>
       </c>
-      <c r="D203" s="14">
+      <c r="D203">
         <v>348</v>
       </c>
-      <c r="E203" s="14">
+      <c r="E203">
         <v>348</v>
       </c>
-      <c r="K203" s="14" t="s">
+      <c r="J203" t="s">
+        <v>646</v>
+      </c>
+      <c r="K203" t="s">
         <v>635</v>
       </c>
-      <c r="L203" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M203" s="17" t="s">
+      <c r="L203" t="s">
+        <v>65</v>
+      </c>
+      <c r="M203" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N203" s="15" t="s">
+      <c r="N203" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="O203" s="15" t="s">
+      <c r="O203" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="V203" s="14" t="s">
+      <c r="V203" t="s">
         <v>634</v>
       </c>
-      <c r="W203" s="14" t="s">
+      <c r="W203" t="s">
         <v>229</v>
       </c>
-      <c r="AB203" s="16"/>
-    </row>
-    <row r="204" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C204" s="14" t="s">
+      <c r="X203" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="204" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>143</v>
+      </c>
+      <c r="C204" t="s">
         <v>623</v>
       </c>
-      <c r="D204" s="14">
+      <c r="D204">
         <v>349</v>
       </c>
-      <c r="E204" s="14">
+      <c r="E204">
         <v>357</v>
       </c>
-      <c r="K204" s="14" t="s">
+      <c r="J204" t="s">
+        <v>646</v>
+      </c>
+      <c r="K204" t="s">
         <v>597</v>
       </c>
-      <c r="L204" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M204" s="14" t="s">
+      <c r="L204" t="s">
+        <v>65</v>
+      </c>
+      <c r="M204" t="s">
         <v>170</v>
       </c>
-      <c r="N204" s="15" t="s">
+      <c r="N204" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="O204" s="15" t="s">
+      <c r="O204" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="V204" s="14" t="s">
+      <c r="V204" t="s">
         <v>636</v>
       </c>
-      <c r="W204" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB204" s="16"/>
-    </row>
-    <row r="205" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C205" s="14" t="s">
+      <c r="W204" t="s">
+        <v>159</v>
+      </c>
+      <c r="X204" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>143</v>
+      </c>
+      <c r="C205" t="s">
         <v>623</v>
       </c>
-      <c r="D205" s="14">
+      <c r="D205">
         <v>349</v>
       </c>
-      <c r="E205" s="14">
+      <c r="E205">
         <v>353</v>
       </c>
-      <c r="F205" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G205" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K205" s="14" t="s">
+      <c r="F205" t="s">
+        <v>65</v>
+      </c>
+      <c r="G205" t="s">
+        <v>65</v>
+      </c>
+      <c r="J205" t="s">
+        <v>646</v>
+      </c>
+      <c r="K205" t="s">
         <v>597</v>
       </c>
-      <c r="L205" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M205" s="14" t="s">
+      <c r="L205" t="s">
+        <v>65</v>
+      </c>
+      <c r="M205" t="s">
         <v>170</v>
       </c>
-      <c r="N205" s="15" t="s">
+      <c r="N205" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="O205" s="15" t="s">
+      <c r="O205" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="V205" s="14" t="s">
+      <c r="V205" t="s">
         <v>596</v>
       </c>
-      <c r="W205" s="14" t="s">
+      <c r="W205" t="s">
         <v>229</v>
       </c>
-      <c r="AB205" s="16"/>
-      <c r="AC205" s="14" t="s">
+      <c r="X205" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD205" t="s">
         <v>138</v>
       </c>
-      <c r="AD205" s="14" t="s">
+      <c r="AE205" t="s">
         <v>145</v>
       </c>
-      <c r="AE205" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="206" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C206" s="14" t="s">
+      <c r="AF205" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="206" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>143</v>
+      </c>
+      <c r="C206" t="s">
         <v>623</v>
       </c>
-      <c r="D206" s="14">
+      <c r="D206">
         <v>354</v>
       </c>
-      <c r="E206" s="14">
+      <c r="E206">
         <v>355</v>
       </c>
-      <c r="F206" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G206" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K206" s="14" t="s">
+      <c r="F206" t="s">
+        <v>65</v>
+      </c>
+      <c r="G206" t="s">
+        <v>65</v>
+      </c>
+      <c r="J206" t="s">
+        <v>646</v>
+      </c>
+      <c r="K206" t="s">
         <v>601</v>
       </c>
-      <c r="L206" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M206" s="14" t="s">
+      <c r="L206" t="s">
+        <v>65</v>
+      </c>
+      <c r="M206" t="s">
         <v>170</v>
       </c>
-      <c r="N206" s="15" t="s">
+      <c r="N206" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="O206" s="15" t="s">
+      <c r="O206" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="V206" s="14" t="s">
+      <c r="V206" t="s">
         <v>600</v>
       </c>
-      <c r="W206" s="14" t="s">
+      <c r="W206" t="s">
         <v>229</v>
       </c>
-      <c r="AB206" s="16"/>
-      <c r="AC206" s="14" t="s">
+      <c r="X206" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD206" t="s">
         <v>139</v>
       </c>
-      <c r="AE206" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="207" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C207" s="14" t="s">
+      <c r="AF206" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="207" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>143</v>
+      </c>
+      <c r="C207" t="s">
         <v>623</v>
       </c>
-      <c r="D207" s="14">
+      <c r="D207">
         <v>356</v>
       </c>
-      <c r="E207" s="14">
+      <c r="E207">
         <v>357</v>
       </c>
-      <c r="F207" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G207" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K207" s="14" t="s">
+      <c r="F207" t="s">
+        <v>65</v>
+      </c>
+      <c r="G207" t="s">
+        <v>65</v>
+      </c>
+      <c r="J207" t="s">
+        <v>646</v>
+      </c>
+      <c r="K207" t="s">
         <v>605</v>
       </c>
-      <c r="L207" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M207" s="14" t="s">
+      <c r="L207" t="s">
+        <v>65</v>
+      </c>
+      <c r="M207" t="s">
         <v>170</v>
       </c>
-      <c r="N207" s="15" t="s">
+      <c r="N207" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="O207" s="15" t="s">
+      <c r="O207" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="V207" s="14" t="s">
+      <c r="V207" t="s">
         <v>604</v>
       </c>
-      <c r="W207" s="14" t="s">
+      <c r="W207" t="s">
         <v>229</v>
       </c>
-      <c r="AB207" s="16"/>
-      <c r="AC207" s="14" t="s">
+      <c r="X207" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD207" t="s">
         <v>140</v>
       </c>
-      <c r="AE207" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="208" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N208" s="15"/>
-      <c r="O208" s="15"/>
-      <c r="AB208" s="16"/>
+      <c r="AF207" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Datasets/Welcker/Data/Welcker_JR.xlsx
+++ b/Datasets/Welcker/Data/Welcker_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Welcker/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD6A675-E826-C342-8BB7-E718C3D98742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD37E03F-AD4B-8644-8B94-B9AAAE9501EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16020" xr2:uid="{DCC7147D-D2F2-BB4F-A58C-A27E053C76E5}"/>
   </bookViews>
@@ -2401,9 +2401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653F447C-0236-A043-9BF1-AA739997132F}">
   <dimension ref="A1:AF207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2:X207"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2:AC207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2534,9 +2534,6 @@
       <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="J2" t="s">
-        <v>646</v>
-      </c>
       <c r="K2" t="s">
         <v>154</v>
       </c>
@@ -2561,6 +2558,10 @@
       <c r="X2" t="s">
         <v>155</v>
       </c>
+      <c r="AB2" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC2"/>
       <c r="AD2" t="s">
         <v>67</v>
       </c>
@@ -2584,9 +2585,6 @@
       <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="J3" t="s">
-        <v>646</v>
-      </c>
       <c r="K3" t="s">
         <v>154</v>
       </c>
@@ -2611,6 +2609,10 @@
       <c r="X3" t="s">
         <v>155</v>
       </c>
+      <c r="AB3" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC3"/>
       <c r="AD3" t="s">
         <v>67</v>
       </c>
@@ -2634,9 +2636,6 @@
       <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
-        <v>646</v>
-      </c>
       <c r="K4" t="s">
         <v>154</v>
       </c>
@@ -2661,6 +2660,10 @@
       <c r="X4" t="s">
         <v>155</v>
       </c>
+      <c r="AB4" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC4"/>
       <c r="AD4" t="s">
         <v>67</v>
       </c>
@@ -2684,9 +2687,6 @@
       <c r="G5" t="s">
         <v>65</v>
       </c>
-      <c r="J5" t="s">
-        <v>646</v>
-      </c>
       <c r="K5" t="s">
         <v>154</v>
       </c>
@@ -2711,6 +2711,10 @@
       <c r="X5" t="s">
         <v>155</v>
       </c>
+      <c r="AB5" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC5"/>
       <c r="AD5" t="s">
         <v>67</v>
       </c>
@@ -2734,9 +2738,6 @@
       <c r="G6" t="s">
         <v>65</v>
       </c>
-      <c r="J6" t="s">
-        <v>646</v>
-      </c>
       <c r="K6" t="s">
         <v>154</v>
       </c>
@@ -2761,6 +2762,10 @@
       <c r="X6" t="s">
         <v>155</v>
       </c>
+      <c r="AB6" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC6"/>
       <c r="AD6" t="s">
         <v>67</v>
       </c>
@@ -2784,9 +2789,6 @@
       <c r="G7" t="s">
         <v>65</v>
       </c>
-      <c r="J7" t="s">
-        <v>646</v>
-      </c>
       <c r="K7" t="s">
         <v>154</v>
       </c>
@@ -2811,6 +2813,10 @@
       <c r="X7" t="s">
         <v>155</v>
       </c>
+      <c r="AB7" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC7"/>
       <c r="AD7" t="s">
         <v>67</v>
       </c>
@@ -2834,9 +2840,6 @@
       <c r="G8" t="s">
         <v>65</v>
       </c>
-      <c r="J8" t="s">
-        <v>646</v>
-      </c>
       <c r="K8" t="s">
         <v>154</v>
       </c>
@@ -2861,6 +2864,10 @@
       <c r="X8" t="s">
         <v>155</v>
       </c>
+      <c r="AB8" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC8"/>
       <c r="AD8" t="s">
         <v>67</v>
       </c>
@@ -2884,9 +2891,6 @@
       <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" t="s">
-        <v>646</v>
-      </c>
       <c r="K9" t="s">
         <v>154</v>
       </c>
@@ -2911,6 +2915,10 @@
       <c r="X9" t="s">
         <v>155</v>
       </c>
+      <c r="AB9" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC9"/>
       <c r="AD9" t="s">
         <v>67</v>
       </c>
@@ -2934,9 +2942,6 @@
       <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="J10" t="s">
-        <v>646</v>
-      </c>
       <c r="K10" t="s">
         <v>154</v>
       </c>
@@ -2961,6 +2966,10 @@
       <c r="X10" t="s">
         <v>155</v>
       </c>
+      <c r="AB10" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC10"/>
       <c r="AD10" t="s">
         <v>67</v>
       </c>
@@ -2984,9 +2993,6 @@
       <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" t="s">
-        <v>646</v>
-      </c>
       <c r="K11" t="s">
         <v>154</v>
       </c>
@@ -3011,6 +3017,10 @@
       <c r="X11" t="s">
         <v>155</v>
       </c>
+      <c r="AB11" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC11"/>
       <c r="AD11" t="s">
         <v>67</v>
       </c>
@@ -3034,9 +3044,6 @@
       <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="J12" t="s">
-        <v>646</v>
-      </c>
       <c r="K12" t="s">
         <v>154</v>
       </c>
@@ -3061,6 +3068,10 @@
       <c r="X12" t="s">
         <v>155</v>
       </c>
+      <c r="AB12" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC12"/>
       <c r="AD12" t="s">
         <v>67</v>
       </c>
@@ -3081,9 +3092,6 @@
       <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="J13" t="s">
-        <v>646</v>
-      </c>
       <c r="K13" t="s">
         <v>28</v>
       </c>
@@ -3108,6 +3116,10 @@
       <c r="X13" t="s">
         <v>155</v>
       </c>
+      <c r="AB13" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC13"/>
       <c r="AD13" t="s">
         <v>68</v>
       </c>
@@ -3128,9 +3140,6 @@
       <c r="F14" t="s">
         <v>65</v>
       </c>
-      <c r="J14" t="s">
-        <v>646</v>
-      </c>
       <c r="K14" t="s">
         <v>169</v>
       </c>
@@ -3155,6 +3164,10 @@
       <c r="X14" t="s">
         <v>155</v>
       </c>
+      <c r="AB14" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC14"/>
       <c r="AD14" t="s">
         <v>69</v>
       </c>
@@ -3175,9 +3188,6 @@
       <c r="F15" t="s">
         <v>65</v>
       </c>
-      <c r="J15" t="s">
-        <v>646</v>
-      </c>
       <c r="K15" t="s">
         <v>169</v>
       </c>
@@ -3202,6 +3212,10 @@
       <c r="X15" t="s">
         <v>155</v>
       </c>
+      <c r="AB15" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC15"/>
       <c r="AD15" t="s">
         <v>69</v>
       </c>
@@ -3222,9 +3236,6 @@
       <c r="F16" t="s">
         <v>65</v>
       </c>
-      <c r="J16" t="s">
-        <v>646</v>
-      </c>
       <c r="K16" t="s">
         <v>178</v>
       </c>
@@ -3261,6 +3272,10 @@
       <c r="X16" t="s">
         <v>155</v>
       </c>
+      <c r="AB16" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC16"/>
       <c r="AD16" t="s">
         <v>70</v>
       </c>
@@ -3281,9 +3296,6 @@
       <c r="F17" t="s">
         <v>65</v>
       </c>
-      <c r="J17" t="s">
-        <v>646</v>
-      </c>
       <c r="K17" t="s">
         <v>185</v>
       </c>
@@ -3308,6 +3320,10 @@
       <c r="X17" t="s">
         <v>155</v>
       </c>
+      <c r="AB17" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC17"/>
       <c r="AD17" t="s">
         <v>71</v>
       </c>
@@ -3331,9 +3347,6 @@
       <c r="G18" t="s">
         <v>65</v>
       </c>
-      <c r="J18" t="s">
-        <v>646</v>
-      </c>
       <c r="K18" t="s">
         <v>29</v>
       </c>
@@ -3358,6 +3371,10 @@
       <c r="X18" t="s">
         <v>155</v>
       </c>
+      <c r="AB18" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC18"/>
       <c r="AD18" t="s">
         <v>72</v>
       </c>
@@ -3378,9 +3395,6 @@
       <c r="F19" t="s">
         <v>65</v>
       </c>
-      <c r="J19" t="s">
-        <v>646</v>
-      </c>
       <c r="K19" t="s">
         <v>194</v>
       </c>
@@ -3405,6 +3419,10 @@
       <c r="X19" t="s">
         <v>155</v>
       </c>
+      <c r="AB19" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC19"/>
       <c r="AD19" t="s">
         <v>73</v>
       </c>
@@ -3425,9 +3443,6 @@
       <c r="F20" t="s">
         <v>65</v>
       </c>
-      <c r="J20" t="s">
-        <v>646</v>
-      </c>
       <c r="K20" t="s">
         <v>198</v>
       </c>
@@ -3452,6 +3467,10 @@
       <c r="X20" t="s">
         <v>155</v>
       </c>
+      <c r="AB20" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC20"/>
       <c r="AD20" t="s">
         <v>73</v>
       </c>
@@ -3472,9 +3491,6 @@
       <c r="F21" t="s">
         <v>65</v>
       </c>
-      <c r="J21" t="s">
-        <v>646</v>
-      </c>
       <c r="K21" t="s">
         <v>198</v>
       </c>
@@ -3499,6 +3515,10 @@
       <c r="X21" t="s">
         <v>155</v>
       </c>
+      <c r="AB21" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC21"/>
       <c r="AD21" t="s">
         <v>73</v>
       </c>
@@ -3522,9 +3542,6 @@
       <c r="G22" t="s">
         <v>65</v>
       </c>
-      <c r="J22" t="s">
-        <v>646</v>
-      </c>
       <c r="K22" t="s">
         <v>30</v>
       </c>
@@ -3549,6 +3566,10 @@
       <c r="X22" t="s">
         <v>155</v>
       </c>
+      <c r="AB22" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC22"/>
       <c r="AD22" t="s">
         <v>74</v>
       </c>
@@ -3569,9 +3590,6 @@
       <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="J23" t="s">
-        <v>646</v>
-      </c>
       <c r="K23" t="s">
         <v>206</v>
       </c>
@@ -3596,6 +3614,10 @@
       <c r="X23" t="s">
         <v>155</v>
       </c>
+      <c r="AB23" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC23"/>
       <c r="AD23" t="s">
         <v>74</v>
       </c>
@@ -3616,9 +3638,6 @@
       <c r="F24" t="s">
         <v>65</v>
       </c>
-      <c r="J24" t="s">
-        <v>646</v>
-      </c>
       <c r="K24" t="s">
         <v>210</v>
       </c>
@@ -3643,6 +3662,10 @@
       <c r="X24" t="s">
         <v>155</v>
       </c>
+      <c r="AB24" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC24"/>
       <c r="AD24" t="s">
         <v>74</v>
       </c>
@@ -3663,9 +3686,6 @@
       <c r="F25" t="s">
         <v>65</v>
       </c>
-      <c r="J25" t="s">
-        <v>646</v>
-      </c>
       <c r="K25" t="s">
         <v>214</v>
       </c>
@@ -3702,6 +3722,10 @@
       <c r="X25" t="s">
         <v>155</v>
       </c>
+      <c r="AB25" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC25"/>
       <c r="AD25" t="s">
         <v>69</v>
       </c>
@@ -3722,9 +3746,6 @@
       <c r="F26" t="s">
         <v>65</v>
       </c>
-      <c r="J26" t="s">
-        <v>646</v>
-      </c>
       <c r="K26" t="s">
         <v>222</v>
       </c>
@@ -3749,6 +3770,10 @@
       <c r="X26" t="s">
         <v>155</v>
       </c>
+      <c r="AB26" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC26"/>
       <c r="AD26" t="s">
         <v>75</v>
       </c>
@@ -3766,9 +3791,6 @@
       <c r="E27">
         <v>54</v>
       </c>
-      <c r="J27" t="s">
-        <v>646</v>
-      </c>
       <c r="K27" t="s">
         <v>625</v>
       </c>
@@ -3793,6 +3815,10 @@
       <c r="X27" t="s">
         <v>155</v>
       </c>
+      <c r="AB27" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC27"/>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
@@ -3810,9 +3836,6 @@
       <c r="H28" t="s">
         <v>65</v>
       </c>
-      <c r="J28" t="s">
-        <v>646</v>
-      </c>
       <c r="K28" t="s">
         <v>31</v>
       </c>
@@ -3837,6 +3860,10 @@
       <c r="X28" t="s">
         <v>155</v>
       </c>
+      <c r="AB28" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC28"/>
       <c r="AD28" t="s">
         <v>76</v>
       </c>
@@ -3860,9 +3887,6 @@
       <c r="F29" t="s">
         <v>65</v>
       </c>
-      <c r="J29" t="s">
-        <v>646</v>
-      </c>
       <c r="K29" t="s">
         <v>32</v>
       </c>
@@ -3887,6 +3911,10 @@
       <c r="X29" t="s">
         <v>155</v>
       </c>
+      <c r="AB29" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC29"/>
       <c r="AD29" t="s">
         <v>77</v>
       </c>
@@ -3907,9 +3935,6 @@
       <c r="F30" t="s">
         <v>65</v>
       </c>
-      <c r="J30" t="s">
-        <v>646</v>
-      </c>
       <c r="K30" t="s">
         <v>32</v>
       </c>
@@ -3934,6 +3959,10 @@
       <c r="X30" t="s">
         <v>155</v>
       </c>
+      <c r="AB30" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC30"/>
       <c r="AD30" t="s">
         <v>77</v>
       </c>
@@ -3954,9 +3983,6 @@
       <c r="F31" t="s">
         <v>65</v>
       </c>
-      <c r="J31" t="s">
-        <v>646</v>
-      </c>
       <c r="K31" t="s">
         <v>32</v>
       </c>
@@ -3981,6 +4007,10 @@
       <c r="X31" t="s">
         <v>155</v>
       </c>
+      <c r="AB31" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC31"/>
       <c r="AD31" t="s">
         <v>77</v>
       </c>
@@ -4001,9 +4031,6 @@
       <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="J32" t="s">
-        <v>646</v>
-      </c>
       <c r="K32" t="s">
         <v>235</v>
       </c>
@@ -4028,6 +4055,10 @@
       <c r="X32" t="s">
         <v>155</v>
       </c>
+      <c r="AB32" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC32"/>
       <c r="AD32" t="s">
         <v>78</v>
       </c>
@@ -4048,9 +4079,6 @@
       <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="J33" t="s">
-        <v>646</v>
-      </c>
       <c r="K33" t="s">
         <v>239</v>
       </c>
@@ -4075,6 +4103,10 @@
       <c r="X33" t="s">
         <v>155</v>
       </c>
+      <c r="AB33" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC33"/>
       <c r="AD33" t="s">
         <v>79</v>
       </c>
@@ -4095,9 +4127,6 @@
       <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="J34" t="s">
-        <v>646</v>
-      </c>
       <c r="K34" t="s">
         <v>33</v>
       </c>
@@ -4122,6 +4151,10 @@
       <c r="X34" t="s">
         <v>155</v>
       </c>
+      <c r="AB34" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC34"/>
       <c r="AD34" t="s">
         <v>80</v>
       </c>
@@ -4142,9 +4175,6 @@
       <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="J35" t="s">
-        <v>646</v>
-      </c>
       <c r="K35" t="s">
         <v>246</v>
       </c>
@@ -4169,6 +4199,10 @@
       <c r="X35" t="s">
         <v>155</v>
       </c>
+      <c r="AB35" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC35"/>
       <c r="AD35" t="s">
         <v>80</v>
       </c>
@@ -4189,9 +4223,6 @@
       <c r="F36" t="s">
         <v>65</v>
       </c>
-      <c r="J36" t="s">
-        <v>646</v>
-      </c>
       <c r="K36" t="s">
         <v>250</v>
       </c>
@@ -4216,6 +4247,10 @@
       <c r="X36" t="s">
         <v>155</v>
       </c>
+      <c r="AB36" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC36"/>
       <c r="AD36" t="s">
         <v>80</v>
       </c>
@@ -4236,9 +4271,6 @@
       <c r="F37" t="s">
         <v>65</v>
       </c>
-      <c r="J37" t="s">
-        <v>646</v>
-      </c>
       <c r="K37" t="s">
         <v>34</v>
       </c>
@@ -4263,6 +4295,10 @@
       <c r="X37" t="s">
         <v>155</v>
       </c>
+      <c r="AB37" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC37"/>
       <c r="AD37" t="s">
         <v>80</v>
       </c>
@@ -4283,9 +4319,6 @@
       <c r="F38" t="s">
         <v>65</v>
       </c>
-      <c r="J38" t="s">
-        <v>646</v>
-      </c>
       <c r="K38" t="s">
         <v>35</v>
       </c>
@@ -4310,6 +4343,10 @@
       <c r="X38" t="s">
         <v>155</v>
       </c>
+      <c r="AB38" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC38"/>
       <c r="AD38" t="s">
         <v>80</v>
       </c>
@@ -4333,9 +4370,6 @@
       <c r="G39" t="s">
         <v>65</v>
       </c>
-      <c r="J39" t="s">
-        <v>646</v>
-      </c>
       <c r="K39" t="s">
         <v>260</v>
       </c>
@@ -4360,6 +4394,10 @@
       <c r="X39" t="s">
         <v>155</v>
       </c>
+      <c r="AB39" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC39"/>
       <c r="AD39" t="s">
         <v>80</v>
       </c>
@@ -4380,9 +4418,6 @@
       <c r="F40" t="s">
         <v>65</v>
       </c>
-      <c r="J40" t="s">
-        <v>646</v>
-      </c>
       <c r="K40" t="s">
         <v>264</v>
       </c>
@@ -4407,6 +4442,10 @@
       <c r="X40" t="s">
         <v>155</v>
       </c>
+      <c r="AB40" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC40"/>
       <c r="AD40" t="s">
         <v>81</v>
       </c>
@@ -4427,9 +4466,6 @@
       <c r="F41" t="s">
         <v>65</v>
       </c>
-      <c r="J41" t="s">
-        <v>646</v>
-      </c>
       <c r="K41" t="s">
         <v>267</v>
       </c>
@@ -4454,6 +4490,10 @@
       <c r="X41" t="s">
         <v>155</v>
       </c>
+      <c r="AB41" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC41"/>
       <c r="AD41" t="s">
         <v>81</v>
       </c>
@@ -4474,9 +4514,6 @@
       <c r="F42" t="s">
         <v>65</v>
       </c>
-      <c r="J42" t="s">
-        <v>646</v>
-      </c>
       <c r="K42" t="s">
         <v>267</v>
       </c>
@@ -4501,6 +4538,10 @@
       <c r="X42" t="s">
         <v>155</v>
       </c>
+      <c r="AB42" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC42"/>
       <c r="AD42" t="s">
         <v>81</v>
       </c>
@@ -4518,9 +4559,6 @@
       <c r="E43">
         <v>80</v>
       </c>
-      <c r="J43" t="s">
-        <v>646</v>
-      </c>
       <c r="K43" t="s">
         <v>267</v>
       </c>
@@ -4545,6 +4583,10 @@
       <c r="X43" t="s">
         <v>155</v>
       </c>
+      <c r="AB43" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC43"/>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
@@ -4559,9 +4601,6 @@
       <c r="E44">
         <v>80</v>
       </c>
-      <c r="J44" t="s">
-        <v>646</v>
-      </c>
       <c r="K44" t="s">
         <v>267</v>
       </c>
@@ -4586,6 +4625,10 @@
       <c r="X44" t="s">
         <v>155</v>
       </c>
+      <c r="AB44" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC44"/>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
@@ -4600,9 +4643,6 @@
       <c r="E45">
         <v>80</v>
       </c>
-      <c r="J45" t="s">
-        <v>646</v>
-      </c>
       <c r="K45" t="s">
         <v>267</v>
       </c>
@@ -4627,6 +4667,10 @@
       <c r="X45" t="s">
         <v>155</v>
       </c>
+      <c r="AB45" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC45"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
@@ -4641,9 +4685,6 @@
       <c r="E46">
         <v>81</v>
       </c>
-      <c r="J46" t="s">
-        <v>646</v>
-      </c>
       <c r="K46" t="s">
         <v>267</v>
       </c>
@@ -4668,6 +4709,10 @@
       <c r="X46" t="s">
         <v>155</v>
       </c>
+      <c r="AB46" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC46"/>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
@@ -4682,9 +4727,6 @@
       <c r="E47">
         <v>81</v>
       </c>
-      <c r="J47" t="s">
-        <v>646</v>
-      </c>
       <c r="K47" t="s">
         <v>267</v>
       </c>
@@ -4709,6 +4751,10 @@
       <c r="X47" t="s">
         <v>155</v>
       </c>
+      <c r="AB47" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC47"/>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
@@ -4723,9 +4769,6 @@
       <c r="E48">
         <v>81</v>
       </c>
-      <c r="J48" t="s">
-        <v>646</v>
-      </c>
       <c r="K48" t="s">
         <v>267</v>
       </c>
@@ -4750,6 +4793,10 @@
       <c r="X48" t="s">
         <v>155</v>
       </c>
+      <c r="AB48" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC48"/>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
@@ -4764,9 +4811,6 @@
       <c r="E49">
         <v>81</v>
       </c>
-      <c r="J49" t="s">
-        <v>646</v>
-      </c>
       <c r="K49" t="s">
         <v>267</v>
       </c>
@@ -4791,6 +4835,10 @@
       <c r="X49" t="s">
         <v>155</v>
       </c>
+      <c r="AB49" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC49"/>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -4808,9 +4856,6 @@
       <c r="F50" t="s">
         <v>65</v>
       </c>
-      <c r="J50" t="s">
-        <v>646</v>
-      </c>
       <c r="K50" t="s">
         <v>36</v>
       </c>
@@ -4835,6 +4880,10 @@
       <c r="X50" t="s">
         <v>155</v>
       </c>
+      <c r="AB50" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC50"/>
       <c r="AD50" t="s">
         <v>81</v>
       </c>
@@ -4852,9 +4901,6 @@
       <c r="E51">
         <v>85</v>
       </c>
-      <c r="J51" t="s">
-        <v>646</v>
-      </c>
       <c r="K51" t="s">
         <v>36</v>
       </c>
@@ -4879,6 +4925,10 @@
       <c r="X51" t="s">
         <v>155</v>
       </c>
+      <c r="AB51" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC51"/>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
@@ -4896,9 +4946,6 @@
       <c r="F52" t="s">
         <v>65</v>
       </c>
-      <c r="J52" t="s">
-        <v>646</v>
-      </c>
       <c r="K52" t="s">
         <v>36</v>
       </c>
@@ -4923,6 +4970,10 @@
       <c r="X52" t="s">
         <v>155</v>
       </c>
+      <c r="AB52" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC52"/>
       <c r="AD52" t="s">
         <v>81</v>
       </c>
@@ -4940,9 +4991,6 @@
       <c r="E53">
         <v>84</v>
       </c>
-      <c r="J53" t="s">
-        <v>646</v>
-      </c>
       <c r="K53" t="s">
         <v>36</v>
       </c>
@@ -4967,6 +5015,10 @@
       <c r="X53" t="s">
         <v>155</v>
       </c>
+      <c r="AB53" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC53"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
@@ -4981,9 +5033,6 @@
       <c r="E54">
         <v>85</v>
       </c>
-      <c r="J54" t="s">
-        <v>646</v>
-      </c>
       <c r="K54" t="s">
         <v>36</v>
       </c>
@@ -5008,6 +5057,10 @@
       <c r="X54" t="s">
         <v>155</v>
       </c>
+      <c r="AB54" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC54"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
@@ -5025,9 +5078,6 @@
       <c r="F55" t="s">
         <v>65</v>
       </c>
-      <c r="J55" t="s">
-        <v>646</v>
-      </c>
       <c r="K55" t="s">
         <v>36</v>
       </c>
@@ -5052,6 +5102,10 @@
       <c r="X55" t="s">
         <v>155</v>
       </c>
+      <c r="AB55" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC55"/>
       <c r="AD55" t="s">
         <v>81</v>
       </c>
@@ -5069,9 +5123,6 @@
       <c r="E56">
         <v>86</v>
       </c>
-      <c r="J56" t="s">
-        <v>646</v>
-      </c>
       <c r="K56" t="s">
         <v>36</v>
       </c>
@@ -5096,6 +5147,10 @@
       <c r="X56" t="s">
         <v>155</v>
       </c>
+      <c r="AB56" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC56"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
@@ -5110,9 +5165,6 @@
       <c r="E57">
         <v>86</v>
       </c>
-      <c r="J57" t="s">
-        <v>646</v>
-      </c>
       <c r="K57" t="s">
         <v>36</v>
       </c>
@@ -5137,6 +5189,10 @@
       <c r="X57" t="s">
         <v>155</v>
       </c>
+      <c r="AB57" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC57"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
@@ -5151,9 +5207,6 @@
       <c r="E58">
         <v>86</v>
       </c>
-      <c r="J58" t="s">
-        <v>646</v>
-      </c>
       <c r="K58" t="s">
         <v>36</v>
       </c>
@@ -5178,6 +5231,10 @@
       <c r="X58" t="s">
         <v>155</v>
       </c>
+      <c r="AB58" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC58"/>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
@@ -5192,9 +5249,6 @@
       <c r="E59">
         <v>86</v>
       </c>
-      <c r="J59" t="s">
-        <v>646</v>
-      </c>
       <c r="K59" t="s">
         <v>36</v>
       </c>
@@ -5219,6 +5273,10 @@
       <c r="X59" t="s">
         <v>155</v>
       </c>
+      <c r="AB59" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC59"/>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
@@ -5236,9 +5294,6 @@
       <c r="F60" t="s">
         <v>65</v>
       </c>
-      <c r="J60" t="s">
-        <v>646</v>
-      </c>
       <c r="K60" t="s">
         <v>36</v>
       </c>
@@ -5263,6 +5318,10 @@
       <c r="X60" t="s">
         <v>155</v>
       </c>
+      <c r="AB60" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC60"/>
       <c r="AD60" t="s">
         <v>81</v>
       </c>
@@ -5283,9 +5342,6 @@
       <c r="F61" t="s">
         <v>65</v>
       </c>
-      <c r="J61" t="s">
-        <v>646</v>
-      </c>
       <c r="K61" t="s">
         <v>36</v>
       </c>
@@ -5310,6 +5366,10 @@
       <c r="X61" t="s">
         <v>155</v>
       </c>
+      <c r="AB61" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC61"/>
     </row>
     <row r="62" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
@@ -5327,9 +5387,6 @@
       <c r="F62" t="s">
         <v>65</v>
       </c>
-      <c r="J62" t="s">
-        <v>646</v>
-      </c>
       <c r="K62" t="s">
         <v>36</v>
       </c>
@@ -5354,6 +5411,10 @@
       <c r="X62" t="s">
         <v>155</v>
       </c>
+      <c r="AB62" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC62"/>
     </row>
     <row r="63" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
@@ -5371,9 +5432,6 @@
       <c r="F63" t="s">
         <v>65</v>
       </c>
-      <c r="J63" t="s">
-        <v>646</v>
-      </c>
       <c r="K63" t="s">
         <v>37</v>
       </c>
@@ -5398,6 +5456,10 @@
       <c r="X63" t="s">
         <v>155</v>
       </c>
+      <c r="AB63" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC63"/>
       <c r="AD63" t="s">
         <v>82</v>
       </c>
@@ -5421,9 +5483,6 @@
       <c r="G64" t="s">
         <v>65</v>
       </c>
-      <c r="J64" t="s">
-        <v>646</v>
-      </c>
       <c r="K64" t="s">
         <v>284</v>
       </c>
@@ -5448,6 +5507,10 @@
       <c r="X64" t="s">
         <v>155</v>
       </c>
+      <c r="AB64" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC64"/>
       <c r="AD64" t="s">
         <v>83</v>
       </c>
@@ -5471,9 +5534,6 @@
       <c r="G65" t="s">
         <v>65</v>
       </c>
-      <c r="J65" t="s">
-        <v>646</v>
-      </c>
       <c r="K65" t="s">
         <v>284</v>
       </c>
@@ -5498,6 +5558,10 @@
       <c r="X65" t="s">
         <v>155</v>
       </c>
+      <c r="AB65" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC65"/>
       <c r="AD65" t="s">
         <v>83</v>
       </c>
@@ -5521,9 +5585,6 @@
       <c r="G66" t="s">
         <v>65</v>
       </c>
-      <c r="J66" t="s">
-        <v>646</v>
-      </c>
       <c r="K66" t="s">
         <v>284</v>
       </c>
@@ -5548,6 +5609,10 @@
       <c r="X66" t="s">
         <v>155</v>
       </c>
+      <c r="AB66" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC66"/>
       <c r="AD66" t="s">
         <v>83</v>
       </c>
@@ -5571,9 +5636,6 @@
       <c r="G67" t="s">
         <v>65</v>
       </c>
-      <c r="J67" t="s">
-        <v>646</v>
-      </c>
       <c r="K67" t="s">
         <v>284</v>
       </c>
@@ -5598,6 +5660,10 @@
       <c r="X67" t="s">
         <v>155</v>
       </c>
+      <c r="AB67" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC67"/>
       <c r="AD67" t="s">
         <v>83</v>
       </c>
@@ -5621,9 +5687,6 @@
       <c r="G68" t="s">
         <v>65</v>
       </c>
-      <c r="J68" t="s">
-        <v>646</v>
-      </c>
       <c r="K68" t="s">
         <v>284</v>
       </c>
@@ -5648,6 +5711,10 @@
       <c r="X68" t="s">
         <v>155</v>
       </c>
+      <c r="AB68" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC68"/>
       <c r="AD68" t="s">
         <v>83</v>
       </c>
@@ -5671,9 +5738,6 @@
       <c r="G69" t="s">
         <v>65</v>
       </c>
-      <c r="J69" t="s">
-        <v>646</v>
-      </c>
       <c r="K69" t="s">
         <v>284</v>
       </c>
@@ -5698,6 +5762,10 @@
       <c r="X69" t="s">
         <v>155</v>
       </c>
+      <c r="AB69" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC69"/>
       <c r="AD69" t="s">
         <v>83</v>
       </c>
@@ -5721,9 +5789,6 @@
       <c r="G70" t="s">
         <v>65</v>
       </c>
-      <c r="J70" t="s">
-        <v>646</v>
-      </c>
       <c r="K70" t="s">
         <v>284</v>
       </c>
@@ -5748,6 +5813,10 @@
       <c r="X70" t="s">
         <v>155</v>
       </c>
+      <c r="AB70" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC70"/>
       <c r="AD70" t="s">
         <v>83</v>
       </c>
@@ -5771,9 +5840,6 @@
       <c r="G71" t="s">
         <v>65</v>
       </c>
-      <c r="J71" t="s">
-        <v>646</v>
-      </c>
       <c r="K71" t="s">
         <v>284</v>
       </c>
@@ -5798,6 +5864,10 @@
       <c r="X71" t="s">
         <v>155</v>
       </c>
+      <c r="AB71" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC71"/>
       <c r="AD71" t="s">
         <v>83</v>
       </c>
@@ -5821,9 +5891,6 @@
       <c r="G72" t="s">
         <v>65</v>
       </c>
-      <c r="J72" t="s">
-        <v>646</v>
-      </c>
       <c r="K72" t="s">
         <v>38</v>
       </c>
@@ -5848,6 +5915,10 @@
       <c r="X72" t="s">
         <v>155</v>
       </c>
+      <c r="AB72" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC72"/>
       <c r="AD72" t="s">
         <v>84</v>
       </c>
@@ -5871,9 +5942,6 @@
       <c r="G73" t="s">
         <v>65</v>
       </c>
-      <c r="J73" t="s">
-        <v>646</v>
-      </c>
       <c r="K73" t="s">
         <v>297</v>
       </c>
@@ -5898,6 +5966,10 @@
       <c r="X73" t="s">
         <v>155</v>
       </c>
+      <c r="AB73" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC73"/>
       <c r="AD73" t="s">
         <v>85</v>
       </c>
@@ -5921,9 +5993,6 @@
       <c r="G74" t="s">
         <v>65</v>
       </c>
-      <c r="J74" t="s">
-        <v>646</v>
-      </c>
       <c r="K74" t="s">
         <v>297</v>
       </c>
@@ -5948,6 +6017,10 @@
       <c r="X74" t="s">
         <v>155</v>
       </c>
+      <c r="AB74" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC74"/>
       <c r="AD74" t="s">
         <v>85</v>
       </c>
@@ -5971,9 +6044,6 @@
       <c r="G75" t="s">
         <v>65</v>
       </c>
-      <c r="J75" t="s">
-        <v>646</v>
-      </c>
       <c r="K75" t="s">
         <v>297</v>
       </c>
@@ -5998,6 +6068,10 @@
       <c r="X75" t="s">
         <v>155</v>
       </c>
+      <c r="AB75" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC75"/>
       <c r="AD75" t="s">
         <v>85</v>
       </c>
@@ -6021,9 +6095,6 @@
       <c r="G76" t="s">
         <v>65</v>
       </c>
-      <c r="J76" t="s">
-        <v>646</v>
-      </c>
       <c r="K76" t="s">
         <v>297</v>
       </c>
@@ -6048,6 +6119,10 @@
       <c r="X76" t="s">
         <v>155</v>
       </c>
+      <c r="AB76" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC76"/>
       <c r="AD76" t="s">
         <v>85</v>
       </c>
@@ -6071,9 +6146,6 @@
       <c r="G77" t="s">
         <v>65</v>
       </c>
-      <c r="J77" t="s">
-        <v>646</v>
-      </c>
       <c r="K77" t="s">
         <v>297</v>
       </c>
@@ -6098,6 +6170,10 @@
       <c r="X77" t="s">
         <v>155</v>
       </c>
+      <c r="AB77" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC77"/>
       <c r="AD77" t="s">
         <v>85</v>
       </c>
@@ -6121,9 +6197,6 @@
       <c r="G78" t="s">
         <v>65</v>
       </c>
-      <c r="J78" t="s">
-        <v>646</v>
-      </c>
       <c r="K78" t="s">
         <v>297</v>
       </c>
@@ -6148,6 +6221,10 @@
       <c r="X78" t="s">
         <v>155</v>
       </c>
+      <c r="AB78" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC78"/>
       <c r="AD78" t="s">
         <v>85</v>
       </c>
@@ -6171,9 +6248,6 @@
       <c r="G79" t="s">
         <v>65</v>
       </c>
-      <c r="J79" t="s">
-        <v>646</v>
-      </c>
       <c r="K79" t="s">
         <v>297</v>
       </c>
@@ -6198,6 +6272,10 @@
       <c r="X79" t="s">
         <v>155</v>
       </c>
+      <c r="AB79" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC79"/>
       <c r="AD79" t="s">
         <v>85</v>
       </c>
@@ -6218,9 +6296,6 @@
       <c r="F80" t="s">
         <v>65</v>
       </c>
-      <c r="J80" t="s">
-        <v>646</v>
-      </c>
       <c r="K80" t="s">
         <v>297</v>
       </c>
@@ -6245,6 +6320,10 @@
       <c r="X80" t="s">
         <v>155</v>
       </c>
+      <c r="AB80" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC80"/>
       <c r="AD80" t="s">
         <v>85</v>
       </c>
@@ -6268,9 +6347,6 @@
       <c r="G81" t="s">
         <v>65</v>
       </c>
-      <c r="J81" t="s">
-        <v>646</v>
-      </c>
       <c r="K81" t="s">
         <v>311</v>
       </c>
@@ -6295,6 +6371,10 @@
       <c r="X81" t="s">
         <v>155</v>
       </c>
+      <c r="AB81" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC81"/>
       <c r="AD81" t="s">
         <v>85</v>
       </c>
@@ -6315,9 +6395,6 @@
       <c r="F82" t="s">
         <v>65</v>
       </c>
-      <c r="J82" t="s">
-        <v>646</v>
-      </c>
       <c r="K82" t="s">
         <v>311</v>
       </c>
@@ -6342,6 +6419,10 @@
       <c r="X82" t="s">
         <v>155</v>
       </c>
+      <c r="AB82" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC82"/>
       <c r="AD82" t="s">
         <v>85</v>
       </c>
@@ -6362,9 +6443,6 @@
       <c r="F83" t="s">
         <v>65</v>
       </c>
-      <c r="J83" t="s">
-        <v>646</v>
-      </c>
       <c r="K83" t="s">
         <v>311</v>
       </c>
@@ -6389,6 +6467,10 @@
       <c r="X83" t="s">
         <v>155</v>
       </c>
+      <c r="AB83" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC83"/>
       <c r="AD83" t="s">
         <v>85</v>
       </c>
@@ -6409,9 +6491,6 @@
       <c r="F84" t="s">
         <v>65</v>
       </c>
-      <c r="J84" t="s">
-        <v>646</v>
-      </c>
       <c r="K84" t="s">
         <v>311</v>
       </c>
@@ -6436,6 +6515,10 @@
       <c r="X84" t="s">
         <v>155</v>
       </c>
+      <c r="AB84" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC84"/>
       <c r="AD84" t="s">
         <v>85</v>
       </c>
@@ -6456,9 +6539,6 @@
       <c r="F85" t="s">
         <v>65</v>
       </c>
-      <c r="J85" t="s">
-        <v>646</v>
-      </c>
       <c r="K85" t="s">
         <v>311</v>
       </c>
@@ -6483,6 +6563,10 @@
       <c r="X85" t="s">
         <v>155</v>
       </c>
+      <c r="AB85" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC85"/>
       <c r="AD85" t="s">
         <v>85</v>
       </c>
@@ -6503,9 +6587,6 @@
       <c r="F86" t="s">
         <v>65</v>
       </c>
-      <c r="J86" t="s">
-        <v>646</v>
-      </c>
       <c r="K86" t="s">
         <v>311</v>
       </c>
@@ -6530,6 +6611,10 @@
       <c r="X86" t="s">
         <v>155</v>
       </c>
+      <c r="AB86" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC86"/>
       <c r="AD86" t="s">
         <v>85</v>
       </c>
@@ -6550,9 +6635,6 @@
       <c r="F87" t="s">
         <v>65</v>
       </c>
-      <c r="J87" t="s">
-        <v>646</v>
-      </c>
       <c r="K87" t="s">
         <v>311</v>
       </c>
@@ -6577,6 +6659,10 @@
       <c r="X87" t="s">
         <v>155</v>
       </c>
+      <c r="AB87" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC87"/>
       <c r="AD87" t="s">
         <v>85</v>
       </c>
@@ -6600,9 +6686,6 @@
       <c r="G88" t="s">
         <v>65</v>
       </c>
-      <c r="J88" t="s">
-        <v>646</v>
-      </c>
       <c r="K88" t="s">
         <v>319</v>
       </c>
@@ -6627,6 +6710,10 @@
       <c r="X88" t="s">
         <v>155</v>
       </c>
+      <c r="AB88" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC88"/>
       <c r="AD88" t="s">
         <v>85</v>
       </c>
@@ -6650,9 +6737,6 @@
       <c r="G89" t="s">
         <v>65</v>
       </c>
-      <c r="J89" t="s">
-        <v>646</v>
-      </c>
       <c r="K89" t="s">
         <v>311</v>
       </c>
@@ -6677,6 +6761,10 @@
       <c r="X89" t="s">
         <v>155</v>
       </c>
+      <c r="AB89" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC89"/>
       <c r="AD89" t="s">
         <v>85</v>
       </c>
@@ -6700,9 +6788,6 @@
       <c r="G90" t="s">
         <v>65</v>
       </c>
-      <c r="J90" t="s">
-        <v>646</v>
-      </c>
       <c r="K90" t="s">
         <v>311</v>
       </c>
@@ -6727,6 +6812,10 @@
       <c r="X90" t="s">
         <v>155</v>
       </c>
+      <c r="AB90" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC90"/>
       <c r="AD90" t="s">
         <v>85</v>
       </c>
@@ -6750,9 +6839,6 @@
       <c r="G91" t="s">
         <v>65</v>
       </c>
-      <c r="J91" t="s">
-        <v>646</v>
-      </c>
       <c r="K91" t="s">
         <v>311</v>
       </c>
@@ -6777,6 +6863,10 @@
       <c r="X91" t="s">
         <v>155</v>
       </c>
+      <c r="AB91" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC91"/>
       <c r="AD91" t="s">
         <v>85</v>
       </c>
@@ -6800,9 +6890,6 @@
       <c r="G92" t="s">
         <v>65</v>
       </c>
-      <c r="J92" t="s">
-        <v>646</v>
-      </c>
       <c r="K92" t="s">
         <v>311</v>
       </c>
@@ -6827,6 +6914,10 @@
       <c r="X92" t="s">
         <v>155</v>
       </c>
+      <c r="AB92" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC92"/>
       <c r="AD92" t="s">
         <v>85</v>
       </c>
@@ -6847,9 +6938,6 @@
       <c r="F93" t="s">
         <v>65</v>
       </c>
-      <c r="J93" t="s">
-        <v>646</v>
-      </c>
       <c r="K93" t="s">
         <v>327</v>
       </c>
@@ -6874,6 +6962,10 @@
       <c r="X93" t="s">
         <v>155</v>
       </c>
+      <c r="AB93" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC93"/>
     </row>
     <row r="94" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
@@ -6891,9 +6983,6 @@
       <c r="F94" t="s">
         <v>65</v>
       </c>
-      <c r="J94" t="s">
-        <v>646</v>
-      </c>
       <c r="K94" t="s">
         <v>331</v>
       </c>
@@ -6918,6 +7007,10 @@
       <c r="X94" t="s">
         <v>155</v>
       </c>
+      <c r="AB94" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC94"/>
       <c r="AD94" t="s">
         <v>86</v>
       </c>
@@ -6941,9 +7034,6 @@
       <c r="G95" t="s">
         <v>65</v>
       </c>
-      <c r="J95" t="s">
-        <v>646</v>
-      </c>
       <c r="K95" t="s">
         <v>335</v>
       </c>
@@ -6968,6 +7058,10 @@
       <c r="X95" t="s">
         <v>155</v>
       </c>
+      <c r="AB95" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC95"/>
       <c r="AD95" t="s">
         <v>86</v>
       </c>
@@ -6991,9 +7085,6 @@
       <c r="G96" t="s">
         <v>65</v>
       </c>
-      <c r="J96" t="s">
-        <v>646</v>
-      </c>
       <c r="K96" t="s">
         <v>335</v>
       </c>
@@ -7018,6 +7109,10 @@
       <c r="X96" t="s">
         <v>155</v>
       </c>
+      <c r="AB96" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC96"/>
       <c r="AD96" t="s">
         <v>86</v>
       </c>
@@ -7041,9 +7136,6 @@
       <c r="G97" t="s">
         <v>65</v>
       </c>
-      <c r="J97" t="s">
-        <v>646</v>
-      </c>
       <c r="K97" t="s">
         <v>335</v>
       </c>
@@ -7068,6 +7160,10 @@
       <c r="X97" t="s">
         <v>155</v>
       </c>
+      <c r="AB97" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC97"/>
       <c r="AD97" t="s">
         <v>86</v>
       </c>
@@ -7091,9 +7187,6 @@
       <c r="G98" t="s">
         <v>65</v>
       </c>
-      <c r="J98" t="s">
-        <v>646</v>
-      </c>
       <c r="K98" t="s">
         <v>335</v>
       </c>
@@ -7118,6 +7211,10 @@
       <c r="X98" t="s">
         <v>155</v>
       </c>
+      <c r="AB98" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC98"/>
       <c r="AD98" t="s">
         <v>86</v>
       </c>
@@ -7141,9 +7238,6 @@
       <c r="G99" t="s">
         <v>65</v>
       </c>
-      <c r="J99" t="s">
-        <v>646</v>
-      </c>
       <c r="K99" t="s">
         <v>335</v>
       </c>
@@ -7168,6 +7262,10 @@
       <c r="X99" t="s">
         <v>155</v>
       </c>
+      <c r="AB99" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC99"/>
       <c r="AD99" t="s">
         <v>86</v>
       </c>
@@ -7191,9 +7289,6 @@
       <c r="G100" t="s">
         <v>65</v>
       </c>
-      <c r="J100" t="s">
-        <v>646</v>
-      </c>
       <c r="K100" t="s">
         <v>335</v>
       </c>
@@ -7218,6 +7313,10 @@
       <c r="X100" t="s">
         <v>155</v>
       </c>
+      <c r="AB100" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC100"/>
       <c r="AD100" t="s">
         <v>86</v>
       </c>
@@ -7241,9 +7340,6 @@
       <c r="G101" t="s">
         <v>65</v>
       </c>
-      <c r="J101" t="s">
-        <v>646</v>
-      </c>
       <c r="K101" t="s">
         <v>335</v>
       </c>
@@ -7268,6 +7364,10 @@
       <c r="X101" t="s">
         <v>155</v>
       </c>
+      <c r="AB101" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC101"/>
       <c r="AD101" t="s">
         <v>86</v>
       </c>
@@ -7291,9 +7391,6 @@
       <c r="G102" t="s">
         <v>65</v>
       </c>
-      <c r="J102" t="s">
-        <v>646</v>
-      </c>
       <c r="K102" t="s">
         <v>335</v>
       </c>
@@ -7318,6 +7415,10 @@
       <c r="X102" t="s">
         <v>155</v>
       </c>
+      <c r="AB102" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC102"/>
       <c r="AD102" t="s">
         <v>86</v>
       </c>
@@ -7341,9 +7442,6 @@
       <c r="G103" t="s">
         <v>65</v>
       </c>
-      <c r="J103" t="s">
-        <v>646</v>
-      </c>
       <c r="K103" t="s">
         <v>335</v>
       </c>
@@ -7368,6 +7466,10 @@
       <c r="X103" t="s">
         <v>155</v>
       </c>
+      <c r="AB103" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC103"/>
       <c r="AD103" t="s">
         <v>86</v>
       </c>
@@ -7388,9 +7490,6 @@
       <c r="F104" t="s">
         <v>65</v>
       </c>
-      <c r="J104" t="s">
-        <v>646</v>
-      </c>
       <c r="K104" t="s">
         <v>351</v>
       </c>
@@ -7421,6 +7520,10 @@
       <c r="X104" t="s">
         <v>155</v>
       </c>
+      <c r="AB104" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC104"/>
       <c r="AD104" t="s">
         <v>86</v>
       </c>
@@ -7441,9 +7544,6 @@
       <c r="F105" t="s">
         <v>65</v>
       </c>
-      <c r="J105" t="s">
-        <v>646</v>
-      </c>
       <c r="K105" t="s">
         <v>39</v>
       </c>
@@ -7468,6 +7568,10 @@
       <c r="X105" t="s">
         <v>155</v>
       </c>
+      <c r="AB105" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC105"/>
       <c r="AD105" t="s">
         <v>87</v>
       </c>
@@ -7491,9 +7595,6 @@
       <c r="G106" t="s">
         <v>65</v>
       </c>
-      <c r="J106" t="s">
-        <v>646</v>
-      </c>
       <c r="K106" t="s">
         <v>40</v>
       </c>
@@ -7518,6 +7619,10 @@
       <c r="X106" t="s">
         <v>155</v>
       </c>
+      <c r="AB106" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC106"/>
       <c r="AD106" t="s">
         <v>88</v>
       </c>
@@ -7541,9 +7646,6 @@
       <c r="G107" t="s">
         <v>65</v>
       </c>
-      <c r="J107" t="s">
-        <v>646</v>
-      </c>
       <c r="K107" t="s">
         <v>41</v>
       </c>
@@ -7568,6 +7670,10 @@
       <c r="X107" t="s">
         <v>155</v>
       </c>
+      <c r="AB107" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC107"/>
       <c r="AD107" t="s">
         <v>89</v>
       </c>
@@ -7591,9 +7697,6 @@
       <c r="G108" t="s">
         <v>65</v>
       </c>
-      <c r="J108" t="s">
-        <v>646</v>
-      </c>
       <c r="K108" t="s">
         <v>42</v>
       </c>
@@ -7618,6 +7721,10 @@
       <c r="X108" t="s">
         <v>155</v>
       </c>
+      <c r="AB108" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC108"/>
       <c r="AD108" t="s">
         <v>90</v>
       </c>
@@ -7638,9 +7745,6 @@
       <c r="F109" t="s">
         <v>65</v>
       </c>
-      <c r="J109" t="s">
-        <v>646</v>
-      </c>
       <c r="K109" t="s">
         <v>365</v>
       </c>
@@ -7665,6 +7769,10 @@
       <c r="X109" t="s">
         <v>155</v>
       </c>
+      <c r="AB109" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC109"/>
       <c r="AD109" t="s">
         <v>91</v>
       </c>
@@ -7688,9 +7796,6 @@
       <c r="G110" t="s">
         <v>65</v>
       </c>
-      <c r="J110" t="s">
-        <v>646</v>
-      </c>
       <c r="K110" t="s">
         <v>369</v>
       </c>
@@ -7715,6 +7820,10 @@
       <c r="X110" t="s">
         <v>155</v>
       </c>
+      <c r="AB110" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC110"/>
       <c r="AD110" t="s">
         <v>92</v>
       </c>
@@ -7738,9 +7847,6 @@
       <c r="G111" t="s">
         <v>65</v>
       </c>
-      <c r="J111" t="s">
-        <v>646</v>
-      </c>
       <c r="K111" s="10" t="s">
         <v>43</v>
       </c>
@@ -7765,6 +7871,10 @@
       <c r="X111" t="s">
         <v>155</v>
       </c>
+      <c r="AB111" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC111"/>
       <c r="AD111" t="s">
         <v>93</v>
       </c>
@@ -7788,9 +7898,6 @@
       <c r="G112" t="s">
         <v>65</v>
       </c>
-      <c r="J112" t="s">
-        <v>646</v>
-      </c>
       <c r="K112" s="10" t="s">
         <v>43</v>
       </c>
@@ -7815,6 +7922,10 @@
       <c r="X112" t="s">
         <v>155</v>
       </c>
+      <c r="AB112" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC112"/>
       <c r="AD112" t="s">
         <v>93</v>
       </c>
@@ -7835,9 +7946,6 @@
       <c r="F113" t="s">
         <v>65</v>
       </c>
-      <c r="J113" t="s">
-        <v>646</v>
-      </c>
       <c r="K113" t="s">
         <v>377</v>
       </c>
@@ -7862,6 +7970,10 @@
       <c r="X113" t="s">
         <v>155</v>
       </c>
+      <c r="AB113" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC113"/>
       <c r="AD113" t="s">
         <v>94</v>
       </c>
@@ -7881,9 +7993,6 @@
       </c>
       <c r="F114" t="s">
         <v>65</v>
-      </c>
-      <c r="J114" t="s">
-        <v>646</v>
       </c>
       <c r="K114" t="s">
         <v>381</v>
@@ -7910,6 +8019,10 @@
       <c r="X114" t="s">
         <v>155</v>
       </c>
+      <c r="AB114" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC114"/>
       <c r="AD114" t="s">
         <v>95</v>
       </c>
@@ -7930,9 +8043,6 @@
       <c r="F115" t="s">
         <v>65</v>
       </c>
-      <c r="J115" t="s">
-        <v>646</v>
-      </c>
       <c r="K115" t="s">
         <v>385</v>
       </c>
@@ -7957,6 +8067,10 @@
       <c r="X115" t="s">
         <v>155</v>
       </c>
+      <c r="AB115" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC115"/>
       <c r="AD115" t="s">
         <v>96</v>
       </c>
@@ -7977,9 +8091,6 @@
       <c r="F116" t="s">
         <v>65</v>
       </c>
-      <c r="J116" t="s">
-        <v>646</v>
-      </c>
       <c r="K116" t="s">
         <v>389</v>
       </c>
@@ -8004,6 +8115,10 @@
       <c r="X116" t="s">
         <v>155</v>
       </c>
+      <c r="AB116" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC116"/>
       <c r="AD116" t="s">
         <v>97</v>
       </c>
@@ -8024,9 +8139,6 @@
       <c r="F117" t="s">
         <v>65</v>
       </c>
-      <c r="J117" t="s">
-        <v>646</v>
-      </c>
       <c r="K117" t="s">
         <v>393</v>
       </c>
@@ -8051,6 +8163,10 @@
       <c r="X117" t="s">
         <v>155</v>
       </c>
+      <c r="AB117" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC117"/>
       <c r="AD117" t="s">
         <v>98</v>
       </c>
@@ -8074,9 +8190,6 @@
       <c r="G118" t="s">
         <v>65</v>
       </c>
-      <c r="J118" t="s">
-        <v>646</v>
-      </c>
       <c r="K118" t="s">
         <v>44</v>
       </c>
@@ -8101,6 +8214,10 @@
       <c r="X118" t="s">
         <v>155</v>
       </c>
+      <c r="AB118" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC118"/>
       <c r="AD118" t="s">
         <v>99</v>
       </c>
@@ -8121,9 +8238,6 @@
       <c r="F119" t="s">
         <v>65</v>
       </c>
-      <c r="J119" t="s">
-        <v>646</v>
-      </c>
       <c r="K119" t="s">
         <v>45</v>
       </c>
@@ -8148,6 +8262,10 @@
       <c r="X119" t="s">
         <v>155</v>
       </c>
+      <c r="AB119" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC119"/>
       <c r="AD119" t="s">
         <v>100</v>
       </c>
@@ -8168,9 +8286,6 @@
       <c r="F120" t="s">
         <v>65</v>
       </c>
-      <c r="J120" t="s">
-        <v>646</v>
-      </c>
       <c r="K120" t="s">
         <v>46</v>
       </c>
@@ -8195,6 +8310,10 @@
       <c r="X120" t="s">
         <v>155</v>
       </c>
+      <c r="AB120" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC120"/>
       <c r="AD120" t="s">
         <v>101</v>
       </c>
@@ -8215,9 +8334,6 @@
       <c r="F121" t="s">
         <v>65</v>
       </c>
-      <c r="J121" t="s">
-        <v>646</v>
-      </c>
       <c r="K121" t="s">
         <v>46</v>
       </c>
@@ -8242,6 +8358,10 @@
       <c r="X121" t="s">
         <v>155</v>
       </c>
+      <c r="AB121" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC121"/>
       <c r="AD121" t="s">
         <v>101</v>
       </c>
@@ -8262,9 +8382,6 @@
       <c r="F122" t="s">
         <v>65</v>
       </c>
-      <c r="J122" t="s">
-        <v>646</v>
-      </c>
       <c r="K122" t="s">
         <v>46</v>
       </c>
@@ -8289,6 +8406,10 @@
       <c r="X122" t="s">
         <v>155</v>
       </c>
+      <c r="AB122" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC122"/>
       <c r="AD122" t="s">
         <v>101</v>
       </c>
@@ -8309,9 +8430,6 @@
       <c r="F123" t="s">
         <v>65</v>
       </c>
-      <c r="J123" t="s">
-        <v>646</v>
-      </c>
       <c r="K123" t="s">
         <v>408</v>
       </c>
@@ -8336,6 +8454,10 @@
       <c r="X123" t="s">
         <v>155</v>
       </c>
+      <c r="AB123" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC123"/>
       <c r="AD123" t="s">
         <v>102</v>
       </c>
@@ -8356,9 +8478,6 @@
       <c r="F124" t="s">
         <v>65</v>
       </c>
-      <c r="J124" t="s">
-        <v>646</v>
-      </c>
       <c r="K124" t="s">
         <v>412</v>
       </c>
@@ -8383,6 +8502,10 @@
       <c r="X124" t="s">
         <v>155</v>
       </c>
+      <c r="AB124" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC124"/>
       <c r="AD124" t="s">
         <v>80</v>
       </c>
@@ -8403,9 +8526,6 @@
       <c r="F125" t="s">
         <v>65</v>
       </c>
-      <c r="J125" t="s">
-        <v>646</v>
-      </c>
       <c r="K125" t="s">
         <v>416</v>
       </c>
@@ -8436,6 +8556,10 @@
       <c r="X125" t="s">
         <v>155</v>
       </c>
+      <c r="AB125" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC125"/>
       <c r="AD125" t="s">
         <v>101</v>
       </c>
@@ -8456,9 +8580,6 @@
       <c r="F126" t="s">
         <v>65</v>
       </c>
-      <c r="J126" t="s">
-        <v>646</v>
-      </c>
       <c r="K126" t="s">
         <v>422</v>
       </c>
@@ -8483,6 +8604,10 @@
       <c r="X126" t="s">
         <v>155</v>
       </c>
+      <c r="AB126" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC126"/>
       <c r="AD126" t="s">
         <v>103</v>
       </c>
@@ -8506,9 +8631,6 @@
       <c r="G127" t="s">
         <v>65</v>
       </c>
-      <c r="J127" t="s">
-        <v>646</v>
-      </c>
       <c r="K127" t="s">
         <v>47</v>
       </c>
@@ -8533,6 +8655,10 @@
       <c r="X127" t="s">
         <v>155</v>
       </c>
+      <c r="AB127" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC127"/>
       <c r="AD127" t="s">
         <v>104</v>
       </c>
@@ -8552,9 +8678,6 @@
       </c>
       <c r="F128" t="s">
         <v>65</v>
-      </c>
-      <c r="J128" t="s">
-        <v>646</v>
       </c>
       <c r="K128" t="s">
         <v>48</v>
@@ -8581,6 +8704,10 @@
       <c r="X128" t="s">
         <v>155</v>
       </c>
+      <c r="AB128" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC128"/>
       <c r="AD128" t="s">
         <v>141</v>
       </c>
@@ -8604,9 +8731,6 @@
       <c r="H129" t="s">
         <v>65</v>
       </c>
-      <c r="J129" t="s">
-        <v>646</v>
-      </c>
       <c r="K129" t="s">
         <v>49</v>
       </c>
@@ -8631,6 +8755,10 @@
       <c r="X129" t="s">
         <v>155</v>
       </c>
+      <c r="AB129" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC129"/>
       <c r="AD129" t="s">
         <v>105</v>
       </c>
@@ -8651,9 +8779,6 @@
       <c r="F130" t="s">
         <v>65</v>
       </c>
-      <c r="J130" t="s">
-        <v>646</v>
-      </c>
       <c r="K130" t="s">
         <v>434</v>
       </c>
@@ -8678,6 +8803,10 @@
       <c r="X130" t="s">
         <v>155</v>
       </c>
+      <c r="AB130" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC130"/>
       <c r="AD130" t="s">
         <v>105</v>
       </c>
@@ -8698,9 +8827,6 @@
       <c r="F131" t="s">
         <v>65</v>
       </c>
-      <c r="J131" t="s">
-        <v>646</v>
-      </c>
       <c r="K131" t="s">
         <v>438</v>
       </c>
@@ -8725,6 +8851,10 @@
       <c r="X131" t="s">
         <v>155</v>
       </c>
+      <c r="AB131" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC131"/>
       <c r="AD131" t="s">
         <v>105</v>
       </c>
@@ -8745,9 +8875,6 @@
       <c r="F132" t="s">
         <v>65</v>
       </c>
-      <c r="J132" t="s">
-        <v>646</v>
-      </c>
       <c r="K132" t="s">
         <v>442</v>
       </c>
@@ -8772,6 +8899,10 @@
       <c r="X132" t="s">
         <v>155</v>
       </c>
+      <c r="AB132" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC132"/>
       <c r="AD132" t="s">
         <v>106</v>
       </c>
@@ -8792,9 +8923,6 @@
       <c r="F133" t="s">
         <v>65</v>
       </c>
-      <c r="J133" t="s">
-        <v>646</v>
-      </c>
       <c r="K133" t="s">
         <v>50</v>
       </c>
@@ -8819,6 +8947,10 @@
       <c r="X133" t="s">
         <v>155</v>
       </c>
+      <c r="AB133" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC133"/>
       <c r="AD133" t="s">
         <v>107</v>
       </c>
@@ -8839,9 +8971,6 @@
       <c r="F134" t="s">
         <v>65</v>
       </c>
-      <c r="J134" t="s">
-        <v>646</v>
-      </c>
       <c r="K134" t="s">
         <v>449</v>
       </c>
@@ -8866,6 +8995,10 @@
       <c r="X134" t="s">
         <v>155</v>
       </c>
+      <c r="AB134" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC134"/>
       <c r="AD134" t="s">
         <v>107</v>
       </c>
@@ -8886,9 +9019,6 @@
       <c r="F135" t="s">
         <v>65</v>
       </c>
-      <c r="J135" t="s">
-        <v>646</v>
-      </c>
       <c r="K135" t="s">
         <v>51</v>
       </c>
@@ -8913,6 +9043,10 @@
       <c r="X135" t="s">
         <v>155</v>
       </c>
+      <c r="AB135" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC135"/>
       <c r="AD135" t="s">
         <v>108</v>
       </c>
@@ -8930,9 +9064,6 @@
       <c r="E136">
         <v>231</v>
       </c>
-      <c r="J136" t="s">
-        <v>646</v>
-      </c>
       <c r="K136" t="s">
         <v>455</v>
       </c>
@@ -8957,6 +9088,10 @@
       <c r="X136" t="s">
         <v>155</v>
       </c>
+      <c r="AB136" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC136"/>
     </row>
     <row r="137" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
@@ -8974,9 +9109,6 @@
       <c r="F137" t="s">
         <v>65</v>
       </c>
-      <c r="J137" t="s">
-        <v>646</v>
-      </c>
       <c r="K137" t="s">
         <v>460</v>
       </c>
@@ -9001,6 +9133,10 @@
       <c r="X137" t="s">
         <v>155</v>
       </c>
+      <c r="AB137" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC137"/>
       <c r="AD137" t="s">
         <v>109</v>
       </c>
@@ -9021,9 +9157,6 @@
       <c r="F138" t="s">
         <v>65</v>
       </c>
-      <c r="J138" t="s">
-        <v>646</v>
-      </c>
       <c r="K138" t="s">
         <v>52</v>
       </c>
@@ -9048,6 +9181,10 @@
       <c r="X138" t="s">
         <v>155</v>
       </c>
+      <c r="AB138" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC138"/>
       <c r="AD138" t="s">
         <v>109</v>
       </c>
@@ -9068,9 +9205,6 @@
       <c r="F139" t="s">
         <v>65</v>
       </c>
-      <c r="J139" t="s">
-        <v>646</v>
-      </c>
       <c r="K139" t="s">
         <v>52</v>
       </c>
@@ -9095,6 +9229,10 @@
       <c r="X139" t="s">
         <v>155</v>
       </c>
+      <c r="AB139" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC139"/>
       <c r="AD139" t="s">
         <v>109</v>
       </c>
@@ -9115,9 +9253,6 @@
       <c r="F140" t="s">
         <v>65</v>
       </c>
-      <c r="J140" t="s">
-        <v>646</v>
-      </c>
       <c r="K140" t="s">
         <v>466</v>
       </c>
@@ -9142,6 +9277,10 @@
       <c r="X140" t="s">
         <v>155</v>
       </c>
+      <c r="AB140" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC140"/>
       <c r="AD140" t="s">
         <v>110</v>
       </c>
@@ -9165,9 +9304,6 @@
       <c r="H141" t="s">
         <v>65</v>
       </c>
-      <c r="J141" t="s">
-        <v>646</v>
-      </c>
       <c r="K141" t="s">
         <v>470</v>
       </c>
@@ -9192,6 +9328,10 @@
       <c r="X141" t="s">
         <v>155</v>
       </c>
+      <c r="AB141" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC141"/>
       <c r="AD141" t="s">
         <v>111</v>
       </c>
@@ -9212,9 +9352,6 @@
       <c r="F142" t="s">
         <v>65</v>
       </c>
-      <c r="J142" t="s">
-        <v>646</v>
-      </c>
       <c r="K142" t="s">
         <v>474</v>
       </c>
@@ -9239,6 +9376,10 @@
       <c r="X142" t="s">
         <v>155</v>
       </c>
+      <c r="AB142" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC142"/>
       <c r="AD142" t="s">
         <v>112</v>
       </c>
@@ -9259,9 +9400,6 @@
       <c r="F143" t="s">
         <v>65</v>
       </c>
-      <c r="J143" t="s">
-        <v>646</v>
-      </c>
       <c r="K143" t="s">
         <v>478</v>
       </c>
@@ -9286,6 +9424,10 @@
       <c r="X143" t="s">
         <v>155</v>
       </c>
+      <c r="AB143" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC143"/>
       <c r="AD143" t="s">
         <v>113</v>
       </c>
@@ -9306,9 +9448,6 @@
       <c r="F144" t="s">
         <v>65</v>
       </c>
-      <c r="J144" t="s">
-        <v>646</v>
-      </c>
       <c r="K144" t="s">
         <v>482</v>
       </c>
@@ -9333,6 +9472,10 @@
       <c r="X144" t="s">
         <v>155</v>
       </c>
+      <c r="AB144" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC144"/>
       <c r="AD144" t="s">
         <v>114</v>
       </c>
@@ -9353,9 +9496,6 @@
       <c r="F145" t="s">
         <v>65</v>
       </c>
-      <c r="J145" t="s">
-        <v>646</v>
-      </c>
       <c r="K145" t="s">
         <v>486</v>
       </c>
@@ -9380,6 +9520,10 @@
       <c r="X145" t="s">
         <v>155</v>
       </c>
+      <c r="AB145" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC145"/>
       <c r="AD145" t="s">
         <v>114</v>
       </c>
@@ -9403,9 +9547,6 @@
       <c r="H146" t="s">
         <v>65</v>
       </c>
-      <c r="J146" t="s">
-        <v>646</v>
-      </c>
       <c r="K146" t="s">
         <v>488</v>
       </c>
@@ -9430,6 +9571,10 @@
       <c r="X146" t="s">
         <v>155</v>
       </c>
+      <c r="AB146" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC146"/>
       <c r="AD146" t="s">
         <v>115</v>
       </c>
@@ -9453,9 +9598,6 @@
       <c r="G147" t="s">
         <v>65</v>
       </c>
-      <c r="J147" t="s">
-        <v>646</v>
-      </c>
       <c r="K147" t="s">
         <v>53</v>
       </c>
@@ -9480,6 +9622,10 @@
       <c r="X147" t="s">
         <v>155</v>
       </c>
+      <c r="AB147" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC147"/>
       <c r="AD147" t="s">
         <v>116</v>
       </c>
@@ -9503,9 +9649,6 @@
       <c r="F148" t="s">
         <v>65</v>
       </c>
-      <c r="J148" t="s">
-        <v>646</v>
-      </c>
       <c r="K148" t="s">
         <v>493</v>
       </c>
@@ -9530,6 +9673,10 @@
       <c r="X148" t="s">
         <v>155</v>
       </c>
+      <c r="AB148" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC148"/>
       <c r="AD148" t="s">
         <v>115</v>
       </c>
@@ -9553,9 +9700,6 @@
       <c r="H149" t="s">
         <v>65</v>
       </c>
-      <c r="J149" t="s">
-        <v>646</v>
-      </c>
       <c r="K149" t="s">
         <v>54</v>
       </c>
@@ -9580,6 +9724,10 @@
       <c r="X149" t="s">
         <v>155</v>
       </c>
+      <c r="AB149" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC149"/>
       <c r="AD149" t="s">
         <v>117</v>
       </c>
@@ -9603,9 +9751,6 @@
       <c r="G150" t="s">
         <v>65</v>
       </c>
-      <c r="J150" t="s">
-        <v>646</v>
-      </c>
       <c r="K150" t="s">
         <v>55</v>
       </c>
@@ -9630,6 +9775,10 @@
       <c r="X150" t="s">
         <v>155</v>
       </c>
+      <c r="AB150" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC150"/>
       <c r="AD150" t="s">
         <v>118</v>
       </c>
@@ -9653,9 +9802,6 @@
       <c r="G151" t="s">
         <v>65</v>
       </c>
-      <c r="J151" t="s">
-        <v>646</v>
-      </c>
       <c r="K151" t="s">
         <v>55</v>
       </c>
@@ -9680,6 +9826,10 @@
       <c r="X151" t="s">
         <v>155</v>
       </c>
+      <c r="AB151" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC151"/>
       <c r="AD151" t="s">
         <v>118</v>
       </c>
@@ -9703,9 +9853,6 @@
       <c r="G152" t="s">
         <v>65</v>
       </c>
-      <c r="J152" t="s">
-        <v>646</v>
-      </c>
       <c r="K152" t="s">
         <v>55</v>
       </c>
@@ -9730,6 +9877,10 @@
       <c r="X152" t="s">
         <v>155</v>
       </c>
+      <c r="AB152" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC152"/>
       <c r="AD152" t="s">
         <v>118</v>
       </c>
@@ -9753,9 +9904,6 @@
       <c r="G153" t="s">
         <v>65</v>
       </c>
-      <c r="J153" t="s">
-        <v>646</v>
-      </c>
       <c r="K153" t="s">
         <v>55</v>
       </c>
@@ -9780,6 +9928,10 @@
       <c r="X153" t="s">
         <v>155</v>
       </c>
+      <c r="AB153" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC153"/>
       <c r="AD153" t="s">
         <v>118</v>
       </c>
@@ -9803,9 +9955,6 @@
       <c r="G154" t="s">
         <v>65</v>
       </c>
-      <c r="J154" t="s">
-        <v>646</v>
-      </c>
       <c r="K154" t="s">
         <v>55</v>
       </c>
@@ -9830,6 +9979,10 @@
       <c r="X154" t="s">
         <v>155</v>
       </c>
+      <c r="AB154" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC154"/>
     </row>
     <row r="155" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
@@ -9850,9 +10003,6 @@
       <c r="G155" t="s">
         <v>65</v>
       </c>
-      <c r="J155" t="s">
-        <v>646</v>
-      </c>
       <c r="K155" t="s">
         <v>55</v>
       </c>
@@ -9877,6 +10027,10 @@
       <c r="X155" t="s">
         <v>155</v>
       </c>
+      <c r="AB155" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC155"/>
     </row>
     <row r="156" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
@@ -9897,9 +10051,6 @@
       <c r="G156" t="s">
         <v>65</v>
       </c>
-      <c r="J156" t="s">
-        <v>646</v>
-      </c>
       <c r="K156" t="s">
         <v>55</v>
       </c>
@@ -9924,6 +10075,10 @@
       <c r="X156" t="s">
         <v>155</v>
       </c>
+      <c r="AB156" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC156"/>
       <c r="AD156" t="s">
         <v>118</v>
       </c>
@@ -9947,9 +10102,6 @@
       <c r="G157" t="s">
         <v>65</v>
       </c>
-      <c r="J157" t="s">
-        <v>646</v>
-      </c>
       <c r="K157" t="s">
         <v>55</v>
       </c>
@@ -9974,6 +10126,10 @@
       <c r="X157" t="s">
         <v>155</v>
       </c>
+      <c r="AB157" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC157"/>
       <c r="AD157" t="s">
         <v>118</v>
       </c>
@@ -9997,9 +10153,6 @@
       <c r="G158" t="s">
         <v>65</v>
       </c>
-      <c r="J158" t="s">
-        <v>646</v>
-      </c>
       <c r="K158" t="s">
         <v>55</v>
       </c>
@@ -10024,6 +10177,10 @@
       <c r="X158" t="s">
         <v>155</v>
       </c>
+      <c r="AB158" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC158"/>
       <c r="AD158" t="s">
         <v>118</v>
       </c>
@@ -10047,9 +10204,6 @@
       <c r="G159" t="s">
         <v>65</v>
       </c>
-      <c r="J159" t="s">
-        <v>646</v>
-      </c>
       <c r="K159" t="s">
         <v>510</v>
       </c>
@@ -10074,6 +10228,10 @@
       <c r="X159" t="s">
         <v>155</v>
       </c>
+      <c r="AB159" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC159"/>
       <c r="AD159" t="s">
         <v>119</v>
       </c>
@@ -10097,9 +10255,6 @@
       <c r="G160" t="s">
         <v>65</v>
       </c>
-      <c r="J160" t="s">
-        <v>646</v>
-      </c>
       <c r="K160" t="s">
         <v>510</v>
       </c>
@@ -10124,6 +10279,10 @@
       <c r="X160" t="s">
         <v>155</v>
       </c>
+      <c r="AB160" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC160"/>
       <c r="AD160" t="s">
         <v>119</v>
       </c>
@@ -10147,9 +10306,6 @@
       <c r="G161" t="s">
         <v>65</v>
       </c>
-      <c r="J161" t="s">
-        <v>646</v>
-      </c>
       <c r="K161" t="s">
         <v>510</v>
       </c>
@@ -10174,6 +10330,10 @@
       <c r="X161" t="s">
         <v>155</v>
       </c>
+      <c r="AB161" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC161"/>
       <c r="AD161" t="s">
         <v>119</v>
       </c>
@@ -10197,9 +10357,6 @@
       <c r="G162" t="s">
         <v>65</v>
       </c>
-      <c r="J162" t="s">
-        <v>646</v>
-      </c>
       <c r="K162" t="s">
         <v>510</v>
       </c>
@@ -10224,6 +10381,10 @@
       <c r="X162" t="s">
         <v>155</v>
       </c>
+      <c r="AB162" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC162"/>
       <c r="AD162" t="s">
         <v>119</v>
       </c>
@@ -10247,9 +10408,6 @@
       <c r="H163" t="s">
         <v>65</v>
       </c>
-      <c r="J163" t="s">
-        <v>646</v>
-      </c>
       <c r="K163" t="s">
         <v>517</v>
       </c>
@@ -10274,6 +10432,10 @@
       <c r="X163" t="s">
         <v>155</v>
       </c>
+      <c r="AB163" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC163"/>
       <c r="AD163" t="s">
         <v>119</v>
       </c>
@@ -10294,9 +10456,6 @@
       <c r="F164" t="s">
         <v>65</v>
       </c>
-      <c r="J164" t="s">
-        <v>646</v>
-      </c>
       <c r="K164" t="s">
         <v>521</v>
       </c>
@@ -10321,6 +10480,10 @@
       <c r="X164" t="s">
         <v>155</v>
       </c>
+      <c r="AB164" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC164"/>
       <c r="AD164" t="s">
         <v>120</v>
       </c>
@@ -10341,9 +10504,6 @@
       <c r="F165" t="s">
         <v>65</v>
       </c>
-      <c r="J165" t="s">
-        <v>646</v>
-      </c>
       <c r="K165" t="s">
         <v>56</v>
       </c>
@@ -10368,6 +10528,10 @@
       <c r="X165" t="s">
         <v>155</v>
       </c>
+      <c r="AB165" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC165"/>
       <c r="AD165" t="s">
         <v>111</v>
       </c>
@@ -10388,9 +10552,6 @@
       <c r="F166" t="s">
         <v>65</v>
       </c>
-      <c r="J166" t="s">
-        <v>646</v>
-      </c>
       <c r="K166" t="s">
         <v>57</v>
       </c>
@@ -10415,6 +10576,10 @@
       <c r="X166" t="s">
         <v>155</v>
       </c>
+      <c r="AB166" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC166"/>
     </row>
     <row r="167" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
@@ -10432,9 +10597,6 @@
       <c r="F167" t="s">
         <v>65</v>
       </c>
-      <c r="J167" t="s">
-        <v>646</v>
-      </c>
       <c r="K167" t="s">
         <v>57</v>
       </c>
@@ -10459,6 +10621,10 @@
       <c r="X167" t="s">
         <v>155</v>
       </c>
+      <c r="AB167" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC167"/>
     </row>
     <row r="168" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
@@ -10479,9 +10645,6 @@
       <c r="G168" t="s">
         <v>65</v>
       </c>
-      <c r="J168" t="s">
-        <v>646</v>
-      </c>
       <c r="K168" t="s">
         <v>532</v>
       </c>
@@ -10506,6 +10669,10 @@
       <c r="X168" t="s">
         <v>155</v>
       </c>
+      <c r="AB168" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC168"/>
     </row>
     <row r="169" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
@@ -10523,9 +10690,6 @@
       <c r="F169" t="s">
         <v>65</v>
       </c>
-      <c r="J169" t="s">
-        <v>646</v>
-      </c>
       <c r="K169">
         <v>999</v>
       </c>
@@ -10550,6 +10714,10 @@
       <c r="X169" t="s">
         <v>155</v>
       </c>
+      <c r="AB169" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC169"/>
       <c r="AD169" t="s">
         <v>121</v>
       </c>
@@ -10576,9 +10744,6 @@
       <c r="H170" t="s">
         <v>65</v>
       </c>
-      <c r="J170" t="s">
-        <v>646</v>
-      </c>
       <c r="K170" t="s">
         <v>536</v>
       </c>
@@ -10603,6 +10768,10 @@
       <c r="X170" t="s">
         <v>155</v>
       </c>
+      <c r="AB170" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC170"/>
       <c r="AD170" t="s">
         <v>122</v>
       </c>
@@ -10632,9 +10801,6 @@
       <c r="H171" t="s">
         <v>65</v>
       </c>
-      <c r="J171" t="s">
-        <v>646</v>
-      </c>
       <c r="K171" t="s">
         <v>608</v>
       </c>
@@ -10659,6 +10825,10 @@
       <c r="X171" t="s">
         <v>155</v>
       </c>
+      <c r="AB171" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC171"/>
       <c r="AE171" t="s">
         <v>146</v>
       </c>
@@ -10688,9 +10858,6 @@
       <c r="H172" t="s">
         <v>65</v>
       </c>
-      <c r="J172" t="s">
-        <v>646</v>
-      </c>
       <c r="K172" t="s">
         <v>545</v>
       </c>
@@ -10715,6 +10882,10 @@
       <c r="X172" t="s">
         <v>155</v>
       </c>
+      <c r="AB172" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC172"/>
       <c r="AD172" t="s">
         <v>123</v>
       </c>
@@ -10741,9 +10912,6 @@
       <c r="F173" t="s">
         <v>65</v>
       </c>
-      <c r="J173" t="s">
-        <v>646</v>
-      </c>
       <c r="K173" t="s">
         <v>549</v>
       </c>
@@ -10768,6 +10936,10 @@
       <c r="X173" t="s">
         <v>155</v>
       </c>
+      <c r="AB173" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC173"/>
       <c r="AD173" t="s">
         <v>124</v>
       </c>
@@ -10794,9 +10966,6 @@
       <c r="F174" t="s">
         <v>65</v>
       </c>
-      <c r="J174" t="s">
-        <v>646</v>
-      </c>
       <c r="K174" t="s">
         <v>549</v>
       </c>
@@ -10821,6 +10990,10 @@
       <c r="X174" t="s">
         <v>155</v>
       </c>
+      <c r="AB174" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC174"/>
     </row>
     <row r="175" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
@@ -10838,9 +11011,6 @@
       <c r="F175" t="s">
         <v>65</v>
       </c>
-      <c r="J175" t="s">
-        <v>646</v>
-      </c>
       <c r="K175" t="s">
         <v>549</v>
       </c>
@@ -10865,6 +11035,10 @@
       <c r="X175" t="s">
         <v>155</v>
       </c>
+      <c r="AB175" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC175"/>
     </row>
     <row r="176" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
@@ -10885,9 +11059,6 @@
       <c r="G176" t="s">
         <v>65</v>
       </c>
-      <c r="J176" t="s">
-        <v>646</v>
-      </c>
       <c r="K176" t="s">
         <v>551</v>
       </c>
@@ -10912,6 +11083,10 @@
       <c r="X176" t="s">
         <v>155</v>
       </c>
+      <c r="AB176" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC176"/>
       <c r="AD176" t="s">
         <v>125</v>
       </c>
@@ -10941,9 +11116,6 @@
       <c r="G177" t="s">
         <v>65</v>
       </c>
-      <c r="J177" t="s">
-        <v>646</v>
-      </c>
       <c r="K177" t="s">
         <v>311</v>
       </c>
@@ -10968,6 +11140,10 @@
       <c r="X177" t="s">
         <v>155</v>
       </c>
+      <c r="AB177" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC177"/>
       <c r="AD177" t="s">
         <v>126</v>
       </c>
@@ -10994,9 +11170,6 @@
       <c r="F178" t="s">
         <v>65</v>
       </c>
-      <c r="J178" t="s">
-        <v>646</v>
-      </c>
       <c r="K178">
         <v>999</v>
       </c>
@@ -11021,6 +11194,10 @@
       <c r="X178" t="s">
         <v>155</v>
       </c>
+      <c r="AB178" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC178"/>
       <c r="AD178" t="s">
         <v>127</v>
       </c>
@@ -11044,9 +11221,6 @@
       <c r="F179" t="s">
         <v>65</v>
       </c>
-      <c r="J179" t="s">
-        <v>646</v>
-      </c>
       <c r="K179">
         <v>999</v>
       </c>
@@ -11071,6 +11245,10 @@
       <c r="X179" t="s">
         <v>155</v>
       </c>
+      <c r="AB179" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC179"/>
     </row>
     <row r="180" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
@@ -11088,9 +11266,6 @@
       <c r="F180" t="s">
         <v>65</v>
       </c>
-      <c r="J180" t="s">
-        <v>646</v>
-      </c>
       <c r="K180">
         <v>999</v>
       </c>
@@ -11115,6 +11290,10 @@
       <c r="X180" t="s">
         <v>155</v>
       </c>
+      <c r="AB180" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC180"/>
     </row>
     <row r="181" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
@@ -11132,9 +11311,6 @@
       <c r="F181" t="s">
         <v>65</v>
       </c>
-      <c r="J181" t="s">
-        <v>646</v>
-      </c>
       <c r="K181">
         <v>999</v>
       </c>
@@ -11159,6 +11335,10 @@
       <c r="X181" t="s">
         <v>155</v>
       </c>
+      <c r="AB181" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC181"/>
     </row>
     <row r="182" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
@@ -11179,9 +11359,6 @@
       <c r="G182" t="s">
         <v>65</v>
       </c>
-      <c r="J182" t="s">
-        <v>646</v>
-      </c>
       <c r="K182" t="s">
         <v>58</v>
       </c>
@@ -11206,6 +11383,10 @@
       <c r="X182" t="s">
         <v>155</v>
       </c>
+      <c r="AB182" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC182"/>
       <c r="AD182" t="s">
         <v>128</v>
       </c>
@@ -11232,9 +11413,6 @@
       <c r="G183" t="s">
         <v>65</v>
       </c>
-      <c r="J183" t="s">
-        <v>646</v>
-      </c>
       <c r="K183">
         <v>999</v>
       </c>
@@ -11259,6 +11437,10 @@
       <c r="X183" t="s">
         <v>155</v>
       </c>
+      <c r="AB183" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC183"/>
       <c r="AD183" t="s">
         <v>129</v>
       </c>
@@ -11285,9 +11467,6 @@
       <c r="G184" t="s">
         <v>65</v>
       </c>
-      <c r="J184" t="s">
-        <v>646</v>
-      </c>
       <c r="K184">
         <v>999</v>
       </c>
@@ -11312,6 +11491,10 @@
       <c r="X184" t="s">
         <v>155</v>
       </c>
+      <c r="AB184" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC184"/>
       <c r="AD184" t="s">
         <v>129</v>
       </c>
@@ -11335,9 +11518,6 @@
       <c r="F185" t="s">
         <v>65</v>
       </c>
-      <c r="J185" t="s">
-        <v>646</v>
-      </c>
       <c r="K185" t="s">
         <v>609</v>
       </c>
@@ -11362,6 +11542,10 @@
       <c r="X185" t="s">
         <v>155</v>
       </c>
+      <c r="AB185" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC185"/>
       <c r="AD185" t="s">
         <v>130</v>
       </c>
@@ -11385,9 +11569,6 @@
       <c r="F186" t="s">
         <v>65</v>
       </c>
-      <c r="J186" t="s">
-        <v>646</v>
-      </c>
       <c r="K186">
         <v>999</v>
       </c>
@@ -11412,6 +11593,10 @@
       <c r="X186" t="s">
         <v>155</v>
       </c>
+      <c r="AB186" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC186"/>
       <c r="AD186" t="s">
         <v>129</v>
       </c>
@@ -11435,9 +11620,6 @@
       <c r="F187" t="s">
         <v>65</v>
       </c>
-      <c r="J187" t="s">
-        <v>646</v>
-      </c>
       <c r="K187">
         <v>999</v>
       </c>
@@ -11462,6 +11644,10 @@
       <c r="X187" t="s">
         <v>155</v>
       </c>
+      <c r="AB187" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC187"/>
       <c r="AD187" t="s">
         <v>129</v>
       </c>
@@ -11479,9 +11665,6 @@
       <c r="E188">
         <v>328</v>
       </c>
-      <c r="J188" t="s">
-        <v>646</v>
-      </c>
       <c r="K188" t="s">
         <v>637</v>
       </c>
@@ -11506,6 +11689,10 @@
       <c r="X188" t="s">
         <v>155</v>
       </c>
+      <c r="AB188" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC188"/>
     </row>
     <row r="189" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
@@ -11520,9 +11707,6 @@
       <c r="E189">
         <v>328</v>
       </c>
-      <c r="J189" t="s">
-        <v>646</v>
-      </c>
       <c r="K189" t="s">
         <v>637</v>
       </c>
@@ -11547,6 +11731,10 @@
       <c r="X189" t="s">
         <v>155</v>
       </c>
+      <c r="AB189" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC189"/>
     </row>
     <row r="190" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
@@ -11561,9 +11749,6 @@
       <c r="E190">
         <v>339</v>
       </c>
-      <c r="J190" t="s">
-        <v>646</v>
-      </c>
       <c r="K190">
         <v>999</v>
       </c>
@@ -11588,6 +11773,10 @@
       <c r="X190" t="s">
         <v>155</v>
       </c>
+      <c r="AB190" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC190"/>
     </row>
     <row r="191" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
@@ -11608,9 +11797,6 @@
       <c r="G191" t="s">
         <v>65</v>
       </c>
-      <c r="J191" t="s">
-        <v>646</v>
-      </c>
       <c r="K191" t="s">
         <v>567</v>
       </c>
@@ -11635,6 +11821,10 @@
       <c r="X191" t="s">
         <v>155</v>
       </c>
+      <c r="AB191" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC191"/>
       <c r="AD191" t="s">
         <v>131</v>
       </c>
@@ -11664,9 +11854,6 @@
       <c r="G192" t="s">
         <v>65</v>
       </c>
-      <c r="J192" t="s">
-        <v>646</v>
-      </c>
       <c r="K192">
         <v>999</v>
       </c>
@@ -11691,7 +11878,10 @@
       <c r="X192" t="s">
         <v>155</v>
       </c>
-      <c r="AA192" t="s">
+      <c r="AB192" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC192" t="s">
         <v>628</v>
       </c>
       <c r="AD192" t="s">
@@ -11719,9 +11909,6 @@
       </c>
       <c r="G193" t="s">
         <v>65</v>
-      </c>
-      <c r="J193" t="s">
-        <v>646</v>
       </c>
       <c r="K193" t="s">
         <v>572</v>
@@ -11749,7 +11936,10 @@
       <c r="X193" t="s">
         <v>155</v>
       </c>
-      <c r="AA193" t="s">
+      <c r="AB193" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC193" t="s">
         <v>576</v>
       </c>
       <c r="AD193" t="s">
@@ -11777,9 +11967,6 @@
       </c>
       <c r="G194" t="s">
         <v>65</v>
-      </c>
-      <c r="J194" t="s">
-        <v>646</v>
       </c>
       <c r="K194" t="s">
         <v>59</v>
@@ -11806,7 +11993,10 @@
       <c r="X194" t="s">
         <v>155</v>
       </c>
-      <c r="AA194" t="s">
+      <c r="AB194" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC194" t="s">
         <v>579</v>
       </c>
       <c r="AD194" t="s">
@@ -11835,9 +12025,6 @@
       <c r="G195" t="s">
         <v>65</v>
       </c>
-      <c r="J195" t="s">
-        <v>646</v>
-      </c>
       <c r="K195" t="s">
         <v>581</v>
       </c>
@@ -11862,6 +12049,10 @@
       <c r="X195" t="s">
         <v>155</v>
       </c>
+      <c r="AB195" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC195"/>
       <c r="AD195" t="s">
         <v>134</v>
       </c>
@@ -11882,9 +12073,6 @@
       <c r="E196">
         <v>347</v>
       </c>
-      <c r="J196" t="s">
-        <v>646</v>
-      </c>
       <c r="K196" t="s">
         <v>638</v>
       </c>
@@ -11909,6 +12097,10 @@
       <c r="X196" t="s">
         <v>155</v>
       </c>
+      <c r="AB196" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC196"/>
     </row>
     <row r="197" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
@@ -11929,9 +12121,6 @@
       <c r="G197" t="s">
         <v>65</v>
       </c>
-      <c r="J197" t="s">
-        <v>646</v>
-      </c>
       <c r="K197">
         <v>999</v>
       </c>
@@ -11956,6 +12145,10 @@
       <c r="X197" t="s">
         <v>155</v>
       </c>
+      <c r="AB197" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC197"/>
       <c r="AD197" t="s">
         <v>135</v>
       </c>
@@ -11982,9 +12175,6 @@
       <c r="F198" t="s">
         <v>65</v>
       </c>
-      <c r="J198" t="s">
-        <v>646</v>
-      </c>
       <c r="K198" t="s">
         <v>60</v>
       </c>
@@ -12009,6 +12199,10 @@
       <c r="X198" t="s">
         <v>155</v>
       </c>
+      <c r="AB198" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC198"/>
       <c r="AD198" t="s">
         <v>135</v>
       </c>
@@ -12032,9 +12226,6 @@
       <c r="G199" t="s">
         <v>65</v>
       </c>
-      <c r="J199" t="s">
-        <v>646</v>
-      </c>
       <c r="K199" t="s">
         <v>589</v>
       </c>
@@ -12059,6 +12250,10 @@
       <c r="X199" t="s">
         <v>155</v>
       </c>
+      <c r="AB199" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC199"/>
       <c r="AD199" t="s">
         <v>136</v>
       </c>
@@ -12082,9 +12277,6 @@
       <c r="G200" t="s">
         <v>65</v>
       </c>
-      <c r="J200" t="s">
-        <v>646</v>
-      </c>
       <c r="K200" t="s">
         <v>589</v>
       </c>
@@ -12109,6 +12301,10 @@
       <c r="X200" t="s">
         <v>155</v>
       </c>
+      <c r="AB200" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC200"/>
       <c r="AD200" t="s">
         <v>136</v>
       </c>
@@ -12126,9 +12322,6 @@
       <c r="E201">
         <v>348</v>
       </c>
-      <c r="J201" t="s">
-        <v>646</v>
-      </c>
       <c r="K201" t="s">
         <v>641</v>
       </c>
@@ -12153,6 +12346,10 @@
       <c r="X201" t="s">
         <v>155</v>
       </c>
+      <c r="AB201" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC201"/>
     </row>
     <row r="202" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
@@ -12170,9 +12367,6 @@
       <c r="F202" t="s">
         <v>65</v>
       </c>
-      <c r="J202" t="s">
-        <v>646</v>
-      </c>
       <c r="K202" t="s">
         <v>61</v>
       </c>
@@ -12197,6 +12391,10 @@
       <c r="X202" t="s">
         <v>155</v>
       </c>
+      <c r="AB202" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC202"/>
       <c r="AD202" t="s">
         <v>137</v>
       </c>
@@ -12217,9 +12415,6 @@
       <c r="E203">
         <v>348</v>
       </c>
-      <c r="J203" t="s">
-        <v>646</v>
-      </c>
       <c r="K203" t="s">
         <v>635</v>
       </c>
@@ -12244,6 +12439,10 @@
       <c r="X203" t="s">
         <v>155</v>
       </c>
+      <c r="AB203" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC203"/>
     </row>
     <row r="204" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
@@ -12258,9 +12457,6 @@
       <c r="E204">
         <v>357</v>
       </c>
-      <c r="J204" t="s">
-        <v>646</v>
-      </c>
       <c r="K204" t="s">
         <v>597</v>
       </c>
@@ -12285,6 +12481,10 @@
       <c r="X204" t="s">
         <v>155</v>
       </c>
+      <c r="AB204" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC204"/>
     </row>
     <row r="205" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
@@ -12305,9 +12505,6 @@
       <c r="G205" t="s">
         <v>65</v>
       </c>
-      <c r="J205" t="s">
-        <v>646</v>
-      </c>
       <c r="K205" t="s">
         <v>597</v>
       </c>
@@ -12332,6 +12529,10 @@
       <c r="X205" t="s">
         <v>155</v>
       </c>
+      <c r="AB205" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC205"/>
       <c r="AD205" t="s">
         <v>138</v>
       </c>
@@ -12361,9 +12562,6 @@
       <c r="G206" t="s">
         <v>65</v>
       </c>
-      <c r="J206" t="s">
-        <v>646</v>
-      </c>
       <c r="K206" t="s">
         <v>601</v>
       </c>
@@ -12388,6 +12586,10 @@
       <c r="X206" t="s">
         <v>155</v>
       </c>
+      <c r="AB206" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC206"/>
       <c r="AD206" t="s">
         <v>139</v>
       </c>
@@ -12414,9 +12616,6 @@
       <c r="G207" t="s">
         <v>65</v>
       </c>
-      <c r="J207" t="s">
-        <v>646</v>
-      </c>
       <c r="K207" t="s">
         <v>605</v>
       </c>
@@ -12441,6 +12640,10 @@
       <c r="X207" t="s">
         <v>155</v>
       </c>
+      <c r="AB207" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC207"/>
       <c r="AD207" t="s">
         <v>140</v>
       </c>
